--- a/02_外部設計_画面設計/014-1-外部設計書(画面・帳票仕様)_ショッピング_商品検索.xlsx
+++ b/02_外部設計_画面設計/014-1-外部設計書(画面・帳票仕様)_ショッピング_商品検索.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCABA621-40D7-4B7C-9101-ACDD385A1228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1"/>
+    <workbookView xWindow="5868" yWindow="-72" windowWidth="17280" windowHeight="11808" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="画面レイアウト図" sheetId="2" r:id="rId1"/>
@@ -13,7 +14,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">画面レイアウト図!$A$1:$BE$106</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">画面入出力項目一覧!$A$1:$BC$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">画面入出力項目一覧!$A$1:$BC$45</definedName>
     <definedName name="部品種別">OFFSET('（データリスト）'!$A$1,0,0,COUNTA('（データリスト）'!$A:$A),1)</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -21,12 +22,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作成者</author>
   </authors>
   <commentList>
-    <comment ref="W7" authorId="0" shapeId="0">
+    <comment ref="W7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -44,7 +45,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W20" authorId="0" shapeId="0">
+    <comment ref="W21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -62,7 +63,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W36" authorId="0" shapeId="0">
+    <comment ref="W34" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -85,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="81">
   <si>
     <t>業務</t>
   </si>
@@ -557,10 +558,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>submit</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>商品検索</t>
     <rPh sb="0" eb="4">
       <t>ショウヒンケンサク</t>
@@ -581,11 +578,52 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>ログアウト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>奈良田　岬</t>
+    <rPh sb="0" eb="2">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>デン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ミサキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>logout</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>奈良田　岬</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>previous</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>next</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-411]yyyy/mm/dd"/>
   </numFmts>
@@ -675,7 +713,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -881,13 +919,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -993,24 +1068,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1030,10 +1087,43 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1047,8 +1137,11 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1062,23 +1155,41 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1119,7 +1230,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1187,7 +1304,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1255,7 +1378,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1387,6 +1516,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1422,6 +1568,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1597,7 +1760,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -1607,87 +1770,87 @@
       <selection activeCell="AD73" sqref="AD73:AL73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="2.453125" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="2.5" style="4"/>
+    <col min="1" max="16384" width="2.453125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="35" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="47" t="s">
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA1" s="41"/>
+      <c r="AB1" s="41"/>
+      <c r="AC1" s="41"/>
+      <c r="AD1" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA1" s="35"/>
-      <c r="AB1" s="35"/>
-      <c r="AC1" s="35"/>
-      <c r="AD1" s="47" t="s">
-        <v>73</v>
-      </c>
-      <c r="AE1" s="47"/>
-      <c r="AF1" s="47"/>
-      <c r="AG1" s="47"/>
-      <c r="AH1" s="47"/>
-      <c r="AI1" s="47"/>
-      <c r="AJ1" s="47"/>
-      <c r="AK1" s="47"/>
-      <c r="AL1" s="47"/>
-      <c r="AM1" s="35" t="s">
+      <c r="AE1" s="43"/>
+      <c r="AF1" s="43"/>
+      <c r="AG1" s="43"/>
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="43"/>
+      <c r="AL1" s="43"/>
+      <c r="AM1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="AN1" s="35"/>
-      <c r="AO1" s="35"/>
-      <c r="AP1" s="47" t="s">
+      <c r="AN1" s="41"/>
+      <c r="AO1" s="41"/>
+      <c r="AP1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="AQ1" s="47"/>
-      <c r="AR1" s="47"/>
-      <c r="AS1" s="47"/>
-      <c r="AT1" s="47"/>
-      <c r="AU1" s="47"/>
-      <c r="AV1" s="47"/>
-      <c r="AW1" s="35" t="s">
+      <c r="AQ1" s="43"/>
+      <c r="AR1" s="43"/>
+      <c r="AS1" s="43"/>
+      <c r="AT1" s="43"/>
+      <c r="AU1" s="43"/>
+      <c r="AV1" s="43"/>
+      <c r="AW1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AX1" s="35"/>
-      <c r="AY1" s="35"/>
-      <c r="AZ1" s="36" t="s">
+      <c r="AX1" s="41"/>
+      <c r="AY1" s="41"/>
+      <c r="AZ1" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="BA1" s="36"/>
-      <c r="BB1" s="36"/>
-      <c r="BC1" s="36"/>
-      <c r="BD1" s="36"/>
-      <c r="BE1" s="36"/>
+      <c r="BA1" s="42"/>
+      <c r="BB1" s="42"/>
+      <c r="BC1" s="42"/>
+      <c r="BD1" s="42"/>
+      <c r="BE1" s="42"/>
       <c r="BF1" s="8"/>
       <c r="BG1" s="8"/>
       <c r="BH1" s="8"/>
@@ -1886,68 +2049,68 @@
       <c r="IS1" s="8"/>
       <c r="IT1" s="8"/>
     </row>
-    <row r="2" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="47"/>
-      <c r="W2" s="47"/>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="47"/>
-      <c r="Z2" s="35"/>
-      <c r="AA2" s="35"/>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="35"/>
-      <c r="AD2" s="47"/>
-      <c r="AE2" s="47"/>
-      <c r="AF2" s="47"/>
-      <c r="AG2" s="47"/>
-      <c r="AH2" s="47"/>
-      <c r="AI2" s="47"/>
-      <c r="AJ2" s="47"/>
-      <c r="AK2" s="47"/>
-      <c r="AL2" s="47"/>
-      <c r="AM2" s="35" t="s">
+    <row r="2" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="38"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="43"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
+      <c r="Z2" s="41"/>
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="41"/>
+      <c r="AC2" s="41"/>
+      <c r="AD2" s="43"/>
+      <c r="AE2" s="43"/>
+      <c r="AF2" s="43"/>
+      <c r="AG2" s="43"/>
+      <c r="AH2" s="43"/>
+      <c r="AI2" s="43"/>
+      <c r="AJ2" s="43"/>
+      <c r="AK2" s="43"/>
+      <c r="AL2" s="43"/>
+      <c r="AM2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="AN2" s="35"/>
-      <c r="AO2" s="35"/>
-      <c r="AP2" s="47"/>
-      <c r="AQ2" s="47"/>
-      <c r="AR2" s="47"/>
-      <c r="AS2" s="47"/>
-      <c r="AT2" s="47"/>
-      <c r="AU2" s="47"/>
-      <c r="AV2" s="47"/>
-      <c r="AW2" s="35" t="s">
+      <c r="AN2" s="41"/>
+      <c r="AO2" s="41"/>
+      <c r="AP2" s="43"/>
+      <c r="AQ2" s="43"/>
+      <c r="AR2" s="43"/>
+      <c r="AS2" s="43"/>
+      <c r="AT2" s="43"/>
+      <c r="AU2" s="43"/>
+      <c r="AV2" s="43"/>
+      <c r="AW2" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AX2" s="35"/>
-      <c r="AY2" s="35"/>
-      <c r="AZ2" s="36"/>
-      <c r="BA2" s="36"/>
-      <c r="BB2" s="36"/>
-      <c r="BC2" s="36"/>
-      <c r="BD2" s="36"/>
-      <c r="BE2" s="36"/>
+      <c r="AX2" s="41"/>
+      <c r="AY2" s="41"/>
+      <c r="AZ2" s="42"/>
+      <c r="BA2" s="42"/>
+      <c r="BB2" s="42"/>
+      <c r="BC2" s="42"/>
+      <c r="BD2" s="42"/>
+      <c r="BE2" s="42"/>
       <c r="BF2" s="8"/>
       <c r="BG2" s="8"/>
       <c r="BH2" s="8"/>
@@ -2146,7 +2309,7 @@
       <c r="IS2" s="8"/>
       <c r="IT2" s="8"/>
     </row>
-    <row r="3" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -2402,72 +2565,72 @@
       <c r="IS3" s="8"/>
       <c r="IT3" s="8"/>
     </row>
-    <row r="4" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
+    <row r="4" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="39" t="s">
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="40"/>
-      <c r="S4" s="40"/>
-      <c r="T4" s="40"/>
-      <c r="U4" s="40"/>
-      <c r="V4" s="40"/>
-      <c r="W4" s="40"/>
-      <c r="X4" s="38" t="s">
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="47"/>
+      <c r="S4" s="47"/>
+      <c r="T4" s="47"/>
+      <c r="U4" s="47"/>
+      <c r="V4" s="47"/>
+      <c r="W4" s="47"/>
+      <c r="X4" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="38"/>
-      <c r="AB4" s="38"/>
-      <c r="AC4" s="39" t="s">
+      <c r="Y4" s="46"/>
+      <c r="Z4" s="46"/>
+      <c r="AA4" s="46"/>
+      <c r="AB4" s="46"/>
+      <c r="AC4" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="AD4" s="40"/>
-      <c r="AE4" s="40"/>
-      <c r="AF4" s="40"/>
-      <c r="AG4" s="40"/>
-      <c r="AH4" s="40"/>
-      <c r="AI4" s="40"/>
-      <c r="AJ4" s="40"/>
-      <c r="AK4" s="40"/>
-      <c r="AL4" s="40"/>
-      <c r="AM4" s="40"/>
-      <c r="AN4" s="40"/>
-      <c r="AO4" s="40"/>
-      <c r="AP4" s="40"/>
-      <c r="AQ4" s="40"/>
-      <c r="AR4" s="40"/>
-      <c r="AS4" s="40"/>
-      <c r="AT4" s="40"/>
-      <c r="AU4" s="40"/>
-      <c r="AV4" s="40"/>
-      <c r="AW4" s="40"/>
-      <c r="AX4" s="40"/>
-      <c r="AY4" s="40"/>
-      <c r="AZ4" s="40"/>
-      <c r="BA4" s="40"/>
-      <c r="BB4" s="40"/>
-      <c r="BC4" s="40"/>
-      <c r="BD4" s="40"/>
-      <c r="BE4" s="40"/>
+      <c r="AD4" s="47"/>
+      <c r="AE4" s="47"/>
+      <c r="AF4" s="47"/>
+      <c r="AG4" s="47"/>
+      <c r="AH4" s="47"/>
+      <c r="AI4" s="47"/>
+      <c r="AJ4" s="47"/>
+      <c r="AK4" s="47"/>
+      <c r="AL4" s="47"/>
+      <c r="AM4" s="47"/>
+      <c r="AN4" s="47"/>
+      <c r="AO4" s="47"/>
+      <c r="AP4" s="47"/>
+      <c r="AQ4" s="47"/>
+      <c r="AR4" s="47"/>
+      <c r="AS4" s="47"/>
+      <c r="AT4" s="47"/>
+      <c r="AU4" s="47"/>
+      <c r="AV4" s="47"/>
+      <c r="AW4" s="47"/>
+      <c r="AX4" s="47"/>
+      <c r="AY4" s="47"/>
+      <c r="AZ4" s="47"/>
+      <c r="BA4" s="47"/>
+      <c r="BB4" s="47"/>
+      <c r="BC4" s="47"/>
+      <c r="BD4" s="47"/>
+      <c r="BE4" s="47"/>
       <c r="BF4" s="8"/>
       <c r="BG4" s="8"/>
       <c r="BH4" s="8"/>
@@ -2666,64 +2829,64 @@
       <c r="IS4" s="8"/>
       <c r="IT4" s="8"/>
     </row>
-    <row r="5" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="40"/>
-      <c r="R5" s="40"/>
-      <c r="S5" s="40"/>
-      <c r="T5" s="40"/>
-      <c r="U5" s="40"/>
-      <c r="V5" s="40"/>
-      <c r="W5" s="40"/>
-      <c r="X5" s="38"/>
-      <c r="Y5" s="38"/>
-      <c r="Z5" s="38"/>
-      <c r="AA5" s="38"/>
-      <c r="AB5" s="38"/>
-      <c r="AC5" s="40"/>
-      <c r="AD5" s="40"/>
-      <c r="AE5" s="40"/>
-      <c r="AF5" s="40"/>
-      <c r="AG5" s="40"/>
-      <c r="AH5" s="40"/>
-      <c r="AI5" s="40"/>
-      <c r="AJ5" s="40"/>
-      <c r="AK5" s="40"/>
-      <c r="AL5" s="40"/>
-      <c r="AM5" s="40"/>
-      <c r="AN5" s="40"/>
-      <c r="AO5" s="40"/>
-      <c r="AP5" s="40"/>
-      <c r="AQ5" s="40"/>
-      <c r="AR5" s="40"/>
-      <c r="AS5" s="40"/>
-      <c r="AT5" s="40"/>
-      <c r="AU5" s="40"/>
-      <c r="AV5" s="40"/>
-      <c r="AW5" s="40"/>
-      <c r="AX5" s="40"/>
-      <c r="AY5" s="40"/>
-      <c r="AZ5" s="40"/>
-      <c r="BA5" s="40"/>
-      <c r="BB5" s="40"/>
-      <c r="BC5" s="40"/>
-      <c r="BD5" s="40"/>
-      <c r="BE5" s="40"/>
+    <row r="5" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="46"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="47"/>
+      <c r="R5" s="47"/>
+      <c r="S5" s="47"/>
+      <c r="T5" s="47"/>
+      <c r="U5" s="47"/>
+      <c r="V5" s="47"/>
+      <c r="W5" s="47"/>
+      <c r="X5" s="46"/>
+      <c r="Y5" s="46"/>
+      <c r="Z5" s="46"/>
+      <c r="AA5" s="46"/>
+      <c r="AB5" s="46"/>
+      <c r="AC5" s="47"/>
+      <c r="AD5" s="47"/>
+      <c r="AE5" s="47"/>
+      <c r="AF5" s="47"/>
+      <c r="AG5" s="47"/>
+      <c r="AH5" s="47"/>
+      <c r="AI5" s="47"/>
+      <c r="AJ5" s="47"/>
+      <c r="AK5" s="47"/>
+      <c r="AL5" s="47"/>
+      <c r="AM5" s="47"/>
+      <c r="AN5" s="47"/>
+      <c r="AO5" s="47"/>
+      <c r="AP5" s="47"/>
+      <c r="AQ5" s="47"/>
+      <c r="AR5" s="47"/>
+      <c r="AS5" s="47"/>
+      <c r="AT5" s="47"/>
+      <c r="AU5" s="47"/>
+      <c r="AV5" s="47"/>
+      <c r="AW5" s="47"/>
+      <c r="AX5" s="47"/>
+      <c r="AY5" s="47"/>
+      <c r="AZ5" s="47"/>
+      <c r="BA5" s="47"/>
+      <c r="BB5" s="47"/>
+      <c r="BC5" s="47"/>
+      <c r="BD5" s="47"/>
+      <c r="BE5" s="47"/>
       <c r="BF5" s="8"/>
       <c r="BG5" s="8"/>
       <c r="BH5" s="8"/>
@@ -2922,7 +3085,7 @@
       <c r="IS5" s="8"/>
       <c r="IT5" s="8"/>
     </row>
-    <row r="6" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -3178,7 +3341,7 @@
       <c r="IS6" s="8"/>
       <c r="IT6" s="8"/>
     </row>
-    <row r="7" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -3434,7 +3597,7 @@
       <c r="IS7" s="8"/>
       <c r="IT7" s="8"/>
     </row>
-    <row r="8" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13"/>
       <c r="B8" s="25"/>
       <c r="C8" s="14"/>
@@ -3690,7 +3853,7 @@
       <c r="IS8" s="8"/>
       <c r="IT8" s="8"/>
     </row>
-    <row r="9" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
@@ -3946,7 +4109,7 @@
       <c r="IS9" s="8"/>
       <c r="IT9" s="8"/>
     </row>
-    <row r="10" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13"/>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
@@ -4202,7 +4365,7 @@
       <c r="IS10" s="8"/>
       <c r="IT10" s="8"/>
     </row>
-    <row r="11" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13"/>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
@@ -4458,7 +4621,7 @@
       <c r="IS11" s="8"/>
       <c r="IT11" s="8"/>
     </row>
-    <row r="12" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13"/>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
@@ -4714,7 +4877,7 @@
       <c r="IS12" s="8"/>
       <c r="IT12" s="8"/>
     </row>
-    <row r="13" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13"/>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
@@ -4970,7 +5133,7 @@
       <c r="IS13" s="8"/>
       <c r="IT13" s="8"/>
     </row>
-    <row r="14" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
@@ -5226,7 +5389,7 @@
       <c r="IS14" s="8"/>
       <c r="IT14" s="8"/>
     </row>
-    <row r="15" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
@@ -5482,7 +5645,7 @@
       <c r="IS15" s="8"/>
       <c r="IT15" s="8"/>
     </row>
-    <row r="16" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13"/>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
@@ -5738,7 +5901,7 @@
       <c r="IS16" s="8"/>
       <c r="IT16" s="8"/>
     </row>
-    <row r="17" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
@@ -5994,7 +6157,7 @@
       <c r="IS17" s="8"/>
       <c r="IT17" s="8"/>
     </row>
-    <row r="18" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
@@ -6250,7 +6413,7 @@
       <c r="IS18" s="8"/>
       <c r="IT18" s="8"/>
     </row>
-    <row r="19" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
@@ -6506,7 +6669,7 @@
       <c r="IS19" s="8"/>
       <c r="IT19" s="8"/>
     </row>
-    <row r="20" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13"/>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
@@ -6762,7 +6925,7 @@
       <c r="IS20" s="8"/>
       <c r="IT20" s="8"/>
     </row>
-    <row r="21" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13"/>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
@@ -7018,7 +7181,7 @@
       <c r="IS21" s="8"/>
       <c r="IT21" s="8"/>
     </row>
-    <row r="22" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
@@ -7274,7 +7437,7 @@
       <c r="IS22" s="8"/>
       <c r="IT22" s="8"/>
     </row>
-    <row r="23" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="13"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
@@ -7530,7 +7693,7 @@
       <c r="IS23" s="8"/>
       <c r="IT23" s="8"/>
     </row>
-    <row r="24" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="19"/>
       <c r="B24" s="20"/>
       <c r="C24" s="20"/>
@@ -7591,7 +7754,7 @@
       <c r="BF24" s="7"/>
       <c r="BG24" s="7"/>
     </row>
-    <row r="25" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="19"/>
       <c r="B25" s="20"/>
       <c r="C25" s="20"/>
@@ -7652,7 +7815,7 @@
       <c r="BF25" s="7"/>
       <c r="BG25" s="7"/>
     </row>
-    <row r="26" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="19"/>
       <c r="B26" s="20"/>
       <c r="C26" s="20"/>
@@ -7713,7 +7876,7 @@
       <c r="BF26" s="7"/>
       <c r="BG26" s="7"/>
     </row>
-    <row r="27" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="19"/>
       <c r="B27" s="20"/>
       <c r="C27" s="20"/>
@@ -7774,7 +7937,7 @@
       <c r="BF27" s="7"/>
       <c r="BG27" s="7"/>
     </row>
-    <row r="28" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="19"/>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
@@ -7835,7 +7998,7 @@
       <c r="BF28" s="7"/>
       <c r="BG28" s="7"/>
     </row>
-    <row r="29" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="19"/>
       <c r="B29" s="20"/>
       <c r="C29" s="20"/>
@@ -7896,7 +8059,7 @@
       <c r="BF29" s="7"/>
       <c r="BG29" s="7"/>
     </row>
-    <row r="30" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="19"/>
       <c r="B30" s="20"/>
       <c r="C30" s="20"/>
@@ -7957,7 +8120,7 @@
       <c r="BF30" s="7"/>
       <c r="BG30" s="7"/>
     </row>
-    <row r="31" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="19"/>
       <c r="B31" s="20"/>
       <c r="C31" s="20"/>
@@ -8018,7 +8181,7 @@
       <c r="BF31" s="7"/>
       <c r="BG31" s="7"/>
     </row>
-    <row r="32" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="19"/>
       <c r="B32" s="20"/>
       <c r="C32" s="20"/>
@@ -8078,7 +8241,7 @@
       <c r="BE32" s="21"/>
       <c r="BF32" s="7"/>
     </row>
-    <row r="33" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="19"/>
       <c r="B33" s="20"/>
       <c r="C33" s="20"/>
@@ -8137,7 +8300,7 @@
       <c r="BD33" s="20"/>
       <c r="BE33" s="21"/>
     </row>
-    <row r="34" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="19"/>
       <c r="B34" s="20"/>
       <c r="C34" s="20"/>
@@ -8196,7 +8359,7 @@
       <c r="BD34" s="20"/>
       <c r="BE34" s="21"/>
     </row>
-    <row r="35" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="22"/>
       <c r="B35" s="23"/>
       <c r="C35" s="23"/>
@@ -8255,82 +8418,82 @@
       <c r="BD35" s="23"/>
       <c r="BE35" s="24"/>
     </row>
-    <row r="36" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="41" t="s">
+    <row r="36" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="42"/>
-      <c r="C36" s="42"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="42"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="42"/>
-      <c r="H36" s="42"/>
-      <c r="I36" s="42"/>
-      <c r="J36" s="42"/>
-      <c r="K36" s="42"/>
-      <c r="L36" s="43"/>
-      <c r="M36" s="35" t="s">
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="37"/>
+      <c r="M36" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="N36" s="35"/>
-      <c r="O36" s="35"/>
-      <c r="P36" s="35"/>
-      <c r="Q36" s="47" t="s">
-        <v>72</v>
+      <c r="N36" s="41"/>
+      <c r="O36" s="41"/>
+      <c r="P36" s="41"/>
+      <c r="Q36" s="43" t="s">
+        <v>71</v>
       </c>
-      <c r="R36" s="47"/>
-      <c r="S36" s="47"/>
-      <c r="T36" s="47"/>
-      <c r="U36" s="47"/>
-      <c r="V36" s="47"/>
-      <c r="W36" s="47"/>
-      <c r="X36" s="47"/>
-      <c r="Y36" s="47"/>
-      <c r="Z36" s="35" t="s">
+      <c r="R36" s="43"/>
+      <c r="S36" s="43"/>
+      <c r="T36" s="43"/>
+      <c r="U36" s="43"/>
+      <c r="V36" s="43"/>
+      <c r="W36" s="43"/>
+      <c r="X36" s="43"/>
+      <c r="Y36" s="43"/>
+      <c r="Z36" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="AA36" s="35"/>
-      <c r="AB36" s="35"/>
-      <c r="AC36" s="35"/>
-      <c r="AD36" s="47" t="s">
-        <v>71</v>
+      <c r="AA36" s="41"/>
+      <c r="AB36" s="41"/>
+      <c r="AC36" s="41"/>
+      <c r="AD36" s="43" t="s">
+        <v>70</v>
       </c>
-      <c r="AE36" s="47"/>
-      <c r="AF36" s="47"/>
-      <c r="AG36" s="47"/>
-      <c r="AH36" s="47"/>
-      <c r="AI36" s="47"/>
-      <c r="AJ36" s="47"/>
-      <c r="AK36" s="47"/>
-      <c r="AL36" s="47"/>
-      <c r="AM36" s="35" t="s">
+      <c r="AE36" s="43"/>
+      <c r="AF36" s="43"/>
+      <c r="AG36" s="43"/>
+      <c r="AH36" s="43"/>
+      <c r="AI36" s="43"/>
+      <c r="AJ36" s="43"/>
+      <c r="AK36" s="43"/>
+      <c r="AL36" s="43"/>
+      <c r="AM36" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="AN36" s="35"/>
-      <c r="AO36" s="35"/>
-      <c r="AP36" s="47" t="s">
+      <c r="AN36" s="41"/>
+      <c r="AO36" s="41"/>
+      <c r="AP36" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="AQ36" s="47"/>
-      <c r="AR36" s="47"/>
-      <c r="AS36" s="47"/>
-      <c r="AT36" s="47"/>
-      <c r="AU36" s="47"/>
-      <c r="AV36" s="47"/>
-      <c r="AW36" s="35" t="s">
+      <c r="AQ36" s="43"/>
+      <c r="AR36" s="43"/>
+      <c r="AS36" s="43"/>
+      <c r="AT36" s="43"/>
+      <c r="AU36" s="43"/>
+      <c r="AV36" s="43"/>
+      <c r="AW36" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AX36" s="35"/>
-      <c r="AY36" s="35"/>
-      <c r="AZ36" s="36" t="s">
+      <c r="AX36" s="41"/>
+      <c r="AY36" s="41"/>
+      <c r="AZ36" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="BA36" s="36"/>
-      <c r="BB36" s="36"/>
-      <c r="BC36" s="36"/>
-      <c r="BD36" s="36"/>
-      <c r="BE36" s="36"/>
+      <c r="BA36" s="42"/>
+      <c r="BB36" s="42"/>
+      <c r="BC36" s="42"/>
+      <c r="BD36" s="42"/>
+      <c r="BE36" s="42"/>
       <c r="BF36" s="8"/>
       <c r="BG36" s="8"/>
       <c r="BH36" s="8"/>
@@ -8529,68 +8692,68 @@
       <c r="IS36" s="8"/>
       <c r="IT36" s="8"/>
     </row>
-    <row r="37" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="44"/>
-      <c r="B37" s="45"/>
-      <c r="C37" s="45"/>
-      <c r="D37" s="45"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="45"/>
-      <c r="G37" s="45"/>
-      <c r="H37" s="45"/>
-      <c r="I37" s="45"/>
-      <c r="J37" s="45"/>
-      <c r="K37" s="45"/>
-      <c r="L37" s="46"/>
-      <c r="M37" s="35"/>
-      <c r="N37" s="35"/>
-      <c r="O37" s="35"/>
-      <c r="P37" s="35"/>
-      <c r="Q37" s="47"/>
-      <c r="R37" s="47"/>
-      <c r="S37" s="47"/>
-      <c r="T37" s="47"/>
-      <c r="U37" s="47"/>
-      <c r="V37" s="47"/>
-      <c r="W37" s="47"/>
-      <c r="X37" s="47"/>
-      <c r="Y37" s="47"/>
-      <c r="Z37" s="35"/>
-      <c r="AA37" s="35"/>
-      <c r="AB37" s="35"/>
-      <c r="AC37" s="35"/>
-      <c r="AD37" s="47"/>
-      <c r="AE37" s="47"/>
-      <c r="AF37" s="47"/>
-      <c r="AG37" s="47"/>
-      <c r="AH37" s="47"/>
-      <c r="AI37" s="47"/>
-      <c r="AJ37" s="47"/>
-      <c r="AK37" s="47"/>
-      <c r="AL37" s="47"/>
-      <c r="AM37" s="35" t="s">
+    <row r="37" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="38"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="39"/>
+      <c r="K37" s="39"/>
+      <c r="L37" s="40"/>
+      <c r="M37" s="41"/>
+      <c r="N37" s="41"/>
+      <c r="O37" s="41"/>
+      <c r="P37" s="41"/>
+      <c r="Q37" s="43"/>
+      <c r="R37" s="43"/>
+      <c r="S37" s="43"/>
+      <c r="T37" s="43"/>
+      <c r="U37" s="43"/>
+      <c r="V37" s="43"/>
+      <c r="W37" s="43"/>
+      <c r="X37" s="43"/>
+      <c r="Y37" s="43"/>
+      <c r="Z37" s="41"/>
+      <c r="AA37" s="41"/>
+      <c r="AB37" s="41"/>
+      <c r="AC37" s="41"/>
+      <c r="AD37" s="43"/>
+      <c r="AE37" s="43"/>
+      <c r="AF37" s="43"/>
+      <c r="AG37" s="43"/>
+      <c r="AH37" s="43"/>
+      <c r="AI37" s="43"/>
+      <c r="AJ37" s="43"/>
+      <c r="AK37" s="43"/>
+      <c r="AL37" s="43"/>
+      <c r="AM37" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="AN37" s="35"/>
-      <c r="AO37" s="35"/>
-      <c r="AP37" s="47"/>
-      <c r="AQ37" s="47"/>
-      <c r="AR37" s="47"/>
-      <c r="AS37" s="47"/>
-      <c r="AT37" s="47"/>
-      <c r="AU37" s="47"/>
-      <c r="AV37" s="47"/>
-      <c r="AW37" s="35" t="s">
+      <c r="AN37" s="41"/>
+      <c r="AO37" s="41"/>
+      <c r="AP37" s="43"/>
+      <c r="AQ37" s="43"/>
+      <c r="AR37" s="43"/>
+      <c r="AS37" s="43"/>
+      <c r="AT37" s="43"/>
+      <c r="AU37" s="43"/>
+      <c r="AV37" s="43"/>
+      <c r="AW37" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AX37" s="35"/>
-      <c r="AY37" s="35"/>
-      <c r="AZ37" s="36"/>
-      <c r="BA37" s="36"/>
-      <c r="BB37" s="36"/>
-      <c r="BC37" s="36"/>
-      <c r="BD37" s="36"/>
-      <c r="BE37" s="36"/>
+      <c r="AX37" s="41"/>
+      <c r="AY37" s="41"/>
+      <c r="AZ37" s="42"/>
+      <c r="BA37" s="42"/>
+      <c r="BB37" s="42"/>
+      <c r="BC37" s="42"/>
+      <c r="BD37" s="42"/>
+      <c r="BE37" s="42"/>
       <c r="BF37" s="8"/>
       <c r="BG37" s="8"/>
       <c r="BH37" s="8"/>
@@ -8789,7 +8952,7 @@
       <c r="IS37" s="8"/>
       <c r="IT37" s="8"/>
     </row>
-    <row r="38" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -9045,72 +9208,72 @@
       <c r="IS38" s="8"/>
       <c r="IT38" s="8"/>
     </row>
-    <row r="39" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="37" t="s">
+    <row r="39" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="38"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="39" t="s">
+      <c r="B39" s="46"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="G39" s="40"/>
-      <c r="H39" s="40"/>
-      <c r="I39" s="40"/>
-      <c r="J39" s="40"/>
-      <c r="K39" s="40"/>
-      <c r="L39" s="40"/>
-      <c r="M39" s="40"/>
-      <c r="N39" s="40"/>
-      <c r="O39" s="40"/>
-      <c r="P39" s="40"/>
-      <c r="Q39" s="40"/>
-      <c r="R39" s="40"/>
-      <c r="S39" s="40"/>
-      <c r="T39" s="40"/>
-      <c r="U39" s="40"/>
-      <c r="V39" s="40"/>
-      <c r="W39" s="40"/>
-      <c r="X39" s="38" t="s">
+      <c r="G39" s="47"/>
+      <c r="H39" s="47"/>
+      <c r="I39" s="47"/>
+      <c r="J39" s="47"/>
+      <c r="K39" s="47"/>
+      <c r="L39" s="47"/>
+      <c r="M39" s="47"/>
+      <c r="N39" s="47"/>
+      <c r="O39" s="47"/>
+      <c r="P39" s="47"/>
+      <c r="Q39" s="47"/>
+      <c r="R39" s="47"/>
+      <c r="S39" s="47"/>
+      <c r="T39" s="47"/>
+      <c r="U39" s="47"/>
+      <c r="V39" s="47"/>
+      <c r="W39" s="47"/>
+      <c r="X39" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="Y39" s="38"/>
-      <c r="Z39" s="38"/>
-      <c r="AA39" s="38"/>
-      <c r="AB39" s="38"/>
-      <c r="AC39" s="39" t="s">
+      <c r="Y39" s="46"/>
+      <c r="Z39" s="46"/>
+      <c r="AA39" s="46"/>
+      <c r="AB39" s="46"/>
+      <c r="AC39" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="AD39" s="40"/>
-      <c r="AE39" s="40"/>
-      <c r="AF39" s="40"/>
-      <c r="AG39" s="40"/>
-      <c r="AH39" s="40"/>
-      <c r="AI39" s="40"/>
-      <c r="AJ39" s="40"/>
-      <c r="AK39" s="40"/>
-      <c r="AL39" s="40"/>
-      <c r="AM39" s="40"/>
-      <c r="AN39" s="40"/>
-      <c r="AO39" s="40"/>
-      <c r="AP39" s="40"/>
-      <c r="AQ39" s="40"/>
-      <c r="AR39" s="40"/>
-      <c r="AS39" s="40"/>
-      <c r="AT39" s="40"/>
-      <c r="AU39" s="40"/>
-      <c r="AV39" s="40"/>
-      <c r="AW39" s="40"/>
-      <c r="AX39" s="40"/>
-      <c r="AY39" s="40"/>
-      <c r="AZ39" s="40"/>
-      <c r="BA39" s="40"/>
-      <c r="BB39" s="40"/>
-      <c r="BC39" s="40"/>
-      <c r="BD39" s="40"/>
-      <c r="BE39" s="40"/>
+      <c r="AD39" s="47"/>
+      <c r="AE39" s="47"/>
+      <c r="AF39" s="47"/>
+      <c r="AG39" s="47"/>
+      <c r="AH39" s="47"/>
+      <c r="AI39" s="47"/>
+      <c r="AJ39" s="47"/>
+      <c r="AK39" s="47"/>
+      <c r="AL39" s="47"/>
+      <c r="AM39" s="47"/>
+      <c r="AN39" s="47"/>
+      <c r="AO39" s="47"/>
+      <c r="AP39" s="47"/>
+      <c r="AQ39" s="47"/>
+      <c r="AR39" s="47"/>
+      <c r="AS39" s="47"/>
+      <c r="AT39" s="47"/>
+      <c r="AU39" s="47"/>
+      <c r="AV39" s="47"/>
+      <c r="AW39" s="47"/>
+      <c r="AX39" s="47"/>
+      <c r="AY39" s="47"/>
+      <c r="AZ39" s="47"/>
+      <c r="BA39" s="47"/>
+      <c r="BB39" s="47"/>
+      <c r="BC39" s="47"/>
+      <c r="BD39" s="47"/>
+      <c r="BE39" s="47"/>
       <c r="BF39" s="8"/>
       <c r="BG39" s="8"/>
       <c r="BH39" s="8"/>
@@ -9309,64 +9472,64 @@
       <c r="IS39" s="8"/>
       <c r="IT39" s="8"/>
     </row>
-    <row r="40" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="38"/>
-      <c r="B40" s="38"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="40"/>
-      <c r="G40" s="40"/>
-      <c r="H40" s="40"/>
-      <c r="I40" s="40"/>
-      <c r="J40" s="40"/>
-      <c r="K40" s="40"/>
-      <c r="L40" s="40"/>
-      <c r="M40" s="40"/>
-      <c r="N40" s="40"/>
-      <c r="O40" s="40"/>
-      <c r="P40" s="40"/>
-      <c r="Q40" s="40"/>
-      <c r="R40" s="40"/>
-      <c r="S40" s="40"/>
-      <c r="T40" s="40"/>
-      <c r="U40" s="40"/>
-      <c r="V40" s="40"/>
-      <c r="W40" s="40"/>
-      <c r="X40" s="38"/>
-      <c r="Y40" s="38"/>
-      <c r="Z40" s="38"/>
-      <c r="AA40" s="38"/>
-      <c r="AB40" s="38"/>
-      <c r="AC40" s="40"/>
-      <c r="AD40" s="40"/>
-      <c r="AE40" s="40"/>
-      <c r="AF40" s="40"/>
-      <c r="AG40" s="40"/>
-      <c r="AH40" s="40"/>
-      <c r="AI40" s="40"/>
-      <c r="AJ40" s="40"/>
-      <c r="AK40" s="40"/>
-      <c r="AL40" s="40"/>
-      <c r="AM40" s="40"/>
-      <c r="AN40" s="40"/>
-      <c r="AO40" s="40"/>
-      <c r="AP40" s="40"/>
-      <c r="AQ40" s="40"/>
-      <c r="AR40" s="40"/>
-      <c r="AS40" s="40"/>
-      <c r="AT40" s="40"/>
-      <c r="AU40" s="40"/>
-      <c r="AV40" s="40"/>
-      <c r="AW40" s="40"/>
-      <c r="AX40" s="40"/>
-      <c r="AY40" s="40"/>
-      <c r="AZ40" s="40"/>
-      <c r="BA40" s="40"/>
-      <c r="BB40" s="40"/>
-      <c r="BC40" s="40"/>
-      <c r="BD40" s="40"/>
-      <c r="BE40" s="40"/>
+    <row r="40" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="46"/>
+      <c r="B40" s="46"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="47"/>
+      <c r="H40" s="47"/>
+      <c r="I40" s="47"/>
+      <c r="J40" s="47"/>
+      <c r="K40" s="47"/>
+      <c r="L40" s="47"/>
+      <c r="M40" s="47"/>
+      <c r="N40" s="47"/>
+      <c r="O40" s="47"/>
+      <c r="P40" s="47"/>
+      <c r="Q40" s="47"/>
+      <c r="R40" s="47"/>
+      <c r="S40" s="47"/>
+      <c r="T40" s="47"/>
+      <c r="U40" s="47"/>
+      <c r="V40" s="47"/>
+      <c r="W40" s="47"/>
+      <c r="X40" s="46"/>
+      <c r="Y40" s="46"/>
+      <c r="Z40" s="46"/>
+      <c r="AA40" s="46"/>
+      <c r="AB40" s="46"/>
+      <c r="AC40" s="47"/>
+      <c r="AD40" s="47"/>
+      <c r="AE40" s="47"/>
+      <c r="AF40" s="47"/>
+      <c r="AG40" s="47"/>
+      <c r="AH40" s="47"/>
+      <c r="AI40" s="47"/>
+      <c r="AJ40" s="47"/>
+      <c r="AK40" s="47"/>
+      <c r="AL40" s="47"/>
+      <c r="AM40" s="47"/>
+      <c r="AN40" s="47"/>
+      <c r="AO40" s="47"/>
+      <c r="AP40" s="47"/>
+      <c r="AQ40" s="47"/>
+      <c r="AR40" s="47"/>
+      <c r="AS40" s="47"/>
+      <c r="AT40" s="47"/>
+      <c r="AU40" s="47"/>
+      <c r="AV40" s="47"/>
+      <c r="AW40" s="47"/>
+      <c r="AX40" s="47"/>
+      <c r="AY40" s="47"/>
+      <c r="AZ40" s="47"/>
+      <c r="BA40" s="47"/>
+      <c r="BB40" s="47"/>
+      <c r="BC40" s="47"/>
+      <c r="BD40" s="47"/>
+      <c r="BE40" s="47"/>
       <c r="BF40" s="8"/>
       <c r="BG40" s="8"/>
       <c r="BH40" s="8"/>
@@ -9565,7 +9728,7 @@
       <c r="IS40" s="8"/>
       <c r="IT40" s="8"/>
     </row>
-    <row r="41" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="9"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
@@ -9821,7 +9984,7 @@
       <c r="IS41" s="8"/>
       <c r="IT41" s="8"/>
     </row>
-    <row r="42" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="10"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -10077,7 +10240,7 @@
       <c r="IS42" s="8"/>
       <c r="IT42" s="8"/>
     </row>
-    <row r="43" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="13"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
@@ -10333,7 +10496,7 @@
       <c r="IS43" s="8"/>
       <c r="IT43" s="8"/>
     </row>
-    <row r="44" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="13"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
@@ -10589,7 +10752,7 @@
       <c r="IS44" s="8"/>
       <c r="IT44" s="8"/>
     </row>
-    <row r="45" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="13"/>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
@@ -10845,7 +11008,7 @@
       <c r="IS45" s="8"/>
       <c r="IT45" s="8"/>
     </row>
-    <row r="46" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="13"/>
       <c r="B46" s="14"/>
       <c r="C46" s="14"/>
@@ -11101,7 +11264,7 @@
       <c r="IS46" s="8"/>
       <c r="IT46" s="8"/>
     </row>
-    <row r="47" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="13"/>
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
@@ -11357,7 +11520,7 @@
       <c r="IS47" s="8"/>
       <c r="IT47" s="8"/>
     </row>
-    <row r="48" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="13"/>
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
@@ -11613,7 +11776,7 @@
       <c r="IS48" s="8"/>
       <c r="IT48" s="8"/>
     </row>
-    <row r="49" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="13"/>
       <c r="B49" s="14"/>
       <c r="C49" s="14"/>
@@ -11869,7 +12032,7 @@
       <c r="IS49" s="8"/>
       <c r="IT49" s="8"/>
     </row>
-    <row r="50" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="13"/>
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
@@ -12125,7 +12288,7 @@
       <c r="IS50" s="8"/>
       <c r="IT50" s="8"/>
     </row>
-    <row r="51" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="13"/>
       <c r="B51" s="14"/>
       <c r="C51" s="14"/>
@@ -12381,7 +12544,7 @@
       <c r="IS51" s="8"/>
       <c r="IT51" s="8"/>
     </row>
-    <row r="52" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="13"/>
       <c r="B52" s="14"/>
       <c r="C52" s="14"/>
@@ -12637,7 +12800,7 @@
       <c r="IS52" s="8"/>
       <c r="IT52" s="8"/>
     </row>
-    <row r="53" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="13"/>
       <c r="B53" s="14"/>
       <c r="C53" s="14"/>
@@ -12893,7 +13056,7 @@
       <c r="IS53" s="8"/>
       <c r="IT53" s="8"/>
     </row>
-    <row r="54" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="13"/>
       <c r="B54" s="14"/>
       <c r="C54" s="14"/>
@@ -13149,7 +13312,7 @@
       <c r="IS54" s="8"/>
       <c r="IT54" s="8"/>
     </row>
-    <row r="55" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="13"/>
       <c r="B55" s="14"/>
       <c r="C55" s="14"/>
@@ -13405,7 +13568,7 @@
       <c r="IS55" s="8"/>
       <c r="IT55" s="8"/>
     </row>
-    <row r="56" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="13"/>
       <c r="B56" s="14"/>
       <c r="C56" s="14"/>
@@ -13661,7 +13824,7 @@
       <c r="IS56" s="8"/>
       <c r="IT56" s="8"/>
     </row>
-    <row r="57" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="13"/>
       <c r="B57" s="14"/>
       <c r="C57" s="14"/>
@@ -13917,7 +14080,7 @@
       <c r="IS57" s="8"/>
       <c r="IT57" s="8"/>
     </row>
-    <row r="58" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="13"/>
       <c r="B58" s="14"/>
       <c r="C58" s="14"/>
@@ -14173,7 +14336,7 @@
       <c r="IS58" s="8"/>
       <c r="IT58" s="8"/>
     </row>
-    <row r="59" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="13"/>
       <c r="B59" s="14"/>
       <c r="C59" s="14"/>
@@ -14429,7 +14592,7 @@
       <c r="IS59" s="8"/>
       <c r="IT59" s="8"/>
     </row>
-    <row r="60" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="19"/>
       <c r="B60" s="20"/>
       <c r="C60" s="20"/>
@@ -14490,7 +14653,7 @@
       <c r="BF60" s="7"/>
       <c r="BG60" s="7"/>
     </row>
-    <row r="61" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="19"/>
       <c r="B61" s="20"/>
       <c r="C61" s="20"/>
@@ -14551,7 +14714,7 @@
       <c r="BF61" s="7"/>
       <c r="BG61" s="7"/>
     </row>
-    <row r="62" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="19"/>
       <c r="B62" s="20"/>
       <c r="C62" s="20"/>
@@ -14612,7 +14775,7 @@
       <c r="BF62" s="7"/>
       <c r="BG62" s="7"/>
     </row>
-    <row r="63" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="19"/>
       <c r="B63" s="20"/>
       <c r="C63" s="20"/>
@@ -14673,7 +14836,7 @@
       <c r="BF63" s="7"/>
       <c r="BG63" s="7"/>
     </row>
-    <row r="64" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="19"/>
       <c r="B64" s="20"/>
       <c r="C64" s="20"/>
@@ -14734,7 +14897,7 @@
       <c r="BF64" s="7"/>
       <c r="BG64" s="7"/>
     </row>
-    <row r="65" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="19"/>
       <c r="B65" s="20"/>
       <c r="C65" s="20"/>
@@ -14795,7 +14958,7 @@
       <c r="BF65" s="7"/>
       <c r="BG65" s="7"/>
     </row>
-    <row r="66" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="19"/>
       <c r="B66" s="20"/>
       <c r="C66" s="20"/>
@@ -14856,7 +15019,7 @@
       <c r="BF66" s="7"/>
       <c r="BG66" s="7"/>
     </row>
-    <row r="67" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="19"/>
       <c r="B67" s="20"/>
       <c r="C67" s="20"/>
@@ -14917,7 +15080,7 @@
       <c r="BF67" s="7"/>
       <c r="BG67" s="7"/>
     </row>
-    <row r="68" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="19"/>
       <c r="B68" s="20"/>
       <c r="C68" s="20"/>
@@ -14977,7 +15140,7 @@
       <c r="BE68" s="21"/>
       <c r="BF68" s="7"/>
     </row>
-    <row r="69" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="19"/>
       <c r="B69" s="20"/>
       <c r="C69" s="20"/>
@@ -15036,7 +15199,7 @@
       <c r="BD69" s="20"/>
       <c r="BE69" s="21"/>
     </row>
-    <row r="70" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="19"/>
       <c r="B70" s="20"/>
       <c r="C70" s="20"/>
@@ -15095,7 +15258,7 @@
       <c r="BD70" s="20"/>
       <c r="BE70" s="21"/>
     </row>
-    <row r="71" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="22"/>
       <c r="B71" s="23"/>
       <c r="C71" s="23"/>
@@ -15154,147 +15317,147 @@
       <c r="BD71" s="23"/>
       <c r="BE71" s="24"/>
     </row>
-    <row r="72" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="41" t="s">
+    <row r="72" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B72" s="42"/>
-      <c r="C72" s="42"/>
-      <c r="D72" s="42"/>
-      <c r="E72" s="42"/>
-      <c r="F72" s="42"/>
-      <c r="G72" s="42"/>
-      <c r="H72" s="42"/>
-      <c r="I72" s="42"/>
-      <c r="J72" s="42"/>
-      <c r="K72" s="42"/>
-      <c r="L72" s="43"/>
-      <c r="M72" s="35" t="s">
+      <c r="B72" s="36"/>
+      <c r="C72" s="36"/>
+      <c r="D72" s="36"/>
+      <c r="E72" s="36"/>
+      <c r="F72" s="36"/>
+      <c r="G72" s="36"/>
+      <c r="H72" s="36"/>
+      <c r="I72" s="36"/>
+      <c r="J72" s="36"/>
+      <c r="K72" s="36"/>
+      <c r="L72" s="37"/>
+      <c r="M72" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="N72" s="35"/>
-      <c r="O72" s="35"/>
-      <c r="P72" s="35"/>
-      <c r="Q72" s="47" t="s">
-        <v>72</v>
+      <c r="N72" s="41"/>
+      <c r="O72" s="41"/>
+      <c r="P72" s="41"/>
+      <c r="Q72" s="43" t="s">
+        <v>71</v>
       </c>
-      <c r="R72" s="47"/>
-      <c r="S72" s="47"/>
-      <c r="T72" s="47"/>
-      <c r="U72" s="47"/>
-      <c r="V72" s="47"/>
-      <c r="W72" s="47"/>
-      <c r="X72" s="47"/>
-      <c r="Y72" s="47"/>
-      <c r="Z72" s="35" t="s">
+      <c r="R72" s="43"/>
+      <c r="S72" s="43"/>
+      <c r="T72" s="43"/>
+      <c r="U72" s="43"/>
+      <c r="V72" s="43"/>
+      <c r="W72" s="43"/>
+      <c r="X72" s="43"/>
+      <c r="Y72" s="43"/>
+      <c r="Z72" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="AA72" s="35"/>
-      <c r="AB72" s="35"/>
-      <c r="AC72" s="35"/>
-      <c r="AD72" s="47" t="s">
-        <v>71</v>
+      <c r="AA72" s="41"/>
+      <c r="AB72" s="41"/>
+      <c r="AC72" s="41"/>
+      <c r="AD72" s="43" t="s">
+        <v>70</v>
       </c>
-      <c r="AE72" s="47"/>
-      <c r="AF72" s="47"/>
-      <c r="AG72" s="47"/>
-      <c r="AH72" s="47"/>
-      <c r="AI72" s="47"/>
-      <c r="AJ72" s="47"/>
-      <c r="AK72" s="47"/>
-      <c r="AL72" s="47"/>
-      <c r="AM72" s="35" t="s">
+      <c r="AE72" s="43"/>
+      <c r="AF72" s="43"/>
+      <c r="AG72" s="43"/>
+      <c r="AH72" s="43"/>
+      <c r="AI72" s="43"/>
+      <c r="AJ72" s="43"/>
+      <c r="AK72" s="43"/>
+      <c r="AL72" s="43"/>
+      <c r="AM72" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="AN72" s="35"/>
-      <c r="AO72" s="35"/>
-      <c r="AP72" s="47" t="s">
+      <c r="AN72" s="41"/>
+      <c r="AO72" s="41"/>
+      <c r="AP72" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="AQ72" s="47"/>
-      <c r="AR72" s="47"/>
-      <c r="AS72" s="47"/>
-      <c r="AT72" s="47"/>
-      <c r="AU72" s="47"/>
-      <c r="AV72" s="47"/>
-      <c r="AW72" s="35" t="s">
+      <c r="AQ72" s="43"/>
+      <c r="AR72" s="43"/>
+      <c r="AS72" s="43"/>
+      <c r="AT72" s="43"/>
+      <c r="AU72" s="43"/>
+      <c r="AV72" s="43"/>
+      <c r="AW72" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AX72" s="35"/>
-      <c r="AY72" s="35"/>
-      <c r="AZ72" s="36" t="s">
+      <c r="AX72" s="41"/>
+      <c r="AY72" s="41"/>
+      <c r="AZ72" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="BA72" s="36"/>
-      <c r="BB72" s="36"/>
-      <c r="BC72" s="36"/>
-      <c r="BD72" s="36"/>
-      <c r="BE72" s="36"/>
+      <c r="BA72" s="42"/>
+      <c r="BB72" s="42"/>
+      <c r="BC72" s="42"/>
+      <c r="BD72" s="42"/>
+      <c r="BE72" s="42"/>
     </row>
-    <row r="73" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="44"/>
-      <c r="B73" s="45"/>
-      <c r="C73" s="45"/>
-      <c r="D73" s="45"/>
-      <c r="E73" s="45"/>
-      <c r="F73" s="45"/>
-      <c r="G73" s="45"/>
-      <c r="H73" s="45"/>
-      <c r="I73" s="45"/>
-      <c r="J73" s="45"/>
-      <c r="K73" s="45"/>
-      <c r="L73" s="46"/>
-      <c r="M73" s="35"/>
-      <c r="N73" s="35"/>
-      <c r="O73" s="35"/>
-      <c r="P73" s="35"/>
-      <c r="Q73" s="47"/>
-      <c r="R73" s="47"/>
-      <c r="S73" s="47"/>
-      <c r="T73" s="47"/>
-      <c r="U73" s="47"/>
-      <c r="V73" s="47"/>
-      <c r="W73" s="47"/>
-      <c r="X73" s="47"/>
-      <c r="Y73" s="47"/>
-      <c r="Z73" s="35"/>
-      <c r="AA73" s="35"/>
-      <c r="AB73" s="35"/>
-      <c r="AC73" s="35"/>
-      <c r="AD73" s="47"/>
-      <c r="AE73" s="47"/>
-      <c r="AF73" s="47"/>
-      <c r="AG73" s="47"/>
-      <c r="AH73" s="47"/>
-      <c r="AI73" s="47"/>
-      <c r="AJ73" s="47"/>
-      <c r="AK73" s="47"/>
-      <c r="AL73" s="47"/>
-      <c r="AM73" s="35" t="s">
+    <row r="73" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="38"/>
+      <c r="B73" s="39"/>
+      <c r="C73" s="39"/>
+      <c r="D73" s="39"/>
+      <c r="E73" s="39"/>
+      <c r="F73" s="39"/>
+      <c r="G73" s="39"/>
+      <c r="H73" s="39"/>
+      <c r="I73" s="39"/>
+      <c r="J73" s="39"/>
+      <c r="K73" s="39"/>
+      <c r="L73" s="40"/>
+      <c r="M73" s="41"/>
+      <c r="N73" s="41"/>
+      <c r="O73" s="41"/>
+      <c r="P73" s="41"/>
+      <c r="Q73" s="43"/>
+      <c r="R73" s="43"/>
+      <c r="S73" s="43"/>
+      <c r="T73" s="43"/>
+      <c r="U73" s="43"/>
+      <c r="V73" s="43"/>
+      <c r="W73" s="43"/>
+      <c r="X73" s="43"/>
+      <c r="Y73" s="43"/>
+      <c r="Z73" s="41"/>
+      <c r="AA73" s="41"/>
+      <c r="AB73" s="41"/>
+      <c r="AC73" s="41"/>
+      <c r="AD73" s="43"/>
+      <c r="AE73" s="43"/>
+      <c r="AF73" s="43"/>
+      <c r="AG73" s="43"/>
+      <c r="AH73" s="43"/>
+      <c r="AI73" s="43"/>
+      <c r="AJ73" s="43"/>
+      <c r="AK73" s="43"/>
+      <c r="AL73" s="43"/>
+      <c r="AM73" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="AN73" s="35"/>
-      <c r="AO73" s="35"/>
-      <c r="AP73" s="47"/>
-      <c r="AQ73" s="47"/>
-      <c r="AR73" s="47"/>
-      <c r="AS73" s="47"/>
-      <c r="AT73" s="47"/>
-      <c r="AU73" s="47"/>
-      <c r="AV73" s="47"/>
-      <c r="AW73" s="35" t="s">
+      <c r="AN73" s="41"/>
+      <c r="AO73" s="41"/>
+      <c r="AP73" s="43"/>
+      <c r="AQ73" s="43"/>
+      <c r="AR73" s="43"/>
+      <c r="AS73" s="43"/>
+      <c r="AT73" s="43"/>
+      <c r="AU73" s="43"/>
+      <c r="AV73" s="43"/>
+      <c r="AW73" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AX73" s="35"/>
-      <c r="AY73" s="35"/>
-      <c r="AZ73" s="36"/>
-      <c r="BA73" s="36"/>
-      <c r="BB73" s="36"/>
-      <c r="BC73" s="36"/>
-      <c r="BD73" s="36"/>
-      <c r="BE73" s="36"/>
+      <c r="AX73" s="41"/>
+      <c r="AY73" s="41"/>
+      <c r="AZ73" s="42"/>
+      <c r="BA73" s="42"/>
+      <c r="BB73" s="42"/>
+      <c r="BC73" s="42"/>
+      <c r="BD73" s="42"/>
+      <c r="BE73" s="42"/>
     </row>
-    <row r="74" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
@@ -15353,133 +15516,133 @@
       <c r="BD74" s="5"/>
       <c r="BE74" s="5"/>
     </row>
-    <row r="75" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A75" s="37" t="s">
+    <row r="75" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="A75" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="B75" s="37"/>
-      <c r="C75" s="37"/>
-      <c r="D75" s="37"/>
-      <c r="E75" s="37"/>
-      <c r="F75" s="39" t="s">
+      <c r="B75" s="45"/>
+      <c r="C75" s="45"/>
+      <c r="D75" s="45"/>
+      <c r="E75" s="45"/>
+      <c r="F75" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="G75" s="39"/>
-      <c r="H75" s="39"/>
-      <c r="I75" s="39"/>
-      <c r="J75" s="39"/>
-      <c r="K75" s="39"/>
-      <c r="L75" s="39"/>
-      <c r="M75" s="39"/>
-      <c r="N75" s="39"/>
-      <c r="O75" s="39"/>
-      <c r="P75" s="39"/>
-      <c r="Q75" s="39"/>
-      <c r="R75" s="39"/>
-      <c r="S75" s="39"/>
-      <c r="T75" s="39"/>
-      <c r="U75" s="39"/>
-      <c r="V75" s="39"/>
-      <c r="W75" s="39"/>
-      <c r="X75" s="37" t="s">
+      <c r="G75" s="44"/>
+      <c r="H75" s="44"/>
+      <c r="I75" s="44"/>
+      <c r="J75" s="44"/>
+      <c r="K75" s="44"/>
+      <c r="L75" s="44"/>
+      <c r="M75" s="44"/>
+      <c r="N75" s="44"/>
+      <c r="O75" s="44"/>
+      <c r="P75" s="44"/>
+      <c r="Q75" s="44"/>
+      <c r="R75" s="44"/>
+      <c r="S75" s="44"/>
+      <c r="T75" s="44"/>
+      <c r="U75" s="44"/>
+      <c r="V75" s="44"/>
+      <c r="W75" s="44"/>
+      <c r="X75" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="Y75" s="37"/>
-      <c r="Z75" s="37"/>
-      <c r="AA75" s="37"/>
-      <c r="AB75" s="37"/>
-      <c r="AC75" s="39" t="s">
+      <c r="Y75" s="45"/>
+      <c r="Z75" s="45"/>
+      <c r="AA75" s="45"/>
+      <c r="AB75" s="45"/>
+      <c r="AC75" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="AD75" s="39"/>
-      <c r="AE75" s="39"/>
-      <c r="AF75" s="39"/>
-      <c r="AG75" s="39"/>
-      <c r="AH75" s="39"/>
-      <c r="AI75" s="39"/>
-      <c r="AJ75" s="39"/>
-      <c r="AK75" s="39"/>
-      <c r="AL75" s="39"/>
-      <c r="AM75" s="39"/>
-      <c r="AN75" s="39"/>
-      <c r="AO75" s="39"/>
-      <c r="AP75" s="39"/>
-      <c r="AQ75" s="39"/>
-      <c r="AR75" s="39"/>
-      <c r="AS75" s="39"/>
-      <c r="AT75" s="39"/>
-      <c r="AU75" s="39"/>
-      <c r="AV75" s="39"/>
-      <c r="AW75" s="39"/>
-      <c r="AX75" s="39"/>
-      <c r="AY75" s="39"/>
-      <c r="AZ75" s="39"/>
-      <c r="BA75" s="39"/>
-      <c r="BB75" s="39"/>
-      <c r="BC75" s="39"/>
-      <c r="BD75" s="39"/>
-      <c r="BE75" s="39"/>
+      <c r="AD75" s="44"/>
+      <c r="AE75" s="44"/>
+      <c r="AF75" s="44"/>
+      <c r="AG75" s="44"/>
+      <c r="AH75" s="44"/>
+      <c r="AI75" s="44"/>
+      <c r="AJ75" s="44"/>
+      <c r="AK75" s="44"/>
+      <c r="AL75" s="44"/>
+      <c r="AM75" s="44"/>
+      <c r="AN75" s="44"/>
+      <c r="AO75" s="44"/>
+      <c r="AP75" s="44"/>
+      <c r="AQ75" s="44"/>
+      <c r="AR75" s="44"/>
+      <c r="AS75" s="44"/>
+      <c r="AT75" s="44"/>
+      <c r="AU75" s="44"/>
+      <c r="AV75" s="44"/>
+      <c r="AW75" s="44"/>
+      <c r="AX75" s="44"/>
+      <c r="AY75" s="44"/>
+      <c r="AZ75" s="44"/>
+      <c r="BA75" s="44"/>
+      <c r="BB75" s="44"/>
+      <c r="BC75" s="44"/>
+      <c r="BD75" s="44"/>
+      <c r="BE75" s="44"/>
     </row>
-    <row r="76" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A76" s="37"/>
-      <c r="B76" s="37"/>
-      <c r="C76" s="37"/>
-      <c r="D76" s="37"/>
-      <c r="E76" s="37"/>
-      <c r="F76" s="39"/>
-      <c r="G76" s="39"/>
-      <c r="H76" s="39"/>
-      <c r="I76" s="39"/>
-      <c r="J76" s="39"/>
-      <c r="K76" s="39"/>
-      <c r="L76" s="39"/>
-      <c r="M76" s="39"/>
-      <c r="N76" s="39"/>
-      <c r="O76" s="39"/>
-      <c r="P76" s="39"/>
-      <c r="Q76" s="39"/>
-      <c r="R76" s="39"/>
-      <c r="S76" s="39"/>
-      <c r="T76" s="39"/>
-      <c r="U76" s="39"/>
-      <c r="V76" s="39"/>
-      <c r="W76" s="39"/>
-      <c r="X76" s="37"/>
-      <c r="Y76" s="37"/>
-      <c r="Z76" s="37"/>
-      <c r="AA76" s="37"/>
-      <c r="AB76" s="37"/>
-      <c r="AC76" s="39"/>
-      <c r="AD76" s="39"/>
-      <c r="AE76" s="39"/>
-      <c r="AF76" s="39"/>
-      <c r="AG76" s="39"/>
-      <c r="AH76" s="39"/>
-      <c r="AI76" s="39"/>
-      <c r="AJ76" s="39"/>
-      <c r="AK76" s="39"/>
-      <c r="AL76" s="39"/>
-      <c r="AM76" s="39"/>
-      <c r="AN76" s="39"/>
-      <c r="AO76" s="39"/>
-      <c r="AP76" s="39"/>
-      <c r="AQ76" s="39"/>
-      <c r="AR76" s="39"/>
-      <c r="AS76" s="39"/>
-      <c r="AT76" s="39"/>
-      <c r="AU76" s="39"/>
-      <c r="AV76" s="39"/>
-      <c r="AW76" s="39"/>
-      <c r="AX76" s="39"/>
-      <c r="AY76" s="39"/>
-      <c r="AZ76" s="39"/>
-      <c r="BA76" s="39"/>
-      <c r="BB76" s="39"/>
-      <c r="BC76" s="39"/>
-      <c r="BD76" s="39"/>
-      <c r="BE76" s="39"/>
+    <row r="76" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="A76" s="45"/>
+      <c r="B76" s="45"/>
+      <c r="C76" s="45"/>
+      <c r="D76" s="45"/>
+      <c r="E76" s="45"/>
+      <c r="F76" s="44"/>
+      <c r="G76" s="44"/>
+      <c r="H76" s="44"/>
+      <c r="I76" s="44"/>
+      <c r="J76" s="44"/>
+      <c r="K76" s="44"/>
+      <c r="L76" s="44"/>
+      <c r="M76" s="44"/>
+      <c r="N76" s="44"/>
+      <c r="O76" s="44"/>
+      <c r="P76" s="44"/>
+      <c r="Q76" s="44"/>
+      <c r="R76" s="44"/>
+      <c r="S76" s="44"/>
+      <c r="T76" s="44"/>
+      <c r="U76" s="44"/>
+      <c r="V76" s="44"/>
+      <c r="W76" s="44"/>
+      <c r="X76" s="45"/>
+      <c r="Y76" s="45"/>
+      <c r="Z76" s="45"/>
+      <c r="AA76" s="45"/>
+      <c r="AB76" s="45"/>
+      <c r="AC76" s="44"/>
+      <c r="AD76" s="44"/>
+      <c r="AE76" s="44"/>
+      <c r="AF76" s="44"/>
+      <c r="AG76" s="44"/>
+      <c r="AH76" s="44"/>
+      <c r="AI76" s="44"/>
+      <c r="AJ76" s="44"/>
+      <c r="AK76" s="44"/>
+      <c r="AL76" s="44"/>
+      <c r="AM76" s="44"/>
+      <c r="AN76" s="44"/>
+      <c r="AO76" s="44"/>
+      <c r="AP76" s="44"/>
+      <c r="AQ76" s="44"/>
+      <c r="AR76" s="44"/>
+      <c r="AS76" s="44"/>
+      <c r="AT76" s="44"/>
+      <c r="AU76" s="44"/>
+      <c r="AV76" s="44"/>
+      <c r="AW76" s="44"/>
+      <c r="AX76" s="44"/>
+      <c r="AY76" s="44"/>
+      <c r="AZ76" s="44"/>
+      <c r="BA76" s="44"/>
+      <c r="BB76" s="44"/>
+      <c r="BC76" s="44"/>
+      <c r="BD76" s="44"/>
+      <c r="BE76" s="44"/>
     </row>
-    <row r="77" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A77" s="9"/>
       <c r="B77" s="9"/>
       <c r="C77" s="9"/>
@@ -15538,7 +15701,7 @@
       <c r="BD77" s="9"/>
       <c r="BE77" s="9"/>
     </row>
-    <row r="78" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A78" s="10"/>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
@@ -15597,7 +15760,7 @@
       <c r="BD78" s="11"/>
       <c r="BE78" s="12"/>
     </row>
-    <row r="79" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A79" s="13"/>
       <c r="B79" s="14"/>
       <c r="C79" s="14"/>
@@ -15656,7 +15819,7 @@
       <c r="BD79" s="14"/>
       <c r="BE79" s="16"/>
     </row>
-    <row r="80" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A80" s="13"/>
       <c r="B80" s="14"/>
       <c r="C80" s="14"/>
@@ -15715,7 +15878,7 @@
       <c r="BD80" s="14"/>
       <c r="BE80" s="16"/>
     </row>
-    <row r="81" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A81" s="13"/>
       <c r="B81" s="14"/>
       <c r="C81" s="14"/>
@@ -15774,7 +15937,7 @@
       <c r="BD81" s="14"/>
       <c r="BE81" s="16"/>
     </row>
-    <row r="82" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A82" s="13"/>
       <c r="B82" s="14"/>
       <c r="C82" s="14"/>
@@ -15833,7 +15996,7 @@
       <c r="BD82" s="14"/>
       <c r="BE82" s="16"/>
     </row>
-    <row r="83" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A83" s="13"/>
       <c r="B83" s="14"/>
       <c r="C83" s="14"/>
@@ -15892,7 +16055,7 @@
       <c r="BD83" s="14"/>
       <c r="BE83" s="16"/>
     </row>
-    <row r="84" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A84" s="13"/>
       <c r="B84" s="14"/>
       <c r="C84" s="14"/>
@@ -15951,7 +16114,7 @@
       <c r="BD84" s="14"/>
       <c r="BE84" s="16"/>
     </row>
-    <row r="85" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A85" s="13"/>
       <c r="B85" s="14"/>
       <c r="C85" s="14"/>
@@ -16010,7 +16173,7 @@
       <c r="BD85" s="14"/>
       <c r="BE85" s="16"/>
     </row>
-    <row r="86" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A86" s="13"/>
       <c r="B86" s="14"/>
       <c r="C86" s="14"/>
@@ -16069,7 +16232,7 @@
       <c r="BD86" s="14"/>
       <c r="BE86" s="16"/>
     </row>
-    <row r="87" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A87" s="13"/>
       <c r="B87" s="14"/>
       <c r="C87" s="14"/>
@@ -16128,7 +16291,7 @@
       <c r="BD87" s="14"/>
       <c r="BE87" s="16"/>
     </row>
-    <row r="88" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A88" s="13"/>
       <c r="B88" s="14"/>
       <c r="C88" s="14"/>
@@ -16187,7 +16350,7 @@
       <c r="BD88" s="14"/>
       <c r="BE88" s="16"/>
     </row>
-    <row r="89" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A89" s="13"/>
       <c r="B89" s="14"/>
       <c r="C89" s="14"/>
@@ -16246,7 +16409,7 @@
       <c r="BD89" s="14"/>
       <c r="BE89" s="16"/>
     </row>
-    <row r="90" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A90" s="13"/>
       <c r="B90" s="14"/>
       <c r="C90" s="14"/>
@@ -16305,7 +16468,7 @@
       <c r="BD90" s="14"/>
       <c r="BE90" s="16"/>
     </row>
-    <row r="91" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A91" s="13"/>
       <c r="B91" s="14"/>
       <c r="C91" s="14"/>
@@ -16364,7 +16527,7 @@
       <c r="BD91" s="14"/>
       <c r="BE91" s="16"/>
     </row>
-    <row r="92" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A92" s="13"/>
       <c r="B92" s="14"/>
       <c r="C92" s="14"/>
@@ -16423,7 +16586,7 @@
       <c r="BD92" s="14"/>
       <c r="BE92" s="16"/>
     </row>
-    <row r="93" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A93" s="13"/>
       <c r="B93" s="14"/>
       <c r="C93" s="14"/>
@@ -16482,7 +16645,7 @@
       <c r="BD93" s="14"/>
       <c r="BE93" s="16"/>
     </row>
-    <row r="94" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A94" s="13"/>
       <c r="B94" s="14"/>
       <c r="C94" s="14"/>
@@ -16541,7 +16704,7 @@
       <c r="BD94" s="14"/>
       <c r="BE94" s="16"/>
     </row>
-    <row r="95" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A95" s="19"/>
       <c r="B95" s="20"/>
       <c r="C95" s="20"/>
@@ -16600,7 +16763,7 @@
       <c r="BD95" s="20"/>
       <c r="BE95" s="21"/>
     </row>
-    <row r="96" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A96" s="19"/>
       <c r="B96" s="20"/>
       <c r="C96" s="20"/>
@@ -16659,7 +16822,7 @@
       <c r="BD96" s="20"/>
       <c r="BE96" s="21"/>
     </row>
-    <row r="97" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A97" s="19"/>
       <c r="B97" s="20"/>
       <c r="C97" s="20"/>
@@ -16718,7 +16881,7 @@
       <c r="BD97" s="20"/>
       <c r="BE97" s="21"/>
     </row>
-    <row r="98" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A98" s="19"/>
       <c r="B98" s="20"/>
       <c r="C98" s="20"/>
@@ -16777,7 +16940,7 @@
       <c r="BD98" s="20"/>
       <c r="BE98" s="21"/>
     </row>
-    <row r="99" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A99" s="19"/>
       <c r="B99" s="20"/>
       <c r="C99" s="20"/>
@@ -16836,7 +16999,7 @@
       <c r="BD99" s="20"/>
       <c r="BE99" s="21"/>
     </row>
-    <row r="100" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A100" s="19"/>
       <c r="B100" s="20"/>
       <c r="C100" s="20"/>
@@ -16895,7 +17058,7 @@
       <c r="BD100" s="20"/>
       <c r="BE100" s="21"/>
     </row>
-    <row r="101" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A101" s="19"/>
       <c r="B101" s="20"/>
       <c r="C101" s="20"/>
@@ -16954,7 +17117,7 @@
       <c r="BD101" s="20"/>
       <c r="BE101" s="21"/>
     </row>
-    <row r="102" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A102" s="19"/>
       <c r="B102" s="20"/>
       <c r="C102" s="20"/>
@@ -17013,7 +17176,7 @@
       <c r="BD102" s="20"/>
       <c r="BE102" s="21"/>
     </row>
-    <row r="103" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A103" s="19"/>
       <c r="B103" s="20"/>
       <c r="C103" s="20"/>
@@ -17072,7 +17235,7 @@
       <c r="BD103" s="20"/>
       <c r="BE103" s="21"/>
     </row>
-    <row r="104" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A104" s="19"/>
       <c r="B104" s="20"/>
       <c r="C104" s="20"/>
@@ -17131,7 +17294,7 @@
       <c r="BD104" s="20"/>
       <c r="BE104" s="21"/>
     </row>
-    <row r="105" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A105" s="19"/>
       <c r="B105" s="20"/>
       <c r="C105" s="20"/>
@@ -17190,7 +17353,7 @@
       <c r="BD105" s="20"/>
       <c r="BE105" s="21"/>
     </row>
-    <row r="106" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A106" s="22"/>
       <c r="B106" s="23"/>
       <c r="C106" s="23"/>
@@ -17249,7 +17412,7 @@
       <c r="BD106" s="23"/>
       <c r="BE106" s="24"/>
     </row>
-    <row r="107" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A107" s="13"/>
       <c r="B107" s="14"/>
       <c r="C107" s="14"/>
@@ -17308,23 +17471,38 @@
       <c r="BD107" s="14"/>
       <c r="BE107" s="16"/>
     </row>
-    <row r="108" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="109" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="150" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="151" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="A72:L73"/>
-    <mergeCell ref="AW72:AY72"/>
-    <mergeCell ref="AZ72:BE72"/>
-    <mergeCell ref="AW73:AY73"/>
-    <mergeCell ref="AZ73:BE73"/>
-    <mergeCell ref="AZ2:BE2"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="Z2:AC2"/>
-    <mergeCell ref="AD2:AL2"/>
-    <mergeCell ref="AM2:AO2"/>
-    <mergeCell ref="AP2:AV2"/>
+    <mergeCell ref="AW37:AY37"/>
+    <mergeCell ref="AZ37:BE37"/>
+    <mergeCell ref="A39:E40"/>
+    <mergeCell ref="F39:W40"/>
+    <mergeCell ref="X39:AB40"/>
+    <mergeCell ref="AC39:BE40"/>
+    <mergeCell ref="A36:L37"/>
+    <mergeCell ref="M36:P36"/>
+    <mergeCell ref="Q36:Y36"/>
+    <mergeCell ref="Z36:AC36"/>
+    <mergeCell ref="AD36:AL36"/>
+    <mergeCell ref="AM36:AO36"/>
+    <mergeCell ref="AP36:AV36"/>
+    <mergeCell ref="AW36:AY36"/>
+    <mergeCell ref="AZ36:BE36"/>
+    <mergeCell ref="M37:P37"/>
+    <mergeCell ref="Q37:Y37"/>
+    <mergeCell ref="Z37:AC37"/>
+    <mergeCell ref="Q1:Y1"/>
+    <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="AD1:AL1"/>
+    <mergeCell ref="AD37:AL37"/>
+    <mergeCell ref="AM37:AO37"/>
+    <mergeCell ref="AP37:AV37"/>
+    <mergeCell ref="AM72:AO72"/>
+    <mergeCell ref="AP72:AV72"/>
     <mergeCell ref="F75:W76"/>
     <mergeCell ref="X75:AB76"/>
     <mergeCell ref="AC75:BE76"/>
@@ -17341,42 +17519,27 @@
     <mergeCell ref="AW1:AY1"/>
     <mergeCell ref="AZ1:BE1"/>
     <mergeCell ref="AW2:AY2"/>
+    <mergeCell ref="AZ2:BE2"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="Z2:AC2"/>
+    <mergeCell ref="AD2:AL2"/>
+    <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="AP2:AV2"/>
     <mergeCell ref="AM1:AO1"/>
     <mergeCell ref="AP1:AV1"/>
     <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:Y2"/>
+    <mergeCell ref="A72:L73"/>
+    <mergeCell ref="AW72:AY72"/>
+    <mergeCell ref="AZ72:BE72"/>
+    <mergeCell ref="AW73:AY73"/>
+    <mergeCell ref="AZ73:BE73"/>
     <mergeCell ref="M73:P73"/>
     <mergeCell ref="Q73:Y73"/>
     <mergeCell ref="Z73:AC73"/>
     <mergeCell ref="AD73:AL73"/>
     <mergeCell ref="AM73:AO73"/>
     <mergeCell ref="AP73:AV73"/>
-    <mergeCell ref="Q2:Y2"/>
-    <mergeCell ref="AD37:AL37"/>
-    <mergeCell ref="AM37:AO37"/>
-    <mergeCell ref="AP37:AV37"/>
-    <mergeCell ref="AM72:AO72"/>
-    <mergeCell ref="AP72:AV72"/>
-    <mergeCell ref="Q37:Y37"/>
-    <mergeCell ref="Z37:AC37"/>
-    <mergeCell ref="Q1:Y1"/>
-    <mergeCell ref="Z1:AC1"/>
-    <mergeCell ref="AD1:AL1"/>
-    <mergeCell ref="AW37:AY37"/>
-    <mergeCell ref="AZ37:BE37"/>
-    <mergeCell ref="A39:E40"/>
-    <mergeCell ref="F39:W40"/>
-    <mergeCell ref="X39:AB40"/>
-    <mergeCell ref="AC39:BE40"/>
-    <mergeCell ref="A36:L37"/>
-    <mergeCell ref="M36:P36"/>
-    <mergeCell ref="Q36:Y36"/>
-    <mergeCell ref="Z36:AC36"/>
-    <mergeCell ref="AD36:AL36"/>
-    <mergeCell ref="AM36:AO36"/>
-    <mergeCell ref="AP36:AV36"/>
-    <mergeCell ref="AW36:AY36"/>
-    <mergeCell ref="AZ36:BE36"/>
-    <mergeCell ref="M37:P37"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -17392,95 +17555,95 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:HY81"/>
+  <dimension ref="A1:HY79"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="AB31" sqref="AB31:AJ31"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43:P43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="2.453125" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="2.5" style="1"/>
+    <col min="1" max="16384" width="2.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="35" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="47" t="s">
-        <v>72</v>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="43" t="s">
+        <v>71</v>
       </c>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="35" t="s">
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
-      <c r="AA1" s="35"/>
-      <c r="AB1" s="47" t="s">
-        <v>71</v>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="41"/>
+      <c r="AA1" s="41"/>
+      <c r="AB1" s="43" t="s">
+        <v>70</v>
       </c>
-      <c r="AC1" s="47"/>
-      <c r="AD1" s="47"/>
-      <c r="AE1" s="47"/>
-      <c r="AF1" s="47"/>
-      <c r="AG1" s="47"/>
-      <c r="AH1" s="47"/>
-      <c r="AI1" s="47"/>
-      <c r="AJ1" s="47"/>
-      <c r="AK1" s="35" t="s">
+      <c r="AC1" s="43"/>
+      <c r="AD1" s="43"/>
+      <c r="AE1" s="43"/>
+      <c r="AF1" s="43"/>
+      <c r="AG1" s="43"/>
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="AL1" s="35"/>
-      <c r="AM1" s="35"/>
-      <c r="AN1" s="47" t="s">
-        <v>2</v>
+      <c r="AL1" s="41"/>
+      <c r="AM1" s="41"/>
+      <c r="AN1" s="43" t="s">
+        <v>77</v>
       </c>
-      <c r="AO1" s="47"/>
-      <c r="AP1" s="47"/>
-      <c r="AQ1" s="47"/>
-      <c r="AR1" s="47"/>
-      <c r="AS1" s="47"/>
-      <c r="AT1" s="47"/>
-      <c r="AU1" s="35" t="s">
+      <c r="AO1" s="43"/>
+      <c r="AP1" s="43"/>
+      <c r="AQ1" s="43"/>
+      <c r="AR1" s="43"/>
+      <c r="AS1" s="43"/>
+      <c r="AT1" s="43"/>
+      <c r="AU1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AV1" s="35"/>
-      <c r="AW1" s="35"/>
-      <c r="AX1" s="36" t="s">
-        <v>30</v>
+      <c r="AV1" s="41"/>
+      <c r="AW1" s="41"/>
+      <c r="AX1" s="42">
+        <v>45537</v>
       </c>
-      <c r="AY1" s="36"/>
-      <c r="AZ1" s="36"/>
-      <c r="BA1" s="36"/>
-      <c r="BB1" s="36"/>
-      <c r="BC1" s="36"/>
+      <c r="AY1" s="42"/>
+      <c r="AZ1" s="42"/>
+      <c r="BA1" s="42"/>
+      <c r="BB1" s="42"/>
+      <c r="BC1" s="42"/>
       <c r="BD1" s="3"/>
       <c r="BE1" s="3"/>
       <c r="BF1" s="3"/>
@@ -17660,66 +17823,70 @@
       <c r="HX1" s="3"/>
       <c r="HY1" s="3"/>
     </row>
-    <row r="2" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="45"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="47"/>
-      <c r="W2" s="47"/>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="35"/>
-      <c r="Z2" s="35"/>
-      <c r="AA2" s="35"/>
-      <c r="AB2" s="47"/>
-      <c r="AC2" s="47"/>
-      <c r="AD2" s="47"/>
-      <c r="AE2" s="47"/>
-      <c r="AF2" s="47"/>
-      <c r="AG2" s="47"/>
-      <c r="AH2" s="47"/>
-      <c r="AI2" s="47"/>
-      <c r="AJ2" s="47"/>
-      <c r="AK2" s="35" t="s">
+    <row r="2" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="43"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="41"/>
+      <c r="Y2" s="41"/>
+      <c r="Z2" s="41"/>
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="43"/>
+      <c r="AC2" s="43"/>
+      <c r="AD2" s="43"/>
+      <c r="AE2" s="43"/>
+      <c r="AF2" s="43"/>
+      <c r="AG2" s="43"/>
+      <c r="AH2" s="43"/>
+      <c r="AI2" s="43"/>
+      <c r="AJ2" s="43"/>
+      <c r="AK2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="AL2" s="35"/>
-      <c r="AM2" s="35"/>
-      <c r="AN2" s="47"/>
-      <c r="AO2" s="47"/>
-      <c r="AP2" s="47"/>
-      <c r="AQ2" s="47"/>
-      <c r="AR2" s="47"/>
-      <c r="AS2" s="47"/>
-      <c r="AT2" s="47"/>
-      <c r="AU2" s="35" t="s">
+      <c r="AL2" s="41"/>
+      <c r="AM2" s="41"/>
+      <c r="AN2" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO2" s="43"/>
+      <c r="AP2" s="43"/>
+      <c r="AQ2" s="43"/>
+      <c r="AR2" s="43"/>
+      <c r="AS2" s="43"/>
+      <c r="AT2" s="43"/>
+      <c r="AU2" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AV2" s="35"/>
-      <c r="AW2" s="35"/>
-      <c r="AX2" s="36"/>
-      <c r="AY2" s="36"/>
-      <c r="AZ2" s="36"/>
-      <c r="BA2" s="36"/>
-      <c r="BB2" s="36"/>
-      <c r="BC2" s="36"/>
+      <c r="AV2" s="41"/>
+      <c r="AW2" s="41"/>
+      <c r="AX2" s="42">
+        <v>45555</v>
+      </c>
+      <c r="AY2" s="42"/>
+      <c r="AZ2" s="42"/>
+      <c r="BA2" s="42"/>
+      <c r="BB2" s="42"/>
+      <c r="BC2" s="42"/>
       <c r="BD2" s="3"/>
       <c r="BE2" s="3"/>
       <c r="BF2" s="3"/>
@@ -17899,7 +18066,7 @@
       <c r="HX2" s="3"/>
       <c r="HY2" s="3"/>
     </row>
-    <row r="3" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -18134,7 +18301,7 @@
       <c r="HX3" s="3"/>
       <c r="HY3" s="3"/>
     </row>
-    <row r="4" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="58" t="s">
         <v>9</v>
       </c>
@@ -18142,62 +18309,62 @@
       <c r="C4" s="58"/>
       <c r="D4" s="58"/>
       <c r="E4" s="58"/>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="54"/>
-      <c r="S4" s="54"/>
-      <c r="T4" s="54"/>
-      <c r="U4" s="54"/>
-      <c r="V4" s="54"/>
-      <c r="W4" s="54"/>
-      <c r="X4" s="56" t="s">
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="60"/>
+      <c r="Q4" s="60"/>
+      <c r="R4" s="60"/>
+      <c r="S4" s="60"/>
+      <c r="T4" s="60"/>
+      <c r="U4" s="60"/>
+      <c r="V4" s="60"/>
+      <c r="W4" s="60"/>
+      <c r="X4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="Y4" s="56"/>
-      <c r="Z4" s="56"/>
-      <c r="AA4" s="56"/>
-      <c r="AB4" s="56"/>
-      <c r="AC4" s="54" t="s">
+      <c r="Y4" s="62"/>
+      <c r="Z4" s="62"/>
+      <c r="AA4" s="62"/>
+      <c r="AB4" s="62"/>
+      <c r="AC4" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="AD4" s="54"/>
-      <c r="AE4" s="54"/>
-      <c r="AF4" s="54"/>
-      <c r="AG4" s="54"/>
-      <c r="AH4" s="54"/>
-      <c r="AI4" s="54"/>
-      <c r="AJ4" s="54"/>
-      <c r="AK4" s="54"/>
-      <c r="AL4" s="54"/>
-      <c r="AM4" s="54"/>
-      <c r="AN4" s="54"/>
-      <c r="AO4" s="54"/>
-      <c r="AP4" s="54"/>
-      <c r="AQ4" s="54"/>
-      <c r="AR4" s="54"/>
-      <c r="AS4" s="54"/>
-      <c r="AT4" s="54"/>
-      <c r="AU4" s="54"/>
-      <c r="AV4" s="54"/>
-      <c r="AW4" s="54"/>
-      <c r="AX4" s="54"/>
-      <c r="AY4" s="54"/>
-      <c r="AZ4" s="54"/>
-      <c r="BA4" s="54"/>
-      <c r="BB4" s="54"/>
-      <c r="BC4" s="54"/>
+      <c r="AD4" s="60"/>
+      <c r="AE4" s="60"/>
+      <c r="AF4" s="60"/>
+      <c r="AG4" s="60"/>
+      <c r="AH4" s="60"/>
+      <c r="AI4" s="60"/>
+      <c r="AJ4" s="60"/>
+      <c r="AK4" s="60"/>
+      <c r="AL4" s="60"/>
+      <c r="AM4" s="60"/>
+      <c r="AN4" s="60"/>
+      <c r="AO4" s="60"/>
+      <c r="AP4" s="60"/>
+      <c r="AQ4" s="60"/>
+      <c r="AR4" s="60"/>
+      <c r="AS4" s="60"/>
+      <c r="AT4" s="60"/>
+      <c r="AU4" s="60"/>
+      <c r="AV4" s="60"/>
+      <c r="AW4" s="60"/>
+      <c r="AX4" s="60"/>
+      <c r="AY4" s="60"/>
+      <c r="AZ4" s="60"/>
+      <c r="BA4" s="60"/>
+      <c r="BB4" s="60"/>
+      <c r="BC4" s="60"/>
       <c r="BD4" s="3"/>
       <c r="BE4" s="3"/>
       <c r="BF4" s="3"/>
@@ -18377,62 +18544,62 @@
       <c r="HX4" s="3"/>
       <c r="HY4" s="3"/>
     </row>
-    <row r="5" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="59"/>
       <c r="B5" s="59"/>
       <c r="C5" s="59"/>
       <c r="D5" s="59"/>
       <c r="E5" s="59"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="55"/>
-      <c r="O5" s="55"/>
-      <c r="P5" s="55"/>
-      <c r="Q5" s="55"/>
-      <c r="R5" s="55"/>
-      <c r="S5" s="55"/>
-      <c r="T5" s="55"/>
-      <c r="U5" s="55"/>
-      <c r="V5" s="55"/>
-      <c r="W5" s="55"/>
-      <c r="X5" s="57"/>
-      <c r="Y5" s="57"/>
-      <c r="Z5" s="57"/>
-      <c r="AA5" s="57"/>
-      <c r="AB5" s="57"/>
-      <c r="AC5" s="55"/>
-      <c r="AD5" s="55"/>
-      <c r="AE5" s="55"/>
-      <c r="AF5" s="55"/>
-      <c r="AG5" s="55"/>
-      <c r="AH5" s="55"/>
-      <c r="AI5" s="55"/>
-      <c r="AJ5" s="55"/>
-      <c r="AK5" s="55"/>
-      <c r="AL5" s="55"/>
-      <c r="AM5" s="55"/>
-      <c r="AN5" s="55"/>
-      <c r="AO5" s="55"/>
-      <c r="AP5" s="55"/>
-      <c r="AQ5" s="55"/>
-      <c r="AR5" s="55"/>
-      <c r="AS5" s="55"/>
-      <c r="AT5" s="55"/>
-      <c r="AU5" s="55"/>
-      <c r="AV5" s="55"/>
-      <c r="AW5" s="55"/>
-      <c r="AX5" s="55"/>
-      <c r="AY5" s="55"/>
-      <c r="AZ5" s="55"/>
-      <c r="BA5" s="55"/>
-      <c r="BB5" s="55"/>
-      <c r="BC5" s="55"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="61"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="61"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="61"/>
+      <c r="T5" s="61"/>
+      <c r="U5" s="61"/>
+      <c r="V5" s="61"/>
+      <c r="W5" s="61"/>
+      <c r="X5" s="63"/>
+      <c r="Y5" s="63"/>
+      <c r="Z5" s="63"/>
+      <c r="AA5" s="63"/>
+      <c r="AB5" s="63"/>
+      <c r="AC5" s="61"/>
+      <c r="AD5" s="61"/>
+      <c r="AE5" s="61"/>
+      <c r="AF5" s="61"/>
+      <c r="AG5" s="61"/>
+      <c r="AH5" s="61"/>
+      <c r="AI5" s="61"/>
+      <c r="AJ5" s="61"/>
+      <c r="AK5" s="61"/>
+      <c r="AL5" s="61"/>
+      <c r="AM5" s="61"/>
+      <c r="AN5" s="61"/>
+      <c r="AO5" s="61"/>
+      <c r="AP5" s="61"/>
+      <c r="AQ5" s="61"/>
+      <c r="AR5" s="61"/>
+      <c r="AS5" s="61"/>
+      <c r="AT5" s="61"/>
+      <c r="AU5" s="61"/>
+      <c r="AV5" s="61"/>
+      <c r="AW5" s="61"/>
+      <c r="AX5" s="61"/>
+      <c r="AY5" s="61"/>
+      <c r="AZ5" s="61"/>
+      <c r="BA5" s="61"/>
+      <c r="BB5" s="61"/>
+      <c r="BC5" s="61"/>
       <c r="BD5" s="3"/>
       <c r="BE5" s="3"/>
       <c r="BF5" s="3"/>
@@ -18612,7 +18779,7 @@
       <c r="HX5" s="3"/>
       <c r="HY5" s="3"/>
     </row>
-    <row r="6" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -18832,72 +18999,72 @@
       <c r="HQ6" s="3"/>
       <c r="HR6" s="3"/>
     </row>
-    <row r="7" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="38" t="s">
+    <row r="7" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38" t="s">
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="38" t="s">
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="46"/>
+      <c r="Q7" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="R7" s="38"/>
-      <c r="S7" s="38"/>
-      <c r="T7" s="38"/>
-      <c r="U7" s="38"/>
-      <c r="V7" s="38"/>
-      <c r="W7" s="38" t="s">
+      <c r="R7" s="46"/>
+      <c r="S7" s="46"/>
+      <c r="T7" s="46"/>
+      <c r="U7" s="46"/>
+      <c r="V7" s="46"/>
+      <c r="W7" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="X7" s="38"/>
-      <c r="Y7" s="38"/>
-      <c r="Z7" s="38"/>
-      <c r="AA7" s="38"/>
-      <c r="AB7" s="38"/>
-      <c r="AC7" s="38"/>
-      <c r="AD7" s="38"/>
-      <c r="AE7" s="38" t="s">
+      <c r="X7" s="46"/>
+      <c r="Y7" s="46"/>
+      <c r="Z7" s="46"/>
+      <c r="AA7" s="46"/>
+      <c r="AB7" s="46"/>
+      <c r="AC7" s="46"/>
+      <c r="AD7" s="46"/>
+      <c r="AE7" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="AF7" s="38"/>
-      <c r="AG7" s="38"/>
-      <c r="AH7" s="38"/>
-      <c r="AI7" s="38"/>
-      <c r="AJ7" s="38"/>
-      <c r="AK7" s="38"/>
-      <c r="AL7" s="38"/>
-      <c r="AM7" s="38"/>
-      <c r="AN7" s="38"/>
-      <c r="AO7" s="38"/>
-      <c r="AP7" s="38"/>
-      <c r="AQ7" s="38"/>
-      <c r="AR7" s="38"/>
-      <c r="AS7" s="38"/>
-      <c r="AT7" s="38"/>
-      <c r="AU7" s="38"/>
-      <c r="AV7" s="38"/>
-      <c r="AW7" s="38"/>
-      <c r="AX7" s="38"/>
-      <c r="AY7" s="38"/>
-      <c r="AZ7" s="38"/>
-      <c r="BA7" s="38"/>
-      <c r="BB7" s="38"/>
-      <c r="BC7" s="38"/>
+      <c r="AF7" s="46"/>
+      <c r="AG7" s="46"/>
+      <c r="AH7" s="46"/>
+      <c r="AI7" s="46"/>
+      <c r="AJ7" s="46"/>
+      <c r="AK7" s="46"/>
+      <c r="AL7" s="46"/>
+      <c r="AM7" s="46"/>
+      <c r="AN7" s="46"/>
+      <c r="AO7" s="46"/>
+      <c r="AP7" s="46"/>
+      <c r="AQ7" s="46"/>
+      <c r="AR7" s="46"/>
+      <c r="AS7" s="46"/>
+      <c r="AT7" s="46"/>
+      <c r="AU7" s="46"/>
+      <c r="AV7" s="46"/>
+      <c r="AW7" s="46"/>
+      <c r="AX7" s="46"/>
+      <c r="AY7" s="46"/>
+      <c r="AZ7" s="46"/>
+      <c r="BA7" s="46"/>
+      <c r="BB7" s="46"/>
+      <c r="BC7" s="46"/>
       <c r="BD7" s="3"/>
       <c r="BE7" s="3"/>
       <c r="CP7" s="3"/>
@@ -19026,62 +19193,62 @@
       <c r="HI7" s="3"/>
       <c r="HJ7" s="3"/>
     </row>
-    <row r="8" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="38"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="38"/>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="38"/>
-      <c r="R8" s="38"/>
-      <c r="S8" s="38"/>
-      <c r="T8" s="38"/>
-      <c r="U8" s="38"/>
-      <c r="V8" s="38"/>
-      <c r="W8" s="38"/>
-      <c r="X8" s="38"/>
-      <c r="Y8" s="38"/>
-      <c r="Z8" s="38"/>
-      <c r="AA8" s="38"/>
-      <c r="AB8" s="38"/>
-      <c r="AC8" s="38"/>
-      <c r="AD8" s="38"/>
-      <c r="AE8" s="38"/>
-      <c r="AF8" s="38"/>
-      <c r="AG8" s="38"/>
-      <c r="AH8" s="38"/>
-      <c r="AI8" s="38"/>
-      <c r="AJ8" s="38"/>
-      <c r="AK8" s="38"/>
-      <c r="AL8" s="38"/>
-      <c r="AM8" s="38"/>
-      <c r="AN8" s="38"/>
-      <c r="AO8" s="38"/>
-      <c r="AP8" s="38"/>
-      <c r="AQ8" s="38"/>
-      <c r="AR8" s="38"/>
-      <c r="AS8" s="38"/>
-      <c r="AT8" s="38"/>
-      <c r="AU8" s="38"/>
-      <c r="AV8" s="38"/>
-      <c r="AW8" s="38"/>
-      <c r="AX8" s="38"/>
-      <c r="AY8" s="38"/>
-      <c r="AZ8" s="38"/>
-      <c r="BA8" s="38"/>
-      <c r="BB8" s="38"/>
-      <c r="BC8" s="38"/>
+    <row r="8" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="46"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="46"/>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="46"/>
+      <c r="R8" s="46"/>
+      <c r="S8" s="46"/>
+      <c r="T8" s="46"/>
+      <c r="U8" s="46"/>
+      <c r="V8" s="46"/>
+      <c r="W8" s="46"/>
+      <c r="X8" s="46"/>
+      <c r="Y8" s="46"/>
+      <c r="Z8" s="46"/>
+      <c r="AA8" s="46"/>
+      <c r="AB8" s="46"/>
+      <c r="AC8" s="46"/>
+      <c r="AD8" s="46"/>
+      <c r="AE8" s="46"/>
+      <c r="AF8" s="46"/>
+      <c r="AG8" s="46"/>
+      <c r="AH8" s="46"/>
+      <c r="AI8" s="46"/>
+      <c r="AJ8" s="46"/>
+      <c r="AK8" s="46"/>
+      <c r="AL8" s="46"/>
+      <c r="AM8" s="46"/>
+      <c r="AN8" s="46"/>
+      <c r="AO8" s="46"/>
+      <c r="AP8" s="46"/>
+      <c r="AQ8" s="46"/>
+      <c r="AR8" s="46"/>
+      <c r="AS8" s="46"/>
+      <c r="AT8" s="46"/>
+      <c r="AU8" s="46"/>
+      <c r="AV8" s="46"/>
+      <c r="AW8" s="46"/>
+      <c r="AX8" s="46"/>
+      <c r="AY8" s="46"/>
+      <c r="AZ8" s="46"/>
+      <c r="BA8" s="46"/>
+      <c r="BB8" s="46"/>
+      <c r="BC8" s="46"/>
       <c r="BD8" s="3"/>
       <c r="BE8" s="3"/>
       <c r="CP8" s="3"/>
@@ -19210,72 +19377,72 @@
       <c r="HI8" s="3"/>
       <c r="HJ8" s="3"/>
     </row>
-    <row r="9" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="48" t="s">
+    <row r="9" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="48" t="s">
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="49"/>
-      <c r="O9" s="49"/>
-      <c r="P9" s="49"/>
-      <c r="Q9" s="48" t="s">
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="R9" s="49"/>
-      <c r="S9" s="49"/>
-      <c r="T9" s="49"/>
-      <c r="U9" s="49"/>
-      <c r="V9" s="49"/>
-      <c r="W9" s="50" t="s">
+      <c r="R9" s="54"/>
+      <c r="S9" s="54"/>
+      <c r="T9" s="54"/>
+      <c r="U9" s="54"/>
+      <c r="V9" s="54"/>
+      <c r="W9" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="X9" s="50"/>
-      <c r="Y9" s="50"/>
-      <c r="Z9" s="50"/>
-      <c r="AA9" s="50"/>
-      <c r="AB9" s="50"/>
-      <c r="AC9" s="50"/>
-      <c r="AD9" s="50"/>
-      <c r="AE9" s="51" t="s">
+      <c r="X9" s="55"/>
+      <c r="Y9" s="55"/>
+      <c r="Z9" s="55"/>
+      <c r="AA9" s="55"/>
+      <c r="AB9" s="55"/>
+      <c r="AC9" s="55"/>
+      <c r="AD9" s="55"/>
+      <c r="AE9" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="AF9" s="52"/>
-      <c r="AG9" s="52"/>
-      <c r="AH9" s="52"/>
-      <c r="AI9" s="52"/>
-      <c r="AJ9" s="52"/>
-      <c r="AK9" s="52"/>
-      <c r="AL9" s="52"/>
-      <c r="AM9" s="52"/>
-      <c r="AN9" s="52"/>
-      <c r="AO9" s="52"/>
-      <c r="AP9" s="52"/>
-      <c r="AQ9" s="52"/>
-      <c r="AR9" s="52"/>
-      <c r="AS9" s="52"/>
-      <c r="AT9" s="52"/>
-      <c r="AU9" s="52"/>
-      <c r="AV9" s="52"/>
-      <c r="AW9" s="52"/>
-      <c r="AX9" s="52"/>
-      <c r="AY9" s="52"/>
-      <c r="AZ9" s="52"/>
-      <c r="BA9" s="52"/>
-      <c r="BB9" s="52"/>
-      <c r="BC9" s="52"/>
+      <c r="AF9" s="57"/>
+      <c r="AG9" s="57"/>
+      <c r="AH9" s="57"/>
+      <c r="AI9" s="57"/>
+      <c r="AJ9" s="57"/>
+      <c r="AK9" s="57"/>
+      <c r="AL9" s="57"/>
+      <c r="AM9" s="57"/>
+      <c r="AN9" s="57"/>
+      <c r="AO9" s="57"/>
+      <c r="AP9" s="57"/>
+      <c r="AQ9" s="57"/>
+      <c r="AR9" s="57"/>
+      <c r="AS9" s="57"/>
+      <c r="AT9" s="57"/>
+      <c r="AU9" s="57"/>
+      <c r="AV9" s="57"/>
+      <c r="AW9" s="57"/>
+      <c r="AX9" s="57"/>
+      <c r="AY9" s="57"/>
+      <c r="AZ9" s="57"/>
+      <c r="BA9" s="57"/>
+      <c r="BB9" s="57"/>
+      <c r="BC9" s="57"/>
       <c r="BD9" s="3"/>
       <c r="BE9" s="3"/>
       <c r="CP9" s="3"/>
@@ -19404,72 +19571,72 @@
       <c r="HI9" s="3"/>
       <c r="HJ9" s="3"/>
     </row>
-    <row r="10" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="48" t="s">
+    <row r="10" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="48" t="s">
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="49"/>
-      <c r="O10" s="49"/>
-      <c r="P10" s="49"/>
-      <c r="Q10" s="49" t="s">
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="54"/>
+      <c r="Q10" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="R10" s="49"/>
-      <c r="S10" s="49"/>
-      <c r="T10" s="49"/>
-      <c r="U10" s="49"/>
-      <c r="V10" s="49"/>
-      <c r="W10" s="50" t="s">
+      <c r="R10" s="54"/>
+      <c r="S10" s="54"/>
+      <c r="T10" s="54"/>
+      <c r="U10" s="54"/>
+      <c r="V10" s="54"/>
+      <c r="W10" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="X10" s="50"/>
-      <c r="Y10" s="50"/>
-      <c r="Z10" s="50"/>
-      <c r="AA10" s="50"/>
-      <c r="AB10" s="50"/>
-      <c r="AC10" s="50"/>
-      <c r="AD10" s="50"/>
-      <c r="AE10" s="51" t="s">
+      <c r="X10" s="55"/>
+      <c r="Y10" s="55"/>
+      <c r="Z10" s="55"/>
+      <c r="AA10" s="55"/>
+      <c r="AB10" s="55"/>
+      <c r="AC10" s="55"/>
+      <c r="AD10" s="55"/>
+      <c r="AE10" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="AF10" s="52"/>
-      <c r="AG10" s="52"/>
-      <c r="AH10" s="52"/>
-      <c r="AI10" s="52"/>
-      <c r="AJ10" s="52"/>
-      <c r="AK10" s="52"/>
-      <c r="AL10" s="52"/>
-      <c r="AM10" s="52"/>
-      <c r="AN10" s="52"/>
-      <c r="AO10" s="52"/>
-      <c r="AP10" s="52"/>
-      <c r="AQ10" s="52"/>
-      <c r="AR10" s="52"/>
-      <c r="AS10" s="52"/>
-      <c r="AT10" s="52"/>
-      <c r="AU10" s="52"/>
-      <c r="AV10" s="52"/>
-      <c r="AW10" s="52"/>
-      <c r="AX10" s="52"/>
-      <c r="AY10" s="52"/>
-      <c r="AZ10" s="52"/>
-      <c r="BA10" s="52"/>
-      <c r="BB10" s="52"/>
-      <c r="BC10" s="52"/>
+      <c r="AF10" s="57"/>
+      <c r="AG10" s="57"/>
+      <c r="AH10" s="57"/>
+      <c r="AI10" s="57"/>
+      <c r="AJ10" s="57"/>
+      <c r="AK10" s="57"/>
+      <c r="AL10" s="57"/>
+      <c r="AM10" s="57"/>
+      <c r="AN10" s="57"/>
+      <c r="AO10" s="57"/>
+      <c r="AP10" s="57"/>
+      <c r="AQ10" s="57"/>
+      <c r="AR10" s="57"/>
+      <c r="AS10" s="57"/>
+      <c r="AT10" s="57"/>
+      <c r="AU10" s="57"/>
+      <c r="AV10" s="57"/>
+      <c r="AW10" s="57"/>
+      <c r="AX10" s="57"/>
+      <c r="AY10" s="57"/>
+      <c r="AZ10" s="57"/>
+      <c r="BA10" s="57"/>
+      <c r="BB10" s="57"/>
+      <c r="BC10" s="57"/>
       <c r="BD10" s="3"/>
       <c r="BE10" s="3"/>
       <c r="CP10" s="3"/>
@@ -19598,72 +19765,72 @@
       <c r="HI10" s="3"/>
       <c r="HJ10" s="3"/>
     </row>
-    <row r="11" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="48" t="s">
+    <row r="11" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="48" t="s">
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="49"/>
-      <c r="O11" s="49"/>
-      <c r="P11" s="49"/>
-      <c r="Q11" s="49" t="s">
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="54"/>
+      <c r="Q11" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="R11" s="49"/>
-      <c r="S11" s="49"/>
-      <c r="T11" s="49"/>
-      <c r="U11" s="49"/>
-      <c r="V11" s="49"/>
-      <c r="W11" s="50" t="s">
+      <c r="R11" s="54"/>
+      <c r="S11" s="54"/>
+      <c r="T11" s="54"/>
+      <c r="U11" s="54"/>
+      <c r="V11" s="54"/>
+      <c r="W11" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="X11" s="50"/>
-      <c r="Y11" s="50"/>
-      <c r="Z11" s="50"/>
-      <c r="AA11" s="50"/>
-      <c r="AB11" s="50"/>
-      <c r="AC11" s="50"/>
-      <c r="AD11" s="50"/>
-      <c r="AE11" s="51" t="s">
+      <c r="X11" s="55"/>
+      <c r="Y11" s="55"/>
+      <c r="Z11" s="55"/>
+      <c r="AA11" s="55"/>
+      <c r="AB11" s="55"/>
+      <c r="AC11" s="55"/>
+      <c r="AD11" s="55"/>
+      <c r="AE11" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="AF11" s="52"/>
-      <c r="AG11" s="52"/>
-      <c r="AH11" s="52"/>
-      <c r="AI11" s="52"/>
-      <c r="AJ11" s="52"/>
-      <c r="AK11" s="52"/>
-      <c r="AL11" s="52"/>
-      <c r="AM11" s="52"/>
-      <c r="AN11" s="52"/>
-      <c r="AO11" s="52"/>
-      <c r="AP11" s="52"/>
-      <c r="AQ11" s="52"/>
-      <c r="AR11" s="52"/>
-      <c r="AS11" s="52"/>
-      <c r="AT11" s="52"/>
-      <c r="AU11" s="52"/>
-      <c r="AV11" s="52"/>
-      <c r="AW11" s="52"/>
-      <c r="AX11" s="52"/>
-      <c r="AY11" s="52"/>
-      <c r="AZ11" s="52"/>
-      <c r="BA11" s="52"/>
-      <c r="BB11" s="52"/>
-      <c r="BC11" s="52"/>
+      <c r="AF11" s="57"/>
+      <c r="AG11" s="57"/>
+      <c r="AH11" s="57"/>
+      <c r="AI11" s="57"/>
+      <c r="AJ11" s="57"/>
+      <c r="AK11" s="57"/>
+      <c r="AL11" s="57"/>
+      <c r="AM11" s="57"/>
+      <c r="AN11" s="57"/>
+      <c r="AO11" s="57"/>
+      <c r="AP11" s="57"/>
+      <c r="AQ11" s="57"/>
+      <c r="AR11" s="57"/>
+      <c r="AS11" s="57"/>
+      <c r="AT11" s="57"/>
+      <c r="AU11" s="57"/>
+      <c r="AV11" s="57"/>
+      <c r="AW11" s="57"/>
+      <c r="AX11" s="57"/>
+      <c r="AY11" s="57"/>
+      <c r="AZ11" s="57"/>
+      <c r="BA11" s="57"/>
+      <c r="BB11" s="57"/>
+      <c r="BC11" s="57"/>
       <c r="BD11" s="3"/>
       <c r="BE11" s="3"/>
       <c r="CP11" s="3"/>
@@ -19792,72 +19959,72 @@
       <c r="HI11" s="3"/>
       <c r="HJ11" s="3"/>
     </row>
-    <row r="12" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="48" t="s">
+    <row r="12" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="48" t="s">
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="J12" s="49"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="49"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="49"/>
-      <c r="O12" s="49"/>
-      <c r="P12" s="49"/>
-      <c r="Q12" s="49" t="s">
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="54"/>
+      <c r="Q12" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="R12" s="49"/>
-      <c r="S12" s="49"/>
-      <c r="T12" s="49"/>
-      <c r="U12" s="49"/>
-      <c r="V12" s="49"/>
-      <c r="W12" s="50" t="s">
+      <c r="R12" s="54"/>
+      <c r="S12" s="54"/>
+      <c r="T12" s="54"/>
+      <c r="U12" s="54"/>
+      <c r="V12" s="54"/>
+      <c r="W12" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="X12" s="50"/>
-      <c r="Y12" s="50"/>
-      <c r="Z12" s="50"/>
-      <c r="AA12" s="50"/>
-      <c r="AB12" s="50"/>
-      <c r="AC12" s="50"/>
-      <c r="AD12" s="50"/>
-      <c r="AE12" s="51" t="s">
+      <c r="X12" s="55"/>
+      <c r="Y12" s="55"/>
+      <c r="Z12" s="55"/>
+      <c r="AA12" s="55"/>
+      <c r="AB12" s="55"/>
+      <c r="AC12" s="55"/>
+      <c r="AD12" s="55"/>
+      <c r="AE12" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="AF12" s="52"/>
-      <c r="AG12" s="52"/>
-      <c r="AH12" s="52"/>
-      <c r="AI12" s="52"/>
-      <c r="AJ12" s="52"/>
-      <c r="AK12" s="52"/>
-      <c r="AL12" s="52"/>
-      <c r="AM12" s="52"/>
-      <c r="AN12" s="52"/>
-      <c r="AO12" s="52"/>
-      <c r="AP12" s="52"/>
-      <c r="AQ12" s="52"/>
-      <c r="AR12" s="52"/>
-      <c r="AS12" s="52"/>
-      <c r="AT12" s="52"/>
-      <c r="AU12" s="52"/>
-      <c r="AV12" s="52"/>
-      <c r="AW12" s="52"/>
-      <c r="AX12" s="52"/>
-      <c r="AY12" s="52"/>
-      <c r="AZ12" s="52"/>
-      <c r="BA12" s="52"/>
-      <c r="BB12" s="52"/>
-      <c r="BC12" s="52"/>
+      <c r="AF12" s="57"/>
+      <c r="AG12" s="57"/>
+      <c r="AH12" s="57"/>
+      <c r="AI12" s="57"/>
+      <c r="AJ12" s="57"/>
+      <c r="AK12" s="57"/>
+      <c r="AL12" s="57"/>
+      <c r="AM12" s="57"/>
+      <c r="AN12" s="57"/>
+      <c r="AO12" s="57"/>
+      <c r="AP12" s="57"/>
+      <c r="AQ12" s="57"/>
+      <c r="AR12" s="57"/>
+      <c r="AS12" s="57"/>
+      <c r="AT12" s="57"/>
+      <c r="AU12" s="57"/>
+      <c r="AV12" s="57"/>
+      <c r="AW12" s="57"/>
+      <c r="AX12" s="57"/>
+      <c r="AY12" s="57"/>
+      <c r="AZ12" s="57"/>
+      <c r="BA12" s="57"/>
+      <c r="BB12" s="57"/>
+      <c r="BC12" s="57"/>
       <c r="BD12" s="3"/>
       <c r="BE12" s="3"/>
       <c r="CP12" s="3"/>
@@ -19986,72 +20153,72 @@
       <c r="HI12" s="3"/>
       <c r="HJ12" s="3"/>
     </row>
-    <row r="13" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="48" t="s">
+    <row r="13" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="48" t="s">
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="49"/>
-      <c r="O13" s="49"/>
-      <c r="P13" s="49"/>
-      <c r="Q13" s="49" t="s">
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="54"/>
+      <c r="Q13" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="R13" s="49"/>
-      <c r="S13" s="49"/>
-      <c r="T13" s="49"/>
-      <c r="U13" s="49"/>
-      <c r="V13" s="49"/>
+      <c r="R13" s="54"/>
+      <c r="S13" s="54"/>
+      <c r="T13" s="54"/>
+      <c r="U13" s="54"/>
+      <c r="V13" s="54"/>
       <c r="W13" s="50" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
-      <c r="X13" s="50"/>
-      <c r="Y13" s="50"/>
-      <c r="Z13" s="50"/>
-      <c r="AA13" s="50"/>
-      <c r="AB13" s="50"/>
-      <c r="AC13" s="50"/>
-      <c r="AD13" s="50"/>
-      <c r="AE13" s="51" t="s">
+      <c r="X13" s="55"/>
+      <c r="Y13" s="55"/>
+      <c r="Z13" s="55"/>
+      <c r="AA13" s="55"/>
+      <c r="AB13" s="55"/>
+      <c r="AC13" s="55"/>
+      <c r="AD13" s="55"/>
+      <c r="AE13" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="AF13" s="52"/>
-      <c r="AG13" s="52"/>
-      <c r="AH13" s="52"/>
-      <c r="AI13" s="52"/>
-      <c r="AJ13" s="52"/>
-      <c r="AK13" s="52"/>
-      <c r="AL13" s="52"/>
-      <c r="AM13" s="52"/>
-      <c r="AN13" s="52"/>
-      <c r="AO13" s="52"/>
-      <c r="AP13" s="52"/>
-      <c r="AQ13" s="52"/>
-      <c r="AR13" s="52"/>
-      <c r="AS13" s="52"/>
-      <c r="AT13" s="52"/>
-      <c r="AU13" s="52"/>
-      <c r="AV13" s="52"/>
-      <c r="AW13" s="52"/>
-      <c r="AX13" s="52"/>
-      <c r="AY13" s="52"/>
-      <c r="AZ13" s="52"/>
-      <c r="BA13" s="52"/>
-      <c r="BB13" s="52"/>
-      <c r="BC13" s="52"/>
+      <c r="AF13" s="57"/>
+      <c r="AG13" s="57"/>
+      <c r="AH13" s="57"/>
+      <c r="AI13" s="57"/>
+      <c r="AJ13" s="57"/>
+      <c r="AK13" s="57"/>
+      <c r="AL13" s="57"/>
+      <c r="AM13" s="57"/>
+      <c r="AN13" s="57"/>
+      <c r="AO13" s="57"/>
+      <c r="AP13" s="57"/>
+      <c r="AQ13" s="57"/>
+      <c r="AR13" s="57"/>
+      <c r="AS13" s="57"/>
+      <c r="AT13" s="57"/>
+      <c r="AU13" s="57"/>
+      <c r="AV13" s="57"/>
+      <c r="AW13" s="57"/>
+      <c r="AX13" s="57"/>
+      <c r="AY13" s="57"/>
+      <c r="AZ13" s="57"/>
+      <c r="BA13" s="57"/>
+      <c r="BB13" s="57"/>
+      <c r="BC13" s="57"/>
       <c r="BD13" s="3"/>
       <c r="BE13" s="3"/>
       <c r="CP13" s="3"/>
@@ -20180,72 +20347,72 @@
       <c r="HI13" s="3"/>
       <c r="HJ13" s="3"/>
     </row>
-    <row r="14" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="48" t="s">
+    <row r="14" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="48" t="s">
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="49"/>
-      <c r="O14" s="49"/>
-      <c r="P14" s="49"/>
-      <c r="Q14" s="49" t="s">
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="54"/>
+      <c r="Q14" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="R14" s="49"/>
-      <c r="S14" s="49"/>
-      <c r="T14" s="49"/>
-      <c r="U14" s="49"/>
-      <c r="V14" s="49"/>
+      <c r="R14" s="54"/>
+      <c r="S14" s="54"/>
+      <c r="T14" s="54"/>
+      <c r="U14" s="54"/>
+      <c r="V14" s="54"/>
       <c r="W14" s="50" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
-      <c r="X14" s="50"/>
-      <c r="Y14" s="50"/>
-      <c r="Z14" s="50"/>
-      <c r="AA14" s="50"/>
-      <c r="AB14" s="50"/>
-      <c r="AC14" s="50"/>
-      <c r="AD14" s="50"/>
-      <c r="AE14" s="51" t="s">
+      <c r="X14" s="55"/>
+      <c r="Y14" s="55"/>
+      <c r="Z14" s="55"/>
+      <c r="AA14" s="55"/>
+      <c r="AB14" s="55"/>
+      <c r="AC14" s="55"/>
+      <c r="AD14" s="55"/>
+      <c r="AE14" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="AF14" s="52"/>
-      <c r="AG14" s="52"/>
-      <c r="AH14" s="52"/>
-      <c r="AI14" s="52"/>
-      <c r="AJ14" s="52"/>
-      <c r="AK14" s="52"/>
-      <c r="AL14" s="52"/>
-      <c r="AM14" s="52"/>
-      <c r="AN14" s="52"/>
-      <c r="AO14" s="52"/>
-      <c r="AP14" s="52"/>
-      <c r="AQ14" s="52"/>
-      <c r="AR14" s="52"/>
-      <c r="AS14" s="52"/>
-      <c r="AT14" s="52"/>
-      <c r="AU14" s="52"/>
-      <c r="AV14" s="52"/>
-      <c r="AW14" s="52"/>
-      <c r="AX14" s="52"/>
-      <c r="AY14" s="52"/>
-      <c r="AZ14" s="52"/>
-      <c r="BA14" s="52"/>
-      <c r="BB14" s="52"/>
-      <c r="BC14" s="52"/>
+      <c r="AF14" s="57"/>
+      <c r="AG14" s="57"/>
+      <c r="AH14" s="57"/>
+      <c r="AI14" s="57"/>
+      <c r="AJ14" s="57"/>
+      <c r="AK14" s="57"/>
+      <c r="AL14" s="57"/>
+      <c r="AM14" s="57"/>
+      <c r="AN14" s="57"/>
+      <c r="AO14" s="57"/>
+      <c r="AP14" s="57"/>
+      <c r="AQ14" s="57"/>
+      <c r="AR14" s="57"/>
+      <c r="AS14" s="57"/>
+      <c r="AT14" s="57"/>
+      <c r="AU14" s="57"/>
+      <c r="AV14" s="57"/>
+      <c r="AW14" s="57"/>
+      <c r="AX14" s="57"/>
+      <c r="AY14" s="57"/>
+      <c r="AZ14" s="57"/>
+      <c r="BA14" s="57"/>
+      <c r="BB14" s="57"/>
+      <c r="BC14" s="57"/>
       <c r="BD14" s="3"/>
       <c r="BE14" s="3"/>
       <c r="CP14" s="3"/>
@@ -20374,62 +20541,72 @@
       <c r="HI14" s="3"/>
       <c r="HJ14" s="3"/>
     </row>
-    <row r="15" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="48"/>
-      <c r="B15" s="49"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="49"/>
-      <c r="M15" s="49"/>
-      <c r="N15" s="49"/>
-      <c r="O15" s="49"/>
-      <c r="P15" s="49"/>
-      <c r="Q15" s="49"/>
-      <c r="R15" s="49"/>
-      <c r="S15" s="49"/>
-      <c r="T15" s="49"/>
-      <c r="U15" s="49"/>
-      <c r="V15" s="49"/>
-      <c r="W15" s="53"/>
-      <c r="X15" s="50"/>
-      <c r="Y15" s="50"/>
-      <c r="Z15" s="50"/>
-      <c r="AA15" s="50"/>
-      <c r="AB15" s="50"/>
-      <c r="AC15" s="50"/>
-      <c r="AD15" s="50"/>
-      <c r="AE15" s="51"/>
-      <c r="AF15" s="52"/>
-      <c r="AG15" s="52"/>
-      <c r="AH15" s="52"/>
-      <c r="AI15" s="52"/>
-      <c r="AJ15" s="52"/>
-      <c r="AK15" s="52"/>
-      <c r="AL15" s="52"/>
-      <c r="AM15" s="52"/>
-      <c r="AN15" s="52"/>
-      <c r="AO15" s="52"/>
-      <c r="AP15" s="52"/>
-      <c r="AQ15" s="52"/>
-      <c r="AR15" s="52"/>
-      <c r="AS15" s="52"/>
-      <c r="AT15" s="52"/>
-      <c r="AU15" s="52"/>
-      <c r="AV15" s="52"/>
-      <c r="AW15" s="52"/>
-      <c r="AX15" s="52"/>
-      <c r="AY15" s="52"/>
-      <c r="AZ15" s="52"/>
-      <c r="BA15" s="52"/>
-      <c r="BB15" s="52"/>
-      <c r="BC15" s="52"/>
+    <row r="15" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="70" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="71"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="71"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="70" t="s">
+        <v>75</v>
+      </c>
+      <c r="J15" s="71"/>
+      <c r="K15" s="71"/>
+      <c r="L15" s="71"/>
+      <c r="M15" s="71"/>
+      <c r="N15" s="71"/>
+      <c r="O15" s="71"/>
+      <c r="P15" s="72"/>
+      <c r="Q15" s="67" t="s">
+        <v>45</v>
+      </c>
+      <c r="R15" s="68"/>
+      <c r="S15" s="68"/>
+      <c r="T15" s="68"/>
+      <c r="U15" s="68"/>
+      <c r="V15" s="69"/>
+      <c r="W15" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="X15" s="65"/>
+      <c r="Y15" s="65"/>
+      <c r="Z15" s="65"/>
+      <c r="AA15" s="65"/>
+      <c r="AB15" s="65"/>
+      <c r="AC15" s="65"/>
+      <c r="AD15" s="66"/>
+      <c r="AE15" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF15" s="74"/>
+      <c r="AG15" s="74"/>
+      <c r="AH15" s="74"/>
+      <c r="AI15" s="74"/>
+      <c r="AJ15" s="74"/>
+      <c r="AK15" s="74"/>
+      <c r="AL15" s="74"/>
+      <c r="AM15" s="74"/>
+      <c r="AN15" s="74"/>
+      <c r="AO15" s="74"/>
+      <c r="AP15" s="74"/>
+      <c r="AQ15" s="74"/>
+      <c r="AR15" s="74"/>
+      <c r="AS15" s="74"/>
+      <c r="AT15" s="74"/>
+      <c r="AU15" s="74"/>
+      <c r="AV15" s="74"/>
+      <c r="AW15" s="74"/>
+      <c r="AX15" s="74"/>
+      <c r="AY15" s="74"/>
+      <c r="AZ15" s="74"/>
+      <c r="BA15" s="74"/>
+      <c r="BB15" s="74"/>
+      <c r="BC15" s="75"/>
       <c r="BD15" s="3"/>
       <c r="BE15" s="3"/>
       <c r="CP15" s="3"/>
@@ -20558,62 +20735,62 @@
       <c r="HI15" s="3"/>
       <c r="HJ15" s="3"/>
     </row>
-    <row r="16" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="28"/>
-      <c r="P16" s="28"/>
-      <c r="Q16" s="28"/>
-      <c r="R16" s="28"/>
-      <c r="S16" s="28"/>
-      <c r="T16" s="28"/>
-      <c r="U16" s="28"/>
-      <c r="V16" s="28"/>
-      <c r="W16" s="29"/>
-      <c r="X16" s="30"/>
-      <c r="Y16" s="30"/>
-      <c r="Z16" s="30"/>
-      <c r="AA16" s="30"/>
-      <c r="AB16" s="30"/>
-      <c r="AC16" s="30"/>
-      <c r="AD16" s="30"/>
-      <c r="AE16" s="31"/>
-      <c r="AF16" s="26"/>
-      <c r="AG16" s="26"/>
-      <c r="AH16" s="26"/>
-      <c r="AI16" s="26"/>
-      <c r="AJ16" s="26"/>
-      <c r="AK16" s="26"/>
-      <c r="AL16" s="26"/>
-      <c r="AM16" s="26"/>
-      <c r="AN16" s="26"/>
-      <c r="AO16" s="26"/>
-      <c r="AP16" s="26"/>
-      <c r="AQ16" s="26"/>
-      <c r="AR16" s="26"/>
-      <c r="AS16" s="26"/>
-      <c r="AT16" s="26"/>
-      <c r="AU16" s="26"/>
-      <c r="AV16" s="26"/>
-      <c r="AW16" s="26"/>
-      <c r="AX16" s="26"/>
-      <c r="AY16" s="26"/>
-      <c r="AZ16" s="26"/>
-      <c r="BA16" s="26"/>
-      <c r="BB16" s="26"/>
-      <c r="BC16" s="26"/>
+    <row r="16" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="70"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="71"/>
+      <c r="K16" s="71"/>
+      <c r="L16" s="71"/>
+      <c r="M16" s="71"/>
+      <c r="N16" s="71"/>
+      <c r="O16" s="71"/>
+      <c r="P16" s="72"/>
+      <c r="Q16" s="67"/>
+      <c r="R16" s="68"/>
+      <c r="S16" s="68"/>
+      <c r="T16" s="68"/>
+      <c r="U16" s="68"/>
+      <c r="V16" s="69"/>
+      <c r="W16" s="64"/>
+      <c r="X16" s="65"/>
+      <c r="Y16" s="65"/>
+      <c r="Z16" s="65"/>
+      <c r="AA16" s="65"/>
+      <c r="AB16" s="65"/>
+      <c r="AC16" s="65"/>
+      <c r="AD16" s="66"/>
+      <c r="AE16" s="73"/>
+      <c r="AF16" s="74"/>
+      <c r="AG16" s="74"/>
+      <c r="AH16" s="74"/>
+      <c r="AI16" s="74"/>
+      <c r="AJ16" s="74"/>
+      <c r="AK16" s="74"/>
+      <c r="AL16" s="74"/>
+      <c r="AM16" s="74"/>
+      <c r="AN16" s="74"/>
+      <c r="AO16" s="74"/>
+      <c r="AP16" s="74"/>
+      <c r="AQ16" s="74"/>
+      <c r="AR16" s="74"/>
+      <c r="AS16" s="74"/>
+      <c r="AT16" s="74"/>
+      <c r="AU16" s="74"/>
+      <c r="AV16" s="74"/>
+      <c r="AW16" s="74"/>
+      <c r="AX16" s="74"/>
+      <c r="AY16" s="74"/>
+      <c r="AZ16" s="74"/>
+      <c r="BA16" s="74"/>
+      <c r="BB16" s="74"/>
+      <c r="BC16" s="75"/>
       <c r="BD16" s="3"/>
       <c r="BE16" s="3"/>
       <c r="CP16" s="3"/>
@@ -20742,70 +20919,62 @@
       <c r="HI16" s="3"/>
       <c r="HJ16" s="3"/>
     </row>
-    <row r="17" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="39"/>
-      <c r="O17" s="39"/>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="39"/>
-      <c r="R17" s="39"/>
-      <c r="S17" s="39"/>
-      <c r="T17" s="39"/>
-      <c r="U17" s="39"/>
-      <c r="V17" s="39"/>
-      <c r="W17" s="39"/>
-      <c r="X17" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y17" s="38"/>
-      <c r="Z17" s="38"/>
-      <c r="AA17" s="38"/>
-      <c r="AB17" s="38"/>
-      <c r="AC17" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD17" s="39"/>
-      <c r="AE17" s="39"/>
-      <c r="AF17" s="39"/>
-      <c r="AG17" s="39"/>
-      <c r="AH17" s="39"/>
-      <c r="AI17" s="39"/>
-      <c r="AJ17" s="39"/>
-      <c r="AK17" s="39"/>
-      <c r="AL17" s="39"/>
-      <c r="AM17" s="39"/>
-      <c r="AN17" s="39"/>
-      <c r="AO17" s="39"/>
-      <c r="AP17" s="39"/>
-      <c r="AQ17" s="39"/>
-      <c r="AR17" s="39"/>
-      <c r="AS17" s="39"/>
-      <c r="AT17" s="39"/>
-      <c r="AU17" s="39"/>
-      <c r="AV17" s="39"/>
-      <c r="AW17" s="39"/>
-      <c r="AX17" s="39"/>
-      <c r="AY17" s="39"/>
-      <c r="AZ17" s="39"/>
-      <c r="BA17" s="39"/>
-      <c r="BB17" s="39"/>
-      <c r="BC17" s="39"/>
+    <row r="17" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="27"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="28"/>
+      <c r="S17" s="28"/>
+      <c r="T17" s="28"/>
+      <c r="U17" s="28"/>
+      <c r="V17" s="28"/>
+      <c r="W17" s="29"/>
+      <c r="X17" s="30"/>
+      <c r="Y17" s="30"/>
+      <c r="Z17" s="30"/>
+      <c r="AA17" s="30"/>
+      <c r="AB17" s="30"/>
+      <c r="AC17" s="30"/>
+      <c r="AD17" s="30"/>
+      <c r="AE17" s="31"/>
+      <c r="AF17" s="26"/>
+      <c r="AG17" s="26"/>
+      <c r="AH17" s="26"/>
+      <c r="AI17" s="26"/>
+      <c r="AJ17" s="26"/>
+      <c r="AK17" s="26"/>
+      <c r="AL17" s="26"/>
+      <c r="AM17" s="26"/>
+      <c r="AN17" s="26"/>
+      <c r="AO17" s="26"/>
+      <c r="AP17" s="26"/>
+      <c r="AQ17" s="26"/>
+      <c r="AR17" s="26"/>
+      <c r="AS17" s="26"/>
+      <c r="AT17" s="26"/>
+      <c r="AU17" s="26"/>
+      <c r="AV17" s="26"/>
+      <c r="AW17" s="26"/>
+      <c r="AX17" s="26"/>
+      <c r="AY17" s="26"/>
+      <c r="AZ17" s="26"/>
+      <c r="BA17" s="26"/>
+      <c r="BB17" s="26"/>
+      <c r="BC17" s="26"/>
       <c r="BD17" s="3"/>
       <c r="BE17" s="3"/>
       <c r="CP17" s="3"/>
@@ -20934,62 +21103,70 @@
       <c r="HI17" s="3"/>
       <c r="HJ17" s="3"/>
     </row>
-    <row r="18" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="39"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="39"/>
-      <c r="R18" s="39"/>
-      <c r="S18" s="39"/>
-      <c r="T18" s="39"/>
-      <c r="U18" s="39"/>
-      <c r="V18" s="39"/>
-      <c r="W18" s="39"/>
-      <c r="X18" s="38"/>
-      <c r="Y18" s="38"/>
-      <c r="Z18" s="38"/>
-      <c r="AA18" s="38"/>
-      <c r="AB18" s="38"/>
-      <c r="AC18" s="39"/>
-      <c r="AD18" s="39"/>
-      <c r="AE18" s="39"/>
-      <c r="AF18" s="39"/>
-      <c r="AG18" s="39"/>
-      <c r="AH18" s="39"/>
-      <c r="AI18" s="39"/>
-      <c r="AJ18" s="39"/>
-      <c r="AK18" s="39"/>
-      <c r="AL18" s="39"/>
-      <c r="AM18" s="39"/>
-      <c r="AN18" s="39"/>
-      <c r="AO18" s="39"/>
-      <c r="AP18" s="39"/>
-      <c r="AQ18" s="39"/>
-      <c r="AR18" s="39"/>
-      <c r="AS18" s="39"/>
-      <c r="AT18" s="39"/>
-      <c r="AU18" s="39"/>
-      <c r="AV18" s="39"/>
-      <c r="AW18" s="39"/>
-      <c r="AX18" s="39"/>
-      <c r="AY18" s="39"/>
-      <c r="AZ18" s="39"/>
-      <c r="BA18" s="39"/>
-      <c r="BB18" s="39"/>
-      <c r="BC18" s="39"/>
+    <row r="18" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="44"/>
+      <c r="N18" s="44"/>
+      <c r="O18" s="44"/>
+      <c r="P18" s="44"/>
+      <c r="Q18" s="44"/>
+      <c r="R18" s="44"/>
+      <c r="S18" s="44"/>
+      <c r="T18" s="44"/>
+      <c r="U18" s="44"/>
+      <c r="V18" s="44"/>
+      <c r="W18" s="44"/>
+      <c r="X18" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y18" s="46"/>
+      <c r="Z18" s="46"/>
+      <c r="AA18" s="46"/>
+      <c r="AB18" s="46"/>
+      <c r="AC18" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD18" s="44"/>
+      <c r="AE18" s="44"/>
+      <c r="AF18" s="44"/>
+      <c r="AG18" s="44"/>
+      <c r="AH18" s="44"/>
+      <c r="AI18" s="44"/>
+      <c r="AJ18" s="44"/>
+      <c r="AK18" s="44"/>
+      <c r="AL18" s="44"/>
+      <c r="AM18" s="44"/>
+      <c r="AN18" s="44"/>
+      <c r="AO18" s="44"/>
+      <c r="AP18" s="44"/>
+      <c r="AQ18" s="44"/>
+      <c r="AR18" s="44"/>
+      <c r="AS18" s="44"/>
+      <c r="AT18" s="44"/>
+      <c r="AU18" s="44"/>
+      <c r="AV18" s="44"/>
+      <c r="AW18" s="44"/>
+      <c r="AX18" s="44"/>
+      <c r="AY18" s="44"/>
+      <c r="AZ18" s="44"/>
+      <c r="BA18" s="44"/>
+      <c r="BB18" s="44"/>
+      <c r="BC18" s="44"/>
       <c r="BD18" s="3"/>
       <c r="BE18" s="3"/>
       <c r="CP18" s="3"/>
@@ -21118,62 +21295,62 @@
       <c r="HI18" s="3"/>
       <c r="HJ18" s="3"/>
     </row>
-    <row r="19" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="3"/>
-      <c r="Z19" s="3"/>
-      <c r="AA19" s="3"/>
-      <c r="AB19" s="3"/>
-      <c r="AC19" s="3"/>
-      <c r="AD19" s="3"/>
-      <c r="AE19" s="3"/>
-      <c r="AF19" s="3"/>
-      <c r="AG19" s="3"/>
-      <c r="AH19" s="3"/>
-      <c r="AI19" s="3"/>
-      <c r="AJ19" s="3"/>
-      <c r="AK19" s="3"/>
-      <c r="AL19" s="3"/>
-      <c r="AM19" s="3"/>
-      <c r="AN19" s="3"/>
-      <c r="AO19" s="3"/>
-      <c r="AP19" s="3"/>
-      <c r="AQ19" s="3"/>
-      <c r="AR19" s="3"/>
-      <c r="AS19" s="3"/>
-      <c r="AT19" s="3"/>
-      <c r="AU19" s="3"/>
-      <c r="AV19" s="3"/>
-      <c r="AW19" s="3"/>
-      <c r="AX19" s="3"/>
-      <c r="AY19" s="3"/>
-      <c r="AZ19" s="3"/>
-      <c r="BA19" s="3"/>
-      <c r="BB19" s="3"/>
-      <c r="BC19" s="3"/>
+    <row r="19" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="45"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="44"/>
+      <c r="N19" s="44"/>
+      <c r="O19" s="44"/>
+      <c r="P19" s="44"/>
+      <c r="Q19" s="44"/>
+      <c r="R19" s="44"/>
+      <c r="S19" s="44"/>
+      <c r="T19" s="44"/>
+      <c r="U19" s="44"/>
+      <c r="V19" s="44"/>
+      <c r="W19" s="44"/>
+      <c r="X19" s="46"/>
+      <c r="Y19" s="46"/>
+      <c r="Z19" s="46"/>
+      <c r="AA19" s="46"/>
+      <c r="AB19" s="46"/>
+      <c r="AC19" s="44"/>
+      <c r="AD19" s="44"/>
+      <c r="AE19" s="44"/>
+      <c r="AF19" s="44"/>
+      <c r="AG19" s="44"/>
+      <c r="AH19" s="44"/>
+      <c r="AI19" s="44"/>
+      <c r="AJ19" s="44"/>
+      <c r="AK19" s="44"/>
+      <c r="AL19" s="44"/>
+      <c r="AM19" s="44"/>
+      <c r="AN19" s="44"/>
+      <c r="AO19" s="44"/>
+      <c r="AP19" s="44"/>
+      <c r="AQ19" s="44"/>
+      <c r="AR19" s="44"/>
+      <c r="AS19" s="44"/>
+      <c r="AT19" s="44"/>
+      <c r="AU19" s="44"/>
+      <c r="AV19" s="44"/>
+      <c r="AW19" s="44"/>
+      <c r="AX19" s="44"/>
+      <c r="AY19" s="44"/>
+      <c r="AZ19" s="44"/>
+      <c r="BA19" s="44"/>
+      <c r="BB19" s="44"/>
+      <c r="BC19" s="44"/>
       <c r="BD19" s="3"/>
       <c r="BE19" s="3"/>
       <c r="CP19" s="3"/>
@@ -21302,72 +21479,62 @@
       <c r="HI19" s="3"/>
       <c r="HJ19" s="3"/>
     </row>
-    <row r="20" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="38"/>
-      <c r="N20" s="38"/>
-      <c r="O20" s="38"/>
-      <c r="P20" s="38"/>
-      <c r="Q20" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="R20" s="38"/>
-      <c r="S20" s="38"/>
-      <c r="T20" s="38"/>
-      <c r="U20" s="38"/>
-      <c r="V20" s="38"/>
-      <c r="W20" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="X20" s="38"/>
-      <c r="Y20" s="38"/>
-      <c r="Z20" s="38"/>
-      <c r="AA20" s="38"/>
-      <c r="AB20" s="38"/>
-      <c r="AC20" s="38"/>
-      <c r="AD20" s="38"/>
-      <c r="AE20" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="AF20" s="38"/>
-      <c r="AG20" s="38"/>
-      <c r="AH20" s="38"/>
-      <c r="AI20" s="38"/>
-      <c r="AJ20" s="38"/>
-      <c r="AK20" s="38"/>
-      <c r="AL20" s="38"/>
-      <c r="AM20" s="38"/>
-      <c r="AN20" s="38"/>
-      <c r="AO20" s="38"/>
-      <c r="AP20" s="38"/>
-      <c r="AQ20" s="38"/>
-      <c r="AR20" s="38"/>
-      <c r="AS20" s="38"/>
-      <c r="AT20" s="38"/>
-      <c r="AU20" s="38"/>
-      <c r="AV20" s="38"/>
-      <c r="AW20" s="38"/>
-      <c r="AX20" s="38"/>
-      <c r="AY20" s="38"/>
-      <c r="AZ20" s="38"/>
-      <c r="BA20" s="38"/>
-      <c r="BB20" s="38"/>
-      <c r="BC20" s="38"/>
+    <row r="20" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="3"/>
+      <c r="AC20" s="3"/>
+      <c r="AD20" s="3"/>
+      <c r="AE20" s="3"/>
+      <c r="AF20" s="3"/>
+      <c r="AG20" s="3"/>
+      <c r="AH20" s="3"/>
+      <c r="AI20" s="3"/>
+      <c r="AJ20" s="3"/>
+      <c r="AK20" s="3"/>
+      <c r="AL20" s="3"/>
+      <c r="AM20" s="3"/>
+      <c r="AN20" s="3"/>
+      <c r="AO20" s="3"/>
+      <c r="AP20" s="3"/>
+      <c r="AQ20" s="3"/>
+      <c r="AR20" s="3"/>
+      <c r="AS20" s="3"/>
+      <c r="AT20" s="3"/>
+      <c r="AU20" s="3"/>
+      <c r="AV20" s="3"/>
+      <c r="AW20" s="3"/>
+      <c r="AX20" s="3"/>
+      <c r="AY20" s="3"/>
+      <c r="AZ20" s="3"/>
+      <c r="BA20" s="3"/>
+      <c r="BB20" s="3"/>
+      <c r="BC20" s="3"/>
       <c r="BD20" s="3"/>
       <c r="BE20" s="3"/>
       <c r="CP20" s="3"/>
@@ -21496,62 +21663,72 @@
       <c r="HI20" s="3"/>
       <c r="HJ20" s="3"/>
     </row>
-    <row r="21" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="38"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="38"/>
-      <c r="O21" s="38"/>
-      <c r="P21" s="38"/>
-      <c r="Q21" s="38"/>
-      <c r="R21" s="38"/>
-      <c r="S21" s="38"/>
-      <c r="T21" s="38"/>
-      <c r="U21" s="38"/>
-      <c r="V21" s="38"/>
-      <c r="W21" s="38"/>
-      <c r="X21" s="38"/>
-      <c r="Y21" s="38"/>
-      <c r="Z21" s="38"/>
-      <c r="AA21" s="38"/>
-      <c r="AB21" s="38"/>
-      <c r="AC21" s="38"/>
-      <c r="AD21" s="38"/>
-      <c r="AE21" s="38"/>
-      <c r="AF21" s="38"/>
-      <c r="AG21" s="38"/>
-      <c r="AH21" s="38"/>
-      <c r="AI21" s="38"/>
-      <c r="AJ21" s="38"/>
-      <c r="AK21" s="38"/>
-      <c r="AL21" s="38"/>
-      <c r="AM21" s="38"/>
-      <c r="AN21" s="38"/>
-      <c r="AO21" s="38"/>
-      <c r="AP21" s="38"/>
-      <c r="AQ21" s="38"/>
-      <c r="AR21" s="38"/>
-      <c r="AS21" s="38"/>
-      <c r="AT21" s="38"/>
-      <c r="AU21" s="38"/>
-      <c r="AV21" s="38"/>
-      <c r="AW21" s="38"/>
-      <c r="AX21" s="38"/>
-      <c r="AY21" s="38"/>
-      <c r="AZ21" s="38"/>
-      <c r="BA21" s="38"/>
-      <c r="BB21" s="38"/>
-      <c r="BC21" s="38"/>
+    <row r="21" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="46"/>
+      <c r="N21" s="46"/>
+      <c r="O21" s="46"/>
+      <c r="P21" s="46"/>
+      <c r="Q21" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="R21" s="46"/>
+      <c r="S21" s="46"/>
+      <c r="T21" s="46"/>
+      <c r="U21" s="46"/>
+      <c r="V21" s="46"/>
+      <c r="W21" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="X21" s="46"/>
+      <c r="Y21" s="46"/>
+      <c r="Z21" s="46"/>
+      <c r="AA21" s="46"/>
+      <c r="AB21" s="46"/>
+      <c r="AC21" s="46"/>
+      <c r="AD21" s="46"/>
+      <c r="AE21" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF21" s="46"/>
+      <c r="AG21" s="46"/>
+      <c r="AH21" s="46"/>
+      <c r="AI21" s="46"/>
+      <c r="AJ21" s="46"/>
+      <c r="AK21" s="46"/>
+      <c r="AL21" s="46"/>
+      <c r="AM21" s="46"/>
+      <c r="AN21" s="46"/>
+      <c r="AO21" s="46"/>
+      <c r="AP21" s="46"/>
+      <c r="AQ21" s="46"/>
+      <c r="AR21" s="46"/>
+      <c r="AS21" s="46"/>
+      <c r="AT21" s="46"/>
+      <c r="AU21" s="46"/>
+      <c r="AV21" s="46"/>
+      <c r="AW21" s="46"/>
+      <c r="AX21" s="46"/>
+      <c r="AY21" s="46"/>
+      <c r="AZ21" s="46"/>
+      <c r="BA21" s="46"/>
+      <c r="BB21" s="46"/>
+      <c r="BC21" s="46"/>
       <c r="BD21" s="3"/>
       <c r="BE21" s="3"/>
       <c r="CP21" s="3"/>
@@ -21680,72 +21857,62 @@
       <c r="HI21" s="3"/>
       <c r="HJ21" s="3"/>
     </row>
-    <row r="22" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="B22" s="49"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="J22" s="49"/>
-      <c r="K22" s="49"/>
-      <c r="L22" s="49"/>
-      <c r="M22" s="49"/>
-      <c r="N22" s="49"/>
-      <c r="O22" s="49"/>
-      <c r="P22" s="49"/>
-      <c r="Q22" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="R22" s="49"/>
-      <c r="S22" s="49"/>
-      <c r="T22" s="49"/>
-      <c r="U22" s="49"/>
-      <c r="V22" s="49"/>
-      <c r="W22" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="X22" s="50"/>
-      <c r="Y22" s="50"/>
-      <c r="Z22" s="50"/>
-      <c r="AA22" s="50"/>
-      <c r="AB22" s="50"/>
-      <c r="AC22" s="50"/>
-      <c r="AD22" s="50"/>
-      <c r="AE22" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="AF22" s="52"/>
-      <c r="AG22" s="52"/>
-      <c r="AH22" s="52"/>
-      <c r="AI22" s="52"/>
-      <c r="AJ22" s="52"/>
-      <c r="AK22" s="52"/>
-      <c r="AL22" s="52"/>
-      <c r="AM22" s="52"/>
-      <c r="AN22" s="52"/>
-      <c r="AO22" s="52"/>
-      <c r="AP22" s="52"/>
-      <c r="AQ22" s="52"/>
-      <c r="AR22" s="52"/>
-      <c r="AS22" s="52"/>
-      <c r="AT22" s="52"/>
-      <c r="AU22" s="52"/>
-      <c r="AV22" s="52"/>
-      <c r="AW22" s="52"/>
-      <c r="AX22" s="52"/>
-      <c r="AY22" s="52"/>
-      <c r="AZ22" s="52"/>
-      <c r="BA22" s="52"/>
-      <c r="BB22" s="52"/>
-      <c r="BC22" s="52"/>
+    <row r="22" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="46"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="46"/>
+      <c r="N22" s="46"/>
+      <c r="O22" s="46"/>
+      <c r="P22" s="46"/>
+      <c r="Q22" s="46"/>
+      <c r="R22" s="46"/>
+      <c r="S22" s="46"/>
+      <c r="T22" s="46"/>
+      <c r="U22" s="46"/>
+      <c r="V22" s="46"/>
+      <c r="W22" s="46"/>
+      <c r="X22" s="46"/>
+      <c r="Y22" s="46"/>
+      <c r="Z22" s="46"/>
+      <c r="AA22" s="46"/>
+      <c r="AB22" s="46"/>
+      <c r="AC22" s="46"/>
+      <c r="AD22" s="46"/>
+      <c r="AE22" s="46"/>
+      <c r="AF22" s="46"/>
+      <c r="AG22" s="46"/>
+      <c r="AH22" s="46"/>
+      <c r="AI22" s="46"/>
+      <c r="AJ22" s="46"/>
+      <c r="AK22" s="46"/>
+      <c r="AL22" s="46"/>
+      <c r="AM22" s="46"/>
+      <c r="AN22" s="46"/>
+      <c r="AO22" s="46"/>
+      <c r="AP22" s="46"/>
+      <c r="AQ22" s="46"/>
+      <c r="AR22" s="46"/>
+      <c r="AS22" s="46"/>
+      <c r="AT22" s="46"/>
+      <c r="AU22" s="46"/>
+      <c r="AV22" s="46"/>
+      <c r="AW22" s="46"/>
+      <c r="AX22" s="46"/>
+      <c r="AY22" s="46"/>
+      <c r="AZ22" s="46"/>
+      <c r="BA22" s="46"/>
+      <c r="BB22" s="46"/>
+      <c r="BC22" s="46"/>
       <c r="BD22" s="3"/>
       <c r="BE22" s="3"/>
       <c r="CP22" s="3"/>
@@ -21874,72 +22041,72 @@
       <c r="HI22" s="3"/>
       <c r="HJ22" s="3"/>
     </row>
-    <row r="23" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="48" t="s">
-        <v>58</v>
+    <row r="23" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="49" t="s">
+        <v>57</v>
       </c>
-      <c r="B23" s="49"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="48" t="s">
-        <v>47</v>
+      <c r="B23" s="54"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="49" t="s">
+        <v>46</v>
       </c>
-      <c r="J23" s="49"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="49"/>
-      <c r="M23" s="49"/>
-      <c r="N23" s="49"/>
-      <c r="O23" s="49"/>
-      <c r="P23" s="49"/>
-      <c r="Q23" s="48" t="s">
+      <c r="J23" s="54"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="54"/>
+      <c r="O23" s="54"/>
+      <c r="P23" s="54"/>
+      <c r="Q23" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="R23" s="49"/>
-      <c r="S23" s="49"/>
-      <c r="T23" s="49"/>
-      <c r="U23" s="49"/>
-      <c r="V23" s="49"/>
-      <c r="W23" s="50" t="s">
+      <c r="R23" s="54"/>
+      <c r="S23" s="54"/>
+      <c r="T23" s="54"/>
+      <c r="U23" s="54"/>
+      <c r="V23" s="54"/>
+      <c r="W23" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="X23" s="50"/>
-      <c r="Y23" s="50"/>
-      <c r="Z23" s="50"/>
-      <c r="AA23" s="50"/>
-      <c r="AB23" s="50"/>
-      <c r="AC23" s="50"/>
-      <c r="AD23" s="50"/>
-      <c r="AE23" s="51" t="s">
+      <c r="X23" s="55"/>
+      <c r="Y23" s="55"/>
+      <c r="Z23" s="55"/>
+      <c r="AA23" s="55"/>
+      <c r="AB23" s="55"/>
+      <c r="AC23" s="55"/>
+      <c r="AD23" s="55"/>
+      <c r="AE23" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="AF23" s="52"/>
-      <c r="AG23" s="52"/>
-      <c r="AH23" s="52"/>
-      <c r="AI23" s="52"/>
-      <c r="AJ23" s="52"/>
-      <c r="AK23" s="52"/>
-      <c r="AL23" s="52"/>
-      <c r="AM23" s="52"/>
-      <c r="AN23" s="52"/>
-      <c r="AO23" s="52"/>
-      <c r="AP23" s="52"/>
-      <c r="AQ23" s="52"/>
-      <c r="AR23" s="52"/>
-      <c r="AS23" s="52"/>
-      <c r="AT23" s="52"/>
-      <c r="AU23" s="52"/>
-      <c r="AV23" s="52"/>
-      <c r="AW23" s="52"/>
-      <c r="AX23" s="52"/>
-      <c r="AY23" s="52"/>
-      <c r="AZ23" s="52"/>
-      <c r="BA23" s="52"/>
-      <c r="BB23" s="52"/>
-      <c r="BC23" s="52"/>
+      <c r="AF23" s="57"/>
+      <c r="AG23" s="57"/>
+      <c r="AH23" s="57"/>
+      <c r="AI23" s="57"/>
+      <c r="AJ23" s="57"/>
+      <c r="AK23" s="57"/>
+      <c r="AL23" s="57"/>
+      <c r="AM23" s="57"/>
+      <c r="AN23" s="57"/>
+      <c r="AO23" s="57"/>
+      <c r="AP23" s="57"/>
+      <c r="AQ23" s="57"/>
+      <c r="AR23" s="57"/>
+      <c r="AS23" s="57"/>
+      <c r="AT23" s="57"/>
+      <c r="AU23" s="57"/>
+      <c r="AV23" s="57"/>
+      <c r="AW23" s="57"/>
+      <c r="AX23" s="57"/>
+      <c r="AY23" s="57"/>
+      <c r="AZ23" s="57"/>
+      <c r="BA23" s="57"/>
+      <c r="BB23" s="57"/>
+      <c r="BC23" s="57"/>
       <c r="BD23" s="3"/>
       <c r="BE23" s="3"/>
       <c r="CP23" s="3"/>
@@ -22068,72 +22235,72 @@
       <c r="HI23" s="3"/>
       <c r="HJ23" s="3"/>
     </row>
-    <row r="24" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="48" t="s">
-        <v>59</v>
+    <row r="24" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="49" t="s">
+        <v>58</v>
       </c>
-      <c r="B24" s="49"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="48" t="s">
-        <v>48</v>
+      <c r="B24" s="54"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="49" t="s">
+        <v>47</v>
       </c>
-      <c r="J24" s="49"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="49"/>
-      <c r="M24" s="49"/>
-      <c r="N24" s="49"/>
-      <c r="O24" s="49"/>
-      <c r="P24" s="49"/>
-      <c r="Q24" s="48" t="s">
+      <c r="J24" s="54"/>
+      <c r="K24" s="54"/>
+      <c r="L24" s="54"/>
+      <c r="M24" s="54"/>
+      <c r="N24" s="54"/>
+      <c r="O24" s="54"/>
+      <c r="P24" s="54"/>
+      <c r="Q24" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="R24" s="49"/>
-      <c r="S24" s="49"/>
-      <c r="T24" s="49"/>
-      <c r="U24" s="49"/>
-      <c r="V24" s="49"/>
-      <c r="W24" s="50" t="s">
+      <c r="R24" s="54"/>
+      <c r="S24" s="54"/>
+      <c r="T24" s="54"/>
+      <c r="U24" s="54"/>
+      <c r="V24" s="54"/>
+      <c r="W24" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="X24" s="50"/>
-      <c r="Y24" s="50"/>
-      <c r="Z24" s="50"/>
-      <c r="AA24" s="50"/>
-      <c r="AB24" s="50"/>
-      <c r="AC24" s="50"/>
-      <c r="AD24" s="50"/>
-      <c r="AE24" s="51" t="s">
+      <c r="X24" s="55"/>
+      <c r="Y24" s="55"/>
+      <c r="Z24" s="55"/>
+      <c r="AA24" s="55"/>
+      <c r="AB24" s="55"/>
+      <c r="AC24" s="55"/>
+      <c r="AD24" s="55"/>
+      <c r="AE24" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="AF24" s="52"/>
-      <c r="AG24" s="52"/>
-      <c r="AH24" s="52"/>
-      <c r="AI24" s="52"/>
-      <c r="AJ24" s="52"/>
-      <c r="AK24" s="52"/>
-      <c r="AL24" s="52"/>
-      <c r="AM24" s="52"/>
-      <c r="AN24" s="52"/>
-      <c r="AO24" s="52"/>
-      <c r="AP24" s="52"/>
-      <c r="AQ24" s="52"/>
-      <c r="AR24" s="52"/>
-      <c r="AS24" s="52"/>
-      <c r="AT24" s="52"/>
-      <c r="AU24" s="52"/>
-      <c r="AV24" s="52"/>
-      <c r="AW24" s="52"/>
-      <c r="AX24" s="52"/>
-      <c r="AY24" s="52"/>
-      <c r="AZ24" s="52"/>
-      <c r="BA24" s="52"/>
-      <c r="BB24" s="52"/>
-      <c r="BC24" s="52"/>
+      <c r="AF24" s="57"/>
+      <c r="AG24" s="57"/>
+      <c r="AH24" s="57"/>
+      <c r="AI24" s="57"/>
+      <c r="AJ24" s="57"/>
+      <c r="AK24" s="57"/>
+      <c r="AL24" s="57"/>
+      <c r="AM24" s="57"/>
+      <c r="AN24" s="57"/>
+      <c r="AO24" s="57"/>
+      <c r="AP24" s="57"/>
+      <c r="AQ24" s="57"/>
+      <c r="AR24" s="57"/>
+      <c r="AS24" s="57"/>
+      <c r="AT24" s="57"/>
+      <c r="AU24" s="57"/>
+      <c r="AV24" s="57"/>
+      <c r="AW24" s="57"/>
+      <c r="AX24" s="57"/>
+      <c r="AY24" s="57"/>
+      <c r="AZ24" s="57"/>
+      <c r="BA24" s="57"/>
+      <c r="BB24" s="57"/>
+      <c r="BC24" s="57"/>
       <c r="BD24" s="3"/>
       <c r="BE24" s="3"/>
       <c r="CP24" s="3"/>
@@ -22262,72 +22429,72 @@
       <c r="HI24" s="3"/>
       <c r="HJ24" s="3"/>
     </row>
-    <row r="25" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="48" t="s">
-        <v>60</v>
+    <row r="25" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="49" t="s">
+        <v>59</v>
       </c>
-      <c r="B25" s="49"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="48" t="s">
-        <v>49</v>
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="49" t="s">
+        <v>48</v>
       </c>
-      <c r="J25" s="49"/>
-      <c r="K25" s="49"/>
-      <c r="L25" s="49"/>
-      <c r="M25" s="49"/>
-      <c r="N25" s="49"/>
-      <c r="O25" s="49"/>
-      <c r="P25" s="49"/>
-      <c r="Q25" s="48" t="s">
+      <c r="J25" s="54"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="54"/>
+      <c r="N25" s="54"/>
+      <c r="O25" s="54"/>
+      <c r="P25" s="54"/>
+      <c r="Q25" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="R25" s="49"/>
-      <c r="S25" s="49"/>
-      <c r="T25" s="49"/>
-      <c r="U25" s="49"/>
-      <c r="V25" s="49"/>
-      <c r="W25" s="50" t="s">
+      <c r="R25" s="54"/>
+      <c r="S25" s="54"/>
+      <c r="T25" s="54"/>
+      <c r="U25" s="54"/>
+      <c r="V25" s="54"/>
+      <c r="W25" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="X25" s="50"/>
-      <c r="Y25" s="50"/>
-      <c r="Z25" s="50"/>
-      <c r="AA25" s="50"/>
-      <c r="AB25" s="50"/>
-      <c r="AC25" s="50"/>
-      <c r="AD25" s="50"/>
-      <c r="AE25" s="51" t="s">
+      <c r="X25" s="55"/>
+      <c r="Y25" s="55"/>
+      <c r="Z25" s="55"/>
+      <c r="AA25" s="55"/>
+      <c r="AB25" s="55"/>
+      <c r="AC25" s="55"/>
+      <c r="AD25" s="55"/>
+      <c r="AE25" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="AF25" s="52"/>
-      <c r="AG25" s="52"/>
-      <c r="AH25" s="52"/>
-      <c r="AI25" s="52"/>
-      <c r="AJ25" s="52"/>
-      <c r="AK25" s="52"/>
-      <c r="AL25" s="52"/>
-      <c r="AM25" s="52"/>
-      <c r="AN25" s="52"/>
-      <c r="AO25" s="52"/>
-      <c r="AP25" s="52"/>
-      <c r="AQ25" s="52"/>
-      <c r="AR25" s="52"/>
-      <c r="AS25" s="52"/>
-      <c r="AT25" s="52"/>
-      <c r="AU25" s="52"/>
-      <c r="AV25" s="52"/>
-      <c r="AW25" s="52"/>
-      <c r="AX25" s="52"/>
-      <c r="AY25" s="52"/>
-      <c r="AZ25" s="52"/>
-      <c r="BA25" s="52"/>
-      <c r="BB25" s="52"/>
-      <c r="BC25" s="52"/>
+      <c r="AF25" s="57"/>
+      <c r="AG25" s="57"/>
+      <c r="AH25" s="57"/>
+      <c r="AI25" s="57"/>
+      <c r="AJ25" s="57"/>
+      <c r="AK25" s="57"/>
+      <c r="AL25" s="57"/>
+      <c r="AM25" s="57"/>
+      <c r="AN25" s="57"/>
+      <c r="AO25" s="57"/>
+      <c r="AP25" s="57"/>
+      <c r="AQ25" s="57"/>
+      <c r="AR25" s="57"/>
+      <c r="AS25" s="57"/>
+      <c r="AT25" s="57"/>
+      <c r="AU25" s="57"/>
+      <c r="AV25" s="57"/>
+      <c r="AW25" s="57"/>
+      <c r="AX25" s="57"/>
+      <c r="AY25" s="57"/>
+      <c r="AZ25" s="57"/>
+      <c r="BA25" s="57"/>
+      <c r="BB25" s="57"/>
+      <c r="BC25" s="57"/>
       <c r="BD25" s="3"/>
       <c r="BE25" s="3"/>
       <c r="CP25" s="3"/>
@@ -22456,72 +22623,72 @@
       <c r="HI25" s="3"/>
       <c r="HJ25" s="3"/>
     </row>
-    <row r="26" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="48" t="s">
-        <v>61</v>
+    <row r="26" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="49" t="s">
+        <v>60</v>
       </c>
-      <c r="B26" s="49"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="48" t="s">
-        <v>50</v>
+      <c r="B26" s="54"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="49" t="s">
+        <v>78</v>
       </c>
-      <c r="J26" s="49"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="49"/>
-      <c r="M26" s="49"/>
-      <c r="N26" s="49"/>
-      <c r="O26" s="49"/>
-      <c r="P26" s="49"/>
+      <c r="J26" s="54"/>
+      <c r="K26" s="54"/>
+      <c r="L26" s="54"/>
+      <c r="M26" s="54"/>
+      <c r="N26" s="54"/>
+      <c r="O26" s="54"/>
+      <c r="P26" s="54"/>
       <c r="Q26" s="49" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
-      <c r="R26" s="49"/>
-      <c r="S26" s="49"/>
-      <c r="T26" s="49"/>
-      <c r="U26" s="49"/>
-      <c r="V26" s="49"/>
-      <c r="W26" s="50" t="s">
+      <c r="R26" s="54"/>
+      <c r="S26" s="54"/>
+      <c r="T26" s="54"/>
+      <c r="U26" s="54"/>
+      <c r="V26" s="54"/>
+      <c r="W26" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="X26" s="50"/>
-      <c r="Y26" s="50"/>
-      <c r="Z26" s="50"/>
-      <c r="AA26" s="50"/>
-      <c r="AB26" s="50"/>
-      <c r="AC26" s="50"/>
-      <c r="AD26" s="50"/>
-      <c r="AE26" s="51" t="s">
-        <v>63</v>
+      <c r="X26" s="55"/>
+      <c r="Y26" s="55"/>
+      <c r="Z26" s="55"/>
+      <c r="AA26" s="55"/>
+      <c r="AB26" s="55"/>
+      <c r="AC26" s="55"/>
+      <c r="AD26" s="55"/>
+      <c r="AE26" s="56" t="s">
+        <v>18</v>
       </c>
-      <c r="AF26" s="52"/>
-      <c r="AG26" s="52"/>
-      <c r="AH26" s="52"/>
-      <c r="AI26" s="52"/>
-      <c r="AJ26" s="52"/>
-      <c r="AK26" s="52"/>
-      <c r="AL26" s="52"/>
-      <c r="AM26" s="52"/>
-      <c r="AN26" s="52"/>
-      <c r="AO26" s="52"/>
-      <c r="AP26" s="52"/>
-      <c r="AQ26" s="52"/>
-      <c r="AR26" s="52"/>
-      <c r="AS26" s="52"/>
-      <c r="AT26" s="52"/>
-      <c r="AU26" s="52"/>
-      <c r="AV26" s="52"/>
-      <c r="AW26" s="52"/>
-      <c r="AX26" s="52"/>
-      <c r="AY26" s="52"/>
-      <c r="AZ26" s="52"/>
-      <c r="BA26" s="52"/>
-      <c r="BB26" s="52"/>
-      <c r="BC26" s="52"/>
+      <c r="AF26" s="57"/>
+      <c r="AG26" s="57"/>
+      <c r="AH26" s="57"/>
+      <c r="AI26" s="57"/>
+      <c r="AJ26" s="57"/>
+      <c r="AK26" s="57"/>
+      <c r="AL26" s="57"/>
+      <c r="AM26" s="57"/>
+      <c r="AN26" s="57"/>
+      <c r="AO26" s="57"/>
+      <c r="AP26" s="57"/>
+      <c r="AQ26" s="57"/>
+      <c r="AR26" s="57"/>
+      <c r="AS26" s="57"/>
+      <c r="AT26" s="57"/>
+      <c r="AU26" s="57"/>
+      <c r="AV26" s="57"/>
+      <c r="AW26" s="57"/>
+      <c r="AX26" s="57"/>
+      <c r="AY26" s="57"/>
+      <c r="AZ26" s="57"/>
+      <c r="BA26" s="57"/>
+      <c r="BB26" s="57"/>
+      <c r="BC26" s="57"/>
       <c r="BD26" s="3"/>
       <c r="BE26" s="3"/>
       <c r="CP26" s="3"/>
@@ -22650,72 +22817,72 @@
       <c r="HI26" s="3"/>
       <c r="HJ26" s="3"/>
     </row>
-    <row r="27" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="48" t="s">
-        <v>62</v>
+    <row r="27" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="49" t="s">
+        <v>61</v>
       </c>
-      <c r="B27" s="49"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="48" t="s">
-        <v>51</v>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="49" t="s">
+        <v>79</v>
       </c>
-      <c r="J27" s="49"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="49"/>
-      <c r="M27" s="49"/>
-      <c r="N27" s="49"/>
-      <c r="O27" s="49"/>
-      <c r="P27" s="49"/>
-      <c r="Q27" s="49" t="s">
+      <c r="J27" s="54"/>
+      <c r="K27" s="54"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="54"/>
+      <c r="N27" s="54"/>
+      <c r="O27" s="54"/>
+      <c r="P27" s="54"/>
+      <c r="Q27" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="R27" s="49"/>
-      <c r="S27" s="49"/>
-      <c r="T27" s="49"/>
-      <c r="U27" s="49"/>
-      <c r="V27" s="49"/>
-      <c r="W27" s="50" t="s">
+      <c r="R27" s="54"/>
+      <c r="S27" s="54"/>
+      <c r="T27" s="54"/>
+      <c r="U27" s="54"/>
+      <c r="V27" s="54"/>
+      <c r="W27" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="X27" s="50"/>
-      <c r="Y27" s="50"/>
-      <c r="Z27" s="50"/>
-      <c r="AA27" s="50"/>
-      <c r="AB27" s="50"/>
-      <c r="AC27" s="50"/>
-      <c r="AD27" s="50"/>
-      <c r="AE27" s="51" t="s">
-        <v>64</v>
+      <c r="X27" s="55"/>
+      <c r="Y27" s="55"/>
+      <c r="Z27" s="55"/>
+      <c r="AA27" s="55"/>
+      <c r="AB27" s="55"/>
+      <c r="AC27" s="55"/>
+      <c r="AD27" s="55"/>
+      <c r="AE27" s="56" t="s">
+        <v>63</v>
       </c>
-      <c r="AF27" s="52"/>
-      <c r="AG27" s="52"/>
-      <c r="AH27" s="52"/>
-      <c r="AI27" s="52"/>
-      <c r="AJ27" s="52"/>
-      <c r="AK27" s="52"/>
-      <c r="AL27" s="52"/>
-      <c r="AM27" s="52"/>
-      <c r="AN27" s="52"/>
-      <c r="AO27" s="52"/>
-      <c r="AP27" s="52"/>
-      <c r="AQ27" s="52"/>
-      <c r="AR27" s="52"/>
-      <c r="AS27" s="52"/>
-      <c r="AT27" s="52"/>
-      <c r="AU27" s="52"/>
-      <c r="AV27" s="52"/>
-      <c r="AW27" s="52"/>
-      <c r="AX27" s="52"/>
-      <c r="AY27" s="52"/>
-      <c r="AZ27" s="52"/>
-      <c r="BA27" s="52"/>
-      <c r="BB27" s="52"/>
-      <c r="BC27" s="52"/>
+      <c r="AF27" s="57"/>
+      <c r="AG27" s="57"/>
+      <c r="AH27" s="57"/>
+      <c r="AI27" s="57"/>
+      <c r="AJ27" s="57"/>
+      <c r="AK27" s="57"/>
+      <c r="AL27" s="57"/>
+      <c r="AM27" s="57"/>
+      <c r="AN27" s="57"/>
+      <c r="AO27" s="57"/>
+      <c r="AP27" s="57"/>
+      <c r="AQ27" s="57"/>
+      <c r="AR27" s="57"/>
+      <c r="AS27" s="57"/>
+      <c r="AT27" s="57"/>
+      <c r="AU27" s="57"/>
+      <c r="AV27" s="57"/>
+      <c r="AW27" s="57"/>
+      <c r="AX27" s="57"/>
+      <c r="AY27" s="57"/>
+      <c r="AZ27" s="57"/>
+      <c r="BA27" s="57"/>
+      <c r="BB27" s="57"/>
+      <c r="BC27" s="57"/>
       <c r="BD27" s="3"/>
       <c r="BE27" s="3"/>
       <c r="CP27" s="3"/>
@@ -22844,68 +23011,72 @@
       <c r="HI27" s="3"/>
       <c r="HJ27" s="3"/>
     </row>
-    <row r="28" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="48" t="s">
-        <v>55</v>
+    <row r="28" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="49" t="s">
+        <v>62</v>
       </c>
-      <c r="B28" s="49"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="48" t="s">
-        <v>31</v>
+      <c r="B28" s="54"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="49" t="s">
+        <v>80</v>
       </c>
-      <c r="J28" s="48"/>
-      <c r="K28" s="48"/>
-      <c r="L28" s="48"/>
-      <c r="M28" s="48"/>
-      <c r="N28" s="48"/>
-      <c r="O28" s="48"/>
-      <c r="P28" s="48"/>
-      <c r="Q28" s="49" t="s">
+      <c r="J28" s="54"/>
+      <c r="K28" s="54"/>
+      <c r="L28" s="54"/>
+      <c r="M28" s="54"/>
+      <c r="N28" s="54"/>
+      <c r="O28" s="54"/>
+      <c r="P28" s="54"/>
+      <c r="Q28" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="R28" s="49"/>
-      <c r="S28" s="49"/>
-      <c r="T28" s="49"/>
-      <c r="U28" s="49"/>
-      <c r="V28" s="49"/>
-      <c r="W28" s="53"/>
-      <c r="X28" s="50"/>
-      <c r="Y28" s="50"/>
-      <c r="Z28" s="50"/>
-      <c r="AA28" s="50"/>
-      <c r="AB28" s="50"/>
-      <c r="AC28" s="50"/>
-      <c r="AD28" s="50"/>
-      <c r="AE28" s="51"/>
-      <c r="AF28" s="52"/>
-      <c r="AG28" s="52"/>
-      <c r="AH28" s="52"/>
-      <c r="AI28" s="52"/>
-      <c r="AJ28" s="52"/>
-      <c r="AK28" s="52"/>
-      <c r="AL28" s="52"/>
-      <c r="AM28" s="52"/>
-      <c r="AN28" s="52"/>
-      <c r="AO28" s="52"/>
-      <c r="AP28" s="52"/>
-      <c r="AQ28" s="52"/>
-      <c r="AR28" s="52"/>
-      <c r="AS28" s="52"/>
-      <c r="AT28" s="52"/>
-      <c r="AU28" s="52"/>
-      <c r="AV28" s="52"/>
-      <c r="AW28" s="52"/>
-      <c r="AX28" s="52"/>
-      <c r="AY28" s="52"/>
-      <c r="AZ28" s="52"/>
-      <c r="BA28" s="52"/>
-      <c r="BB28" s="52"/>
-      <c r="BC28" s="52"/>
+      <c r="R28" s="54"/>
+      <c r="S28" s="54"/>
+      <c r="T28" s="54"/>
+      <c r="U28" s="54"/>
+      <c r="V28" s="54"/>
+      <c r="W28" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="X28" s="55"/>
+      <c r="Y28" s="55"/>
+      <c r="Z28" s="55"/>
+      <c r="AA28" s="55"/>
+      <c r="AB28" s="55"/>
+      <c r="AC28" s="55"/>
+      <c r="AD28" s="55"/>
+      <c r="AE28" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF28" s="57"/>
+      <c r="AG28" s="57"/>
+      <c r="AH28" s="57"/>
+      <c r="AI28" s="57"/>
+      <c r="AJ28" s="57"/>
+      <c r="AK28" s="57"/>
+      <c r="AL28" s="57"/>
+      <c r="AM28" s="57"/>
+      <c r="AN28" s="57"/>
+      <c r="AO28" s="57"/>
+      <c r="AP28" s="57"/>
+      <c r="AQ28" s="57"/>
+      <c r="AR28" s="57"/>
+      <c r="AS28" s="57"/>
+      <c r="AT28" s="57"/>
+      <c r="AU28" s="57"/>
+      <c r="AV28" s="57"/>
+      <c r="AW28" s="57"/>
+      <c r="AX28" s="57"/>
+      <c r="AY28" s="57"/>
+      <c r="AZ28" s="57"/>
+      <c r="BA28" s="57"/>
+      <c r="BB28" s="57"/>
+      <c r="BC28" s="57"/>
       <c r="BD28" s="3"/>
       <c r="BE28" s="3"/>
       <c r="CP28" s="3"/>
@@ -23034,62 +23205,68 @@
       <c r="HI28" s="3"/>
       <c r="HJ28" s="3"/>
     </row>
-    <row r="29" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="27"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="27"/>
-      <c r="N29" s="27"/>
-      <c r="O29" s="27"/>
-      <c r="P29" s="27"/>
-      <c r="Q29" s="28"/>
-      <c r="R29" s="28"/>
-      <c r="S29" s="28"/>
-      <c r="T29" s="28"/>
-      <c r="U29" s="28"/>
-      <c r="V29" s="28"/>
-      <c r="W29" s="29"/>
-      <c r="X29" s="30"/>
-      <c r="Y29" s="30"/>
-      <c r="Z29" s="30"/>
-      <c r="AA29" s="30"/>
-      <c r="AB29" s="30"/>
-      <c r="AC29" s="30"/>
-      <c r="AD29" s="30"/>
-      <c r="AE29" s="31"/>
-      <c r="AF29" s="26"/>
-      <c r="AG29" s="26"/>
-      <c r="AH29" s="26"/>
-      <c r="AI29" s="26"/>
-      <c r="AJ29" s="26"/>
-      <c r="AK29" s="26"/>
-      <c r="AL29" s="26"/>
-      <c r="AM29" s="26"/>
-      <c r="AN29" s="26"/>
-      <c r="AO29" s="26"/>
-      <c r="AP29" s="26"/>
-      <c r="AQ29" s="26"/>
-      <c r="AR29" s="26"/>
-      <c r="AS29" s="26"/>
-      <c r="AT29" s="26"/>
-      <c r="AU29" s="26"/>
-      <c r="AV29" s="26"/>
-      <c r="AW29" s="26"/>
-      <c r="AX29" s="26"/>
-      <c r="AY29" s="26"/>
-      <c r="AZ29" s="26"/>
-      <c r="BA29" s="26"/>
-      <c r="BB29" s="26"/>
-      <c r="BC29" s="26"/>
+    <row r="29" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="54"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="J29" s="49"/>
+      <c r="K29" s="49"/>
+      <c r="L29" s="49"/>
+      <c r="M29" s="49"/>
+      <c r="N29" s="49"/>
+      <c r="O29" s="49"/>
+      <c r="P29" s="49"/>
+      <c r="Q29" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="R29" s="54"/>
+      <c r="S29" s="54"/>
+      <c r="T29" s="54"/>
+      <c r="U29" s="54"/>
+      <c r="V29" s="54"/>
+      <c r="W29" s="50"/>
+      <c r="X29" s="55"/>
+      <c r="Y29" s="55"/>
+      <c r="Z29" s="55"/>
+      <c r="AA29" s="55"/>
+      <c r="AB29" s="55"/>
+      <c r="AC29" s="55"/>
+      <c r="AD29" s="55"/>
+      <c r="AE29" s="56"/>
+      <c r="AF29" s="57"/>
+      <c r="AG29" s="57"/>
+      <c r="AH29" s="57"/>
+      <c r="AI29" s="57"/>
+      <c r="AJ29" s="57"/>
+      <c r="AK29" s="57"/>
+      <c r="AL29" s="57"/>
+      <c r="AM29" s="57"/>
+      <c r="AN29" s="57"/>
+      <c r="AO29" s="57"/>
+      <c r="AP29" s="57"/>
+      <c r="AQ29" s="57"/>
+      <c r="AR29" s="57"/>
+      <c r="AS29" s="57"/>
+      <c r="AT29" s="57"/>
+      <c r="AU29" s="57"/>
+      <c r="AV29" s="57"/>
+      <c r="AW29" s="57"/>
+      <c r="AX29" s="57"/>
+      <c r="AY29" s="57"/>
+      <c r="AZ29" s="57"/>
+      <c r="BA29" s="57"/>
+      <c r="BB29" s="57"/>
+      <c r="BC29" s="57"/>
       <c r="BD29" s="3"/>
       <c r="BE29" s="3"/>
       <c r="CP29" s="3"/>
@@ -23218,80 +23395,62 @@
       <c r="HI29" s="3"/>
       <c r="HJ29" s="3"/>
     </row>
-    <row r="30" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30" s="42"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="43"/>
-      <c r="K30" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="L30" s="35"/>
-      <c r="M30" s="35"/>
-      <c r="N30" s="35"/>
-      <c r="O30" s="47" t="s">
-        <v>72</v>
-      </c>
-      <c r="P30" s="47"/>
-      <c r="Q30" s="47"/>
-      <c r="R30" s="47"/>
-      <c r="S30" s="47"/>
-      <c r="T30" s="47"/>
-      <c r="U30" s="47"/>
-      <c r="V30" s="47"/>
-      <c r="W30" s="47"/>
-      <c r="X30" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y30" s="35"/>
-      <c r="Z30" s="35"/>
-      <c r="AA30" s="35"/>
-      <c r="AB30" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC30" s="47"/>
-      <c r="AD30" s="47"/>
-      <c r="AE30" s="47"/>
-      <c r="AF30" s="47"/>
-      <c r="AG30" s="47"/>
-      <c r="AH30" s="47"/>
-      <c r="AI30" s="47"/>
-      <c r="AJ30" s="47"/>
-      <c r="AK30" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="AL30" s="35"/>
-      <c r="AM30" s="35"/>
-      <c r="AN30" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="AO30" s="47"/>
-      <c r="AP30" s="47"/>
-      <c r="AQ30" s="47"/>
-      <c r="AR30" s="47"/>
-      <c r="AS30" s="47"/>
-      <c r="AT30" s="47"/>
-      <c r="AU30" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="AV30" s="35"/>
-      <c r="AW30" s="35"/>
-      <c r="AX30" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="AY30" s="36"/>
-      <c r="AZ30" s="36"/>
-      <c r="BA30" s="36"/>
-      <c r="BB30" s="36"/>
-      <c r="BC30" s="36"/>
+    <row r="30" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="27"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27"/>
+      <c r="N30" s="27"/>
+      <c r="O30" s="27"/>
+      <c r="P30" s="27"/>
+      <c r="Q30" s="28"/>
+      <c r="R30" s="28"/>
+      <c r="S30" s="28"/>
+      <c r="T30" s="28"/>
+      <c r="U30" s="28"/>
+      <c r="V30" s="28"/>
+      <c r="W30" s="29"/>
+      <c r="X30" s="30"/>
+      <c r="Y30" s="30"/>
+      <c r="Z30" s="30"/>
+      <c r="AA30" s="30"/>
+      <c r="AB30" s="30"/>
+      <c r="AC30" s="30"/>
+      <c r="AD30" s="30"/>
+      <c r="AE30" s="31"/>
+      <c r="AF30" s="26"/>
+      <c r="AG30" s="26"/>
+      <c r="AH30" s="26"/>
+      <c r="AI30" s="26"/>
+      <c r="AJ30" s="26"/>
+      <c r="AK30" s="26"/>
+      <c r="AL30" s="26"/>
+      <c r="AM30" s="26"/>
+      <c r="AN30" s="26"/>
+      <c r="AO30" s="26"/>
+      <c r="AP30" s="26"/>
+      <c r="AQ30" s="26"/>
+      <c r="AR30" s="26"/>
+      <c r="AS30" s="26"/>
+      <c r="AT30" s="26"/>
+      <c r="AU30" s="26"/>
+      <c r="AV30" s="26"/>
+      <c r="AW30" s="26"/>
+      <c r="AX30" s="26"/>
+      <c r="AY30" s="26"/>
+      <c r="AZ30" s="26"/>
+      <c r="BA30" s="26"/>
+      <c r="BB30" s="26"/>
+      <c r="BC30" s="26"/>
       <c r="BD30" s="3"/>
       <c r="BE30" s="3"/>
       <c r="CP30" s="3"/>
@@ -23420,1663 +23579,1446 @@
       <c r="HI30" s="3"/>
       <c r="HJ30" s="3"/>
     </row>
-    <row r="31" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="45"/>
-      <c r="B31" s="45"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="46"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="35"/>
-      <c r="M31" s="35"/>
-      <c r="N31" s="35"/>
-      <c r="O31" s="47"/>
-      <c r="P31" s="47"/>
-      <c r="Q31" s="47"/>
-      <c r="R31" s="47"/>
-      <c r="S31" s="47"/>
-      <c r="T31" s="47"/>
-      <c r="U31" s="47"/>
-      <c r="V31" s="47"/>
-      <c r="W31" s="47"/>
-      <c r="X31" s="35"/>
-      <c r="Y31" s="35"/>
-      <c r="Z31" s="35"/>
-      <c r="AA31" s="35"/>
-      <c r="AB31" s="47"/>
-      <c r="AC31" s="47"/>
-      <c r="AD31" s="47"/>
-      <c r="AE31" s="47"/>
-      <c r="AF31" s="47"/>
-      <c r="AG31" s="47"/>
-      <c r="AH31" s="47"/>
-      <c r="AI31" s="47"/>
-      <c r="AJ31" s="47"/>
-      <c r="AK31" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="AL31" s="35"/>
-      <c r="AM31" s="35"/>
-      <c r="AN31" s="47"/>
-      <c r="AO31" s="47"/>
-      <c r="AP31" s="47"/>
-      <c r="AQ31" s="47"/>
-      <c r="AR31" s="47"/>
-      <c r="AS31" s="47"/>
-      <c r="AT31" s="47"/>
-      <c r="AU31" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="AV31" s="35"/>
-      <c r="AW31" s="35"/>
-      <c r="AX31" s="36"/>
-      <c r="AY31" s="36"/>
-      <c r="AZ31" s="36"/>
-      <c r="BA31" s="36"/>
-      <c r="BB31" s="36"/>
-      <c r="BC31" s="36"/>
-    </row>
-    <row r="32" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="5"/>
-      <c r="P32" s="5"/>
-      <c r="Q32" s="5"/>
-      <c r="R32" s="5"/>
-      <c r="S32" s="5"/>
-      <c r="T32" s="5"/>
-      <c r="U32" s="5"/>
-      <c r="V32" s="5"/>
-      <c r="W32" s="5"/>
-      <c r="X32" s="5"/>
-      <c r="Y32" s="5"/>
-      <c r="Z32" s="5"/>
-      <c r="AA32" s="5"/>
-      <c r="AB32" s="5"/>
-      <c r="AC32" s="5"/>
-      <c r="AD32" s="5"/>
-      <c r="AE32" s="5"/>
-      <c r="AF32" s="5"/>
-      <c r="AG32" s="5"/>
-      <c r="AH32" s="5"/>
-      <c r="AI32" s="5"/>
-      <c r="AJ32" s="5"/>
-      <c r="AK32" s="5"/>
-      <c r="AL32" s="5"/>
-      <c r="AM32" s="5"/>
-      <c r="AN32" s="5"/>
-      <c r="AO32" s="5"/>
-      <c r="AP32" s="5"/>
-      <c r="AQ32" s="5"/>
-      <c r="AR32" s="5"/>
-      <c r="AS32" s="5"/>
-      <c r="AT32" s="5"/>
-      <c r="AU32" s="5"/>
-      <c r="AV32" s="5"/>
-      <c r="AW32" s="5"/>
-      <c r="AX32" s="5"/>
-      <c r="AY32" s="5"/>
-      <c r="AZ32" s="5"/>
-      <c r="BA32" s="5"/>
-      <c r="BB32" s="5"/>
-      <c r="BC32" s="5"/>
-    </row>
-    <row r="33" spans="1:204" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="58" t="s">
+    <row r="31" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="58"/>
-      <c r="C33" s="58"/>
-      <c r="D33" s="58"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="54" t="s">
+      <c r="B31" s="58"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="G33" s="54"/>
-      <c r="H33" s="54"/>
-      <c r="I33" s="54"/>
-      <c r="J33" s="54"/>
-      <c r="K33" s="54"/>
-      <c r="L33" s="54"/>
-      <c r="M33" s="54"/>
-      <c r="N33" s="54"/>
-      <c r="O33" s="54"/>
-      <c r="P33" s="54"/>
-      <c r="Q33" s="54"/>
-      <c r="R33" s="54"/>
-      <c r="S33" s="54"/>
-      <c r="T33" s="54"/>
-      <c r="U33" s="54"/>
-      <c r="V33" s="54"/>
-      <c r="W33" s="54"/>
-      <c r="X33" s="56" t="s">
+      <c r="G31" s="60"/>
+      <c r="H31" s="60"/>
+      <c r="I31" s="60"/>
+      <c r="J31" s="60"/>
+      <c r="K31" s="60"/>
+      <c r="L31" s="60"/>
+      <c r="M31" s="60"/>
+      <c r="N31" s="60"/>
+      <c r="O31" s="60"/>
+      <c r="P31" s="60"/>
+      <c r="Q31" s="60"/>
+      <c r="R31" s="60"/>
+      <c r="S31" s="60"/>
+      <c r="T31" s="60"/>
+      <c r="U31" s="60"/>
+      <c r="V31" s="60"/>
+      <c r="W31" s="60"/>
+      <c r="X31" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="Y33" s="56"/>
-      <c r="Z33" s="56"/>
-      <c r="AA33" s="56"/>
-      <c r="AB33" s="56"/>
-      <c r="AC33" s="54" t="s">
+      <c r="Y31" s="62"/>
+      <c r="Z31" s="62"/>
+      <c r="AA31" s="62"/>
+      <c r="AB31" s="62"/>
+      <c r="AC31" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="AD33" s="54"/>
-      <c r="AE33" s="54"/>
-      <c r="AF33" s="54"/>
-      <c r="AG33" s="54"/>
-      <c r="AH33" s="54"/>
-      <c r="AI33" s="54"/>
-      <c r="AJ33" s="54"/>
-      <c r="AK33" s="54"/>
-      <c r="AL33" s="54"/>
-      <c r="AM33" s="54"/>
-      <c r="AN33" s="54"/>
-      <c r="AO33" s="54"/>
-      <c r="AP33" s="54"/>
-      <c r="AQ33" s="54"/>
-      <c r="AR33" s="54"/>
-      <c r="AS33" s="54"/>
-      <c r="AT33" s="54"/>
-      <c r="AU33" s="54"/>
-      <c r="AV33" s="54"/>
-      <c r="AW33" s="54"/>
-      <c r="AX33" s="54"/>
-      <c r="AY33" s="54"/>
-      <c r="AZ33" s="54"/>
-      <c r="BA33" s="54"/>
-      <c r="BB33" s="54"/>
-      <c r="BC33" s="54"/>
+      <c r="AD31" s="60"/>
+      <c r="AE31" s="60"/>
+      <c r="AF31" s="60"/>
+      <c r="AG31" s="60"/>
+      <c r="AH31" s="60"/>
+      <c r="AI31" s="60"/>
+      <c r="AJ31" s="60"/>
+      <c r="AK31" s="60"/>
+      <c r="AL31" s="60"/>
+      <c r="AM31" s="60"/>
+      <c r="AN31" s="60"/>
+      <c r="AO31" s="60"/>
+      <c r="AP31" s="60"/>
+      <c r="AQ31" s="60"/>
+      <c r="AR31" s="60"/>
+      <c r="AS31" s="60"/>
+      <c r="AT31" s="60"/>
+      <c r="AU31" s="60"/>
+      <c r="AV31" s="60"/>
+      <c r="AW31" s="60"/>
+      <c r="AX31" s="60"/>
+      <c r="AY31" s="60"/>
+      <c r="AZ31" s="60"/>
+      <c r="BA31" s="60"/>
+      <c r="BB31" s="60"/>
+      <c r="BC31" s="60"/>
     </row>
-    <row r="34" spans="1:204" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="59"/>
-      <c r="B34" s="59"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="55"/>
-      <c r="G34" s="55"/>
-      <c r="H34" s="55"/>
-      <c r="I34" s="55"/>
-      <c r="J34" s="55"/>
-      <c r="K34" s="55"/>
-      <c r="L34" s="55"/>
-      <c r="M34" s="55"/>
-      <c r="N34" s="55"/>
-      <c r="O34" s="55"/>
-      <c r="P34" s="55"/>
-      <c r="Q34" s="55"/>
-      <c r="R34" s="55"/>
-      <c r="S34" s="55"/>
-      <c r="T34" s="55"/>
-      <c r="U34" s="55"/>
-      <c r="V34" s="55"/>
-      <c r="W34" s="55"/>
-      <c r="X34" s="57"/>
-      <c r="Y34" s="57"/>
-      <c r="Z34" s="57"/>
-      <c r="AA34" s="57"/>
-      <c r="AB34" s="57"/>
-      <c r="AC34" s="55"/>
-      <c r="AD34" s="55"/>
-      <c r="AE34" s="55"/>
-      <c r="AF34" s="55"/>
-      <c r="AG34" s="55"/>
-      <c r="AH34" s="55"/>
-      <c r="AI34" s="55"/>
-      <c r="AJ34" s="55"/>
-      <c r="AK34" s="55"/>
-      <c r="AL34" s="55"/>
-      <c r="AM34" s="55"/>
-      <c r="AN34" s="55"/>
-      <c r="AO34" s="55"/>
-      <c r="AP34" s="55"/>
-      <c r="AQ34" s="55"/>
-      <c r="AR34" s="55"/>
-      <c r="AS34" s="55"/>
-      <c r="AT34" s="55"/>
-      <c r="AU34" s="55"/>
-      <c r="AV34" s="55"/>
-      <c r="AW34" s="55"/>
-      <c r="AX34" s="55"/>
-      <c r="AY34" s="55"/>
-      <c r="AZ34" s="55"/>
-      <c r="BA34" s="55"/>
-      <c r="BB34" s="55"/>
-      <c r="BC34" s="55"/>
+    <row r="32" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="59"/>
+      <c r="B32" s="59"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="61"/>
+      <c r="H32" s="61"/>
+      <c r="I32" s="61"/>
+      <c r="J32" s="61"/>
+      <c r="K32" s="61"/>
+      <c r="L32" s="61"/>
+      <c r="M32" s="61"/>
+      <c r="N32" s="61"/>
+      <c r="O32" s="61"/>
+      <c r="P32" s="61"/>
+      <c r="Q32" s="61"/>
+      <c r="R32" s="61"/>
+      <c r="S32" s="61"/>
+      <c r="T32" s="61"/>
+      <c r="U32" s="61"/>
+      <c r="V32" s="61"/>
+      <c r="W32" s="61"/>
+      <c r="X32" s="63"/>
+      <c r="Y32" s="63"/>
+      <c r="Z32" s="63"/>
+      <c r="AA32" s="63"/>
+      <c r="AB32" s="63"/>
+      <c r="AC32" s="61"/>
+      <c r="AD32" s="61"/>
+      <c r="AE32" s="61"/>
+      <c r="AF32" s="61"/>
+      <c r="AG32" s="61"/>
+      <c r="AH32" s="61"/>
+      <c r="AI32" s="61"/>
+      <c r="AJ32" s="61"/>
+      <c r="AK32" s="61"/>
+      <c r="AL32" s="61"/>
+      <c r="AM32" s="61"/>
+      <c r="AN32" s="61"/>
+      <c r="AO32" s="61"/>
+      <c r="AP32" s="61"/>
+      <c r="AQ32" s="61"/>
+      <c r="AR32" s="61"/>
+      <c r="AS32" s="61"/>
+      <c r="AT32" s="61"/>
+      <c r="AU32" s="61"/>
+      <c r="AV32" s="61"/>
+      <c r="AW32" s="61"/>
+      <c r="AX32" s="61"/>
+      <c r="AY32" s="61"/>
+      <c r="AZ32" s="61"/>
+      <c r="BA32" s="61"/>
+      <c r="BB32" s="61"/>
+      <c r="BC32" s="61"/>
     </row>
-    <row r="35" spans="1:204" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
-      <c r="O35" s="8"/>
-      <c r="P35" s="8"/>
-      <c r="Q35" s="8"/>
-      <c r="R35" s="8"/>
-      <c r="S35" s="8"/>
-      <c r="T35" s="8"/>
-      <c r="U35" s="8"/>
-      <c r="V35" s="8"/>
-      <c r="W35" s="8"/>
-      <c r="X35" s="8"/>
-      <c r="Y35" s="8"/>
-      <c r="Z35" s="8"/>
-      <c r="AA35" s="8"/>
-      <c r="AB35" s="8"/>
-      <c r="AC35" s="8"/>
-      <c r="AD35" s="8"/>
-      <c r="AE35" s="8"/>
-      <c r="AF35" s="8"/>
-      <c r="AG35" s="8"/>
-      <c r="AH35" s="8"/>
-      <c r="AI35" s="8"/>
-      <c r="AJ35" s="8"/>
-      <c r="AK35" s="8"/>
-      <c r="AL35" s="8"/>
-      <c r="AM35" s="8"/>
-      <c r="AN35" s="8"/>
-      <c r="AO35" s="8"/>
-      <c r="AP35" s="8"/>
-      <c r="AQ35" s="8"/>
-      <c r="AR35" s="8"/>
-      <c r="AS35" s="8"/>
-      <c r="AT35" s="8"/>
-      <c r="AU35" s="8"/>
-      <c r="AV35" s="8"/>
-      <c r="AW35" s="8"/>
-      <c r="AX35" s="8"/>
-      <c r="AY35" s="8"/>
-      <c r="AZ35" s="8"/>
-      <c r="BA35" s="8"/>
-      <c r="BB35" s="8"/>
-      <c r="BC35" s="8"/>
+    <row r="33" spans="1:204" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="8"/>
+      <c r="U33" s="8"/>
+      <c r="V33" s="8"/>
+      <c r="W33" s="8"/>
+      <c r="X33" s="8"/>
+      <c r="Y33" s="8"/>
+      <c r="Z33" s="8"/>
+      <c r="AA33" s="8"/>
+      <c r="AB33" s="8"/>
+      <c r="AC33" s="8"/>
+      <c r="AD33" s="8"/>
+      <c r="AE33" s="8"/>
+      <c r="AF33" s="8"/>
+      <c r="AG33" s="8"/>
+      <c r="AH33" s="8"/>
+      <c r="AI33" s="8"/>
+      <c r="AJ33" s="8"/>
+      <c r="AK33" s="8"/>
+      <c r="AL33" s="8"/>
+      <c r="AM33" s="8"/>
+      <c r="AN33" s="8"/>
+      <c r="AO33" s="8"/>
+      <c r="AP33" s="8"/>
+      <c r="AQ33" s="8"/>
+      <c r="AR33" s="8"/>
+      <c r="AS33" s="8"/>
+      <c r="AT33" s="8"/>
+      <c r="AU33" s="8"/>
+      <c r="AV33" s="8"/>
+      <c r="AW33" s="8"/>
+      <c r="AX33" s="8"/>
+      <c r="AY33" s="8"/>
+      <c r="AZ33" s="8"/>
+      <c r="BA33" s="8"/>
+      <c r="BB33" s="8"/>
+      <c r="BC33" s="8"/>
     </row>
-    <row r="36" spans="1:204" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="37" t="s">
+    <row r="34" spans="1:204" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="B36" s="37"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="37"/>
-      <c r="I36" s="37" t="s">
+      <c r="B34" s="45"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="J36" s="37"/>
-      <c r="K36" s="37"/>
-      <c r="L36" s="37"/>
-      <c r="M36" s="37"/>
-      <c r="N36" s="37"/>
-      <c r="O36" s="37"/>
-      <c r="P36" s="37"/>
-      <c r="Q36" s="37" t="s">
+      <c r="J34" s="45"/>
+      <c r="K34" s="45"/>
+      <c r="L34" s="45"/>
+      <c r="M34" s="45"/>
+      <c r="N34" s="45"/>
+      <c r="O34" s="45"/>
+      <c r="P34" s="45"/>
+      <c r="Q34" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="R36" s="37"/>
-      <c r="S36" s="37"/>
-      <c r="T36" s="37"/>
-      <c r="U36" s="37"/>
-      <c r="V36" s="37"/>
-      <c r="W36" s="38" t="s">
+      <c r="R34" s="45"/>
+      <c r="S34" s="45"/>
+      <c r="T34" s="45"/>
+      <c r="U34" s="45"/>
+      <c r="V34" s="45"/>
+      <c r="W34" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="X36" s="38"/>
-      <c r="Y36" s="38"/>
-      <c r="Z36" s="38"/>
-      <c r="AA36" s="38"/>
-      <c r="AB36" s="38"/>
-      <c r="AC36" s="38"/>
-      <c r="AD36" s="38"/>
-      <c r="AE36" s="37" t="s">
+      <c r="X34" s="46"/>
+      <c r="Y34" s="46"/>
+      <c r="Z34" s="46"/>
+      <c r="AA34" s="46"/>
+      <c r="AB34" s="46"/>
+      <c r="AC34" s="46"/>
+      <c r="AD34" s="46"/>
+      <c r="AE34" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="AF36" s="37"/>
-      <c r="AG36" s="37"/>
-      <c r="AH36" s="37"/>
-      <c r="AI36" s="37"/>
-      <c r="AJ36" s="37"/>
-      <c r="AK36" s="37"/>
-      <c r="AL36" s="37"/>
-      <c r="AM36" s="37"/>
-      <c r="AN36" s="37"/>
-      <c r="AO36" s="37"/>
-      <c r="AP36" s="37"/>
-      <c r="AQ36" s="37"/>
-      <c r="AR36" s="37"/>
-      <c r="AS36" s="37"/>
-      <c r="AT36" s="37"/>
-      <c r="AU36" s="37"/>
-      <c r="AV36" s="37"/>
-      <c r="AW36" s="37"/>
-      <c r="AX36" s="37"/>
-      <c r="AY36" s="37"/>
-      <c r="AZ36" s="37"/>
-      <c r="BA36" s="37"/>
-      <c r="BB36" s="37"/>
-      <c r="BC36" s="37"/>
+      <c r="AF34" s="45"/>
+      <c r="AG34" s="45"/>
+      <c r="AH34" s="45"/>
+      <c r="AI34" s="45"/>
+      <c r="AJ34" s="45"/>
+      <c r="AK34" s="45"/>
+      <c r="AL34" s="45"/>
+      <c r="AM34" s="45"/>
+      <c r="AN34" s="45"/>
+      <c r="AO34" s="45"/>
+      <c r="AP34" s="45"/>
+      <c r="AQ34" s="45"/>
+      <c r="AR34" s="45"/>
+      <c r="AS34" s="45"/>
+      <c r="AT34" s="45"/>
+      <c r="AU34" s="45"/>
+      <c r="AV34" s="45"/>
+      <c r="AW34" s="45"/>
+      <c r="AX34" s="45"/>
+      <c r="AY34" s="45"/>
+      <c r="AZ34" s="45"/>
+      <c r="BA34" s="45"/>
+      <c r="BB34" s="45"/>
+      <c r="BC34" s="45"/>
     </row>
-    <row r="37" spans="1:204" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="37"/>
-      <c r="B37" s="37"/>
-      <c r="C37" s="37"/>
-      <c r="D37" s="37"/>
-      <c r="E37" s="37"/>
-      <c r="F37" s="37"/>
-      <c r="G37" s="37"/>
-      <c r="H37" s="37"/>
-      <c r="I37" s="37"/>
-      <c r="J37" s="37"/>
-      <c r="K37" s="37"/>
-      <c r="L37" s="37"/>
-      <c r="M37" s="37"/>
-      <c r="N37" s="37"/>
-      <c r="O37" s="37"/>
-      <c r="P37" s="37"/>
-      <c r="Q37" s="37"/>
-      <c r="R37" s="37"/>
-      <c r="S37" s="37"/>
-      <c r="T37" s="37"/>
-      <c r="U37" s="37"/>
-      <c r="V37" s="37"/>
-      <c r="W37" s="38"/>
-      <c r="X37" s="38"/>
-      <c r="Y37" s="38"/>
-      <c r="Z37" s="38"/>
-      <c r="AA37" s="38"/>
-      <c r="AB37" s="38"/>
-      <c r="AC37" s="38"/>
-      <c r="AD37" s="38"/>
-      <c r="AE37" s="37"/>
-      <c r="AF37" s="37"/>
-      <c r="AG37" s="37"/>
-      <c r="AH37" s="37"/>
-      <c r="AI37" s="37"/>
-      <c r="AJ37" s="37"/>
-      <c r="AK37" s="37"/>
-      <c r="AL37" s="37"/>
-      <c r="AM37" s="37"/>
-      <c r="AN37" s="37"/>
-      <c r="AO37" s="37"/>
-      <c r="AP37" s="37"/>
-      <c r="AQ37" s="37"/>
-      <c r="AR37" s="37"/>
-      <c r="AS37" s="37"/>
-      <c r="AT37" s="37"/>
-      <c r="AU37" s="37"/>
-      <c r="AV37" s="37"/>
-      <c r="AW37" s="37"/>
-      <c r="AX37" s="37"/>
-      <c r="AY37" s="37"/>
-      <c r="AZ37" s="37"/>
-      <c r="BA37" s="37"/>
-      <c r="BB37" s="37"/>
-      <c r="BC37" s="37"/>
+    <row r="35" spans="1:204" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="45"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="45"/>
+      <c r="J35" s="45"/>
+      <c r="K35" s="45"/>
+      <c r="L35" s="45"/>
+      <c r="M35" s="45"/>
+      <c r="N35" s="45"/>
+      <c r="O35" s="45"/>
+      <c r="P35" s="45"/>
+      <c r="Q35" s="45"/>
+      <c r="R35" s="45"/>
+      <c r="S35" s="45"/>
+      <c r="T35" s="45"/>
+      <c r="U35" s="45"/>
+      <c r="V35" s="45"/>
+      <c r="W35" s="46"/>
+      <c r="X35" s="46"/>
+      <c r="Y35" s="46"/>
+      <c r="Z35" s="46"/>
+      <c r="AA35" s="46"/>
+      <c r="AB35" s="46"/>
+      <c r="AC35" s="46"/>
+      <c r="AD35" s="46"/>
+      <c r="AE35" s="45"/>
+      <c r="AF35" s="45"/>
+      <c r="AG35" s="45"/>
+      <c r="AH35" s="45"/>
+      <c r="AI35" s="45"/>
+      <c r="AJ35" s="45"/>
+      <c r="AK35" s="45"/>
+      <c r="AL35" s="45"/>
+      <c r="AM35" s="45"/>
+      <c r="AN35" s="45"/>
+      <c r="AO35" s="45"/>
+      <c r="AP35" s="45"/>
+      <c r="AQ35" s="45"/>
+      <c r="AR35" s="45"/>
+      <c r="AS35" s="45"/>
+      <c r="AT35" s="45"/>
+      <c r="AU35" s="45"/>
+      <c r="AV35" s="45"/>
+      <c r="AW35" s="45"/>
+      <c r="AX35" s="45"/>
+      <c r="AY35" s="45"/>
+      <c r="AZ35" s="45"/>
+      <c r="BA35" s="45"/>
+      <c r="BB35" s="45"/>
+      <c r="BC35" s="45"/>
     </row>
-    <row r="38" spans="1:204" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="60" t="s">
+    <row r="36" spans="1:204" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="B38" s="60"/>
-      <c r="C38" s="60"/>
-      <c r="D38" s="60"/>
-      <c r="E38" s="60"/>
-      <c r="F38" s="60"/>
-      <c r="G38" s="60"/>
-      <c r="H38" s="60"/>
-      <c r="I38" s="48" t="s">
+      <c r="B36" s="48"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
+      <c r="H36" s="48"/>
+      <c r="I36" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="J38" s="48"/>
-      <c r="K38" s="48"/>
-      <c r="L38" s="48"/>
-      <c r="M38" s="48"/>
-      <c r="N38" s="48"/>
-      <c r="O38" s="48"/>
-      <c r="P38" s="48"/>
-      <c r="Q38" s="48" t="s">
+      <c r="J36" s="49"/>
+      <c r="K36" s="49"/>
+      <c r="L36" s="49"/>
+      <c r="M36" s="49"/>
+      <c r="N36" s="49"/>
+      <c r="O36" s="49"/>
+      <c r="P36" s="49"/>
+      <c r="Q36" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="R38" s="48"/>
-      <c r="S38" s="48"/>
-      <c r="T38" s="48"/>
-      <c r="U38" s="48"/>
-      <c r="V38" s="48"/>
-      <c r="W38" s="53" t="s">
+      <c r="R36" s="49"/>
+      <c r="S36" s="49"/>
+      <c r="T36" s="49"/>
+      <c r="U36" s="49"/>
+      <c r="V36" s="49"/>
+      <c r="W36" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="X38" s="53"/>
-      <c r="Y38" s="53"/>
-      <c r="Z38" s="53"/>
-      <c r="AA38" s="53"/>
-      <c r="AB38" s="53"/>
-      <c r="AC38" s="53"/>
-      <c r="AD38" s="53"/>
-      <c r="AE38" s="61" t="s">
+      <c r="X36" s="50"/>
+      <c r="Y36" s="50"/>
+      <c r="Z36" s="50"/>
+      <c r="AA36" s="50"/>
+      <c r="AB36" s="50"/>
+      <c r="AC36" s="50"/>
+      <c r="AD36" s="50"/>
+      <c r="AE36" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="AF38" s="61"/>
-      <c r="AG38" s="61"/>
-      <c r="AH38" s="61"/>
-      <c r="AI38" s="61"/>
-      <c r="AJ38" s="61"/>
-      <c r="AK38" s="61"/>
-      <c r="AL38" s="61"/>
-      <c r="AM38" s="61"/>
-      <c r="AN38" s="61"/>
-      <c r="AO38" s="61"/>
-      <c r="AP38" s="61"/>
-      <c r="AQ38" s="61"/>
-      <c r="AR38" s="61"/>
-      <c r="AS38" s="61"/>
-      <c r="AT38" s="61"/>
-      <c r="AU38" s="61"/>
-      <c r="AV38" s="61"/>
-      <c r="AW38" s="61"/>
-      <c r="AX38" s="61"/>
-      <c r="AY38" s="61"/>
-      <c r="AZ38" s="61"/>
-      <c r="BA38" s="61"/>
-      <c r="BB38" s="61"/>
-      <c r="BC38" s="61"/>
+      <c r="AF36" s="51"/>
+      <c r="AG36" s="51"/>
+      <c r="AH36" s="51"/>
+      <c r="AI36" s="51"/>
+      <c r="AJ36" s="51"/>
+      <c r="AK36" s="51"/>
+      <c r="AL36" s="51"/>
+      <c r="AM36" s="51"/>
+      <c r="AN36" s="51"/>
+      <c r="AO36" s="51"/>
+      <c r="AP36" s="51"/>
+      <c r="AQ36" s="51"/>
+      <c r="AR36" s="51"/>
+      <c r="AS36" s="51"/>
+      <c r="AT36" s="51"/>
+      <c r="AU36" s="51"/>
+      <c r="AV36" s="51"/>
+      <c r="AW36" s="51"/>
+      <c r="AX36" s="51"/>
+      <c r="AY36" s="51"/>
+      <c r="AZ36" s="51"/>
+      <c r="BA36" s="51"/>
+      <c r="BB36" s="51"/>
+      <c r="BC36" s="51"/>
     </row>
-    <row r="39" spans="1:204" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="60" t="s">
+    <row r="37" spans="1:204" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="B39" s="60"/>
-      <c r="C39" s="60"/>
-      <c r="D39" s="60"/>
-      <c r="E39" s="60"/>
-      <c r="F39" s="60"/>
-      <c r="G39" s="60"/>
-      <c r="H39" s="60"/>
-      <c r="I39" s="48" t="s">
+      <c r="B37" s="48"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="48"/>
+      <c r="I37" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="J39" s="48"/>
-      <c r="K39" s="48"/>
-      <c r="L39" s="48"/>
-      <c r="M39" s="48"/>
-      <c r="N39" s="48"/>
-      <c r="O39" s="48"/>
-      <c r="P39" s="48"/>
-      <c r="Q39" s="48" t="s">
+      <c r="J37" s="49"/>
+      <c r="K37" s="49"/>
+      <c r="L37" s="49"/>
+      <c r="M37" s="49"/>
+      <c r="N37" s="49"/>
+      <c r="O37" s="49"/>
+      <c r="P37" s="49"/>
+      <c r="Q37" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="R39" s="48"/>
-      <c r="S39" s="48"/>
-      <c r="T39" s="48"/>
-      <c r="U39" s="48"/>
-      <c r="V39" s="48"/>
-      <c r="W39" s="53" t="s">
+      <c r="R37" s="49"/>
+      <c r="S37" s="49"/>
+      <c r="T37" s="49"/>
+      <c r="U37" s="49"/>
+      <c r="V37" s="49"/>
+      <c r="W37" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="X39" s="53"/>
-      <c r="Y39" s="53"/>
-      <c r="Z39" s="53"/>
-      <c r="AA39" s="53"/>
-      <c r="AB39" s="53"/>
-      <c r="AC39" s="53"/>
-      <c r="AD39" s="53"/>
-      <c r="AE39" s="61" t="s">
+      <c r="X37" s="50"/>
+      <c r="Y37" s="50"/>
+      <c r="Z37" s="50"/>
+      <c r="AA37" s="50"/>
+      <c r="AB37" s="50"/>
+      <c r="AC37" s="50"/>
+      <c r="AD37" s="50"/>
+      <c r="AE37" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="AF39" s="61"/>
-      <c r="AG39" s="61"/>
-      <c r="AH39" s="61"/>
-      <c r="AI39" s="61"/>
-      <c r="AJ39" s="61"/>
-      <c r="AK39" s="61"/>
-      <c r="AL39" s="61"/>
-      <c r="AM39" s="61"/>
-      <c r="AN39" s="61"/>
-      <c r="AO39" s="61"/>
-      <c r="AP39" s="61"/>
-      <c r="AQ39" s="61"/>
-      <c r="AR39" s="61"/>
-      <c r="AS39" s="61"/>
-      <c r="AT39" s="61"/>
-      <c r="AU39" s="61"/>
-      <c r="AV39" s="61"/>
-      <c r="AW39" s="61"/>
-      <c r="AX39" s="61"/>
-      <c r="AY39" s="61"/>
-      <c r="AZ39" s="61"/>
-      <c r="BA39" s="61"/>
-      <c r="BB39" s="61"/>
-      <c r="BC39" s="61"/>
+      <c r="AF37" s="51"/>
+      <c r="AG37" s="51"/>
+      <c r="AH37" s="51"/>
+      <c r="AI37" s="51"/>
+      <c r="AJ37" s="51"/>
+      <c r="AK37" s="51"/>
+      <c r="AL37" s="51"/>
+      <c r="AM37" s="51"/>
+      <c r="AN37" s="51"/>
+      <c r="AO37" s="51"/>
+      <c r="AP37" s="51"/>
+      <c r="AQ37" s="51"/>
+      <c r="AR37" s="51"/>
+      <c r="AS37" s="51"/>
+      <c r="AT37" s="51"/>
+      <c r="AU37" s="51"/>
+      <c r="AV37" s="51"/>
+      <c r="AW37" s="51"/>
+      <c r="AX37" s="51"/>
+      <c r="AY37" s="51"/>
+      <c r="AZ37" s="51"/>
+      <c r="BA37" s="51"/>
+      <c r="BB37" s="51"/>
+      <c r="BC37" s="51"/>
     </row>
-    <row r="40" spans="1:204" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="60" t="s">
+    <row r="38" spans="1:204" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="B40" s="60"/>
-      <c r="C40" s="60"/>
-      <c r="D40" s="60"/>
-      <c r="E40" s="60"/>
-      <c r="F40" s="60"/>
-      <c r="G40" s="60"/>
-      <c r="H40" s="60"/>
-      <c r="I40" s="48" t="s">
+      <c r="B38" s="48"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="48"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="48"/>
+      <c r="I38" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="J40" s="48"/>
-      <c r="K40" s="48"/>
-      <c r="L40" s="48"/>
-      <c r="M40" s="48"/>
-      <c r="N40" s="48"/>
-      <c r="O40" s="48"/>
-      <c r="P40" s="48"/>
-      <c r="Q40" s="48" t="s">
+      <c r="J38" s="49"/>
+      <c r="K38" s="49"/>
+      <c r="L38" s="49"/>
+      <c r="M38" s="49"/>
+      <c r="N38" s="49"/>
+      <c r="O38" s="49"/>
+      <c r="P38" s="49"/>
+      <c r="Q38" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="R40" s="48"/>
-      <c r="S40" s="48"/>
-      <c r="T40" s="48"/>
-      <c r="U40" s="48"/>
-      <c r="V40" s="48"/>
-      <c r="W40" s="53" t="s">
+      <c r="R38" s="49"/>
+      <c r="S38" s="49"/>
+      <c r="T38" s="49"/>
+      <c r="U38" s="49"/>
+      <c r="V38" s="49"/>
+      <c r="W38" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="X40" s="53"/>
-      <c r="Y40" s="53"/>
-      <c r="Z40" s="53"/>
-      <c r="AA40" s="53"/>
-      <c r="AB40" s="53"/>
-      <c r="AC40" s="53"/>
-      <c r="AD40" s="53"/>
-      <c r="AE40" s="61" t="s">
+      <c r="X38" s="50"/>
+      <c r="Y38" s="50"/>
+      <c r="Z38" s="50"/>
+      <c r="AA38" s="50"/>
+      <c r="AB38" s="50"/>
+      <c r="AC38" s="50"/>
+      <c r="AD38" s="50"/>
+      <c r="AE38" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="AF40" s="61"/>
-      <c r="AG40" s="61"/>
-      <c r="AH40" s="61"/>
-      <c r="AI40" s="61"/>
-      <c r="AJ40" s="61"/>
-      <c r="AK40" s="61"/>
-      <c r="AL40" s="61"/>
-      <c r="AM40" s="61"/>
-      <c r="AN40" s="61"/>
-      <c r="AO40" s="61"/>
-      <c r="AP40" s="61"/>
-      <c r="AQ40" s="61"/>
-      <c r="AR40" s="61"/>
-      <c r="AS40" s="61"/>
-      <c r="AT40" s="61"/>
-      <c r="AU40" s="61"/>
-      <c r="AV40" s="61"/>
-      <c r="AW40" s="61"/>
-      <c r="AX40" s="61"/>
-      <c r="AY40" s="61"/>
-      <c r="AZ40" s="61"/>
-      <c r="BA40" s="61"/>
-      <c r="BB40" s="61"/>
-      <c r="BC40" s="61"/>
+      <c r="AF38" s="51"/>
+      <c r="AG38" s="51"/>
+      <c r="AH38" s="51"/>
+      <c r="AI38" s="51"/>
+      <c r="AJ38" s="51"/>
+      <c r="AK38" s="51"/>
+      <c r="AL38" s="51"/>
+      <c r="AM38" s="51"/>
+      <c r="AN38" s="51"/>
+      <c r="AO38" s="51"/>
+      <c r="AP38" s="51"/>
+      <c r="AQ38" s="51"/>
+      <c r="AR38" s="51"/>
+      <c r="AS38" s="51"/>
+      <c r="AT38" s="51"/>
+      <c r="AU38" s="51"/>
+      <c r="AV38" s="51"/>
+      <c r="AW38" s="51"/>
+      <c r="AX38" s="51"/>
+      <c r="AY38" s="51"/>
+      <c r="AZ38" s="51"/>
+      <c r="BA38" s="51"/>
+      <c r="BB38" s="51"/>
+      <c r="BC38" s="51"/>
     </row>
-    <row r="41" spans="1:204" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="60" t="s">
+    <row r="39" spans="1:204" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="B41" s="60"/>
-      <c r="C41" s="60"/>
-      <c r="D41" s="60"/>
-      <c r="E41" s="60"/>
-      <c r="F41" s="60"/>
-      <c r="G41" s="60"/>
-      <c r="H41" s="60"/>
-      <c r="I41" s="48" t="s">
+      <c r="B39" s="48"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="48"/>
+      <c r="H39" s="48"/>
+      <c r="I39" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="J41" s="48"/>
-      <c r="K41" s="48"/>
-      <c r="L41" s="48"/>
-      <c r="M41" s="48"/>
-      <c r="N41" s="48"/>
-      <c r="O41" s="48"/>
-      <c r="P41" s="48"/>
-      <c r="Q41" s="48" t="s">
+      <c r="J39" s="49"/>
+      <c r="K39" s="49"/>
+      <c r="L39" s="49"/>
+      <c r="M39" s="49"/>
+      <c r="N39" s="49"/>
+      <c r="O39" s="49"/>
+      <c r="P39" s="49"/>
+      <c r="Q39" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="R41" s="48"/>
-      <c r="S41" s="48"/>
-      <c r="T41" s="48"/>
-      <c r="U41" s="48"/>
-      <c r="V41" s="48"/>
-      <c r="W41" s="53" t="s">
+      <c r="R39" s="49"/>
+      <c r="S39" s="49"/>
+      <c r="T39" s="49"/>
+      <c r="U39" s="49"/>
+      <c r="V39" s="49"/>
+      <c r="W39" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="X41" s="53"/>
-      <c r="Y41" s="53"/>
-      <c r="Z41" s="53"/>
-      <c r="AA41" s="53"/>
-      <c r="AB41" s="53"/>
-      <c r="AC41" s="53"/>
-      <c r="AD41" s="53"/>
-      <c r="AE41" s="61" t="s">
+      <c r="X39" s="50"/>
+      <c r="Y39" s="50"/>
+      <c r="Z39" s="50"/>
+      <c r="AA39" s="50"/>
+      <c r="AB39" s="50"/>
+      <c r="AC39" s="50"/>
+      <c r="AD39" s="50"/>
+      <c r="AE39" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="AF41" s="61"/>
-      <c r="AG41" s="61"/>
-      <c r="AH41" s="61"/>
-      <c r="AI41" s="61"/>
-      <c r="AJ41" s="61"/>
-      <c r="AK41" s="61"/>
-      <c r="AL41" s="61"/>
-      <c r="AM41" s="61"/>
-      <c r="AN41" s="61"/>
-      <c r="AO41" s="61"/>
-      <c r="AP41" s="61"/>
-      <c r="AQ41" s="61"/>
-      <c r="AR41" s="61"/>
-      <c r="AS41" s="61"/>
-      <c r="AT41" s="61"/>
-      <c r="AU41" s="61"/>
-      <c r="AV41" s="61"/>
-      <c r="AW41" s="61"/>
-      <c r="AX41" s="61"/>
-      <c r="AY41" s="61"/>
-      <c r="AZ41" s="61"/>
-      <c r="BA41" s="61"/>
-      <c r="BB41" s="61"/>
-      <c r="BC41" s="61"/>
+      <c r="AF39" s="51"/>
+      <c r="AG39" s="51"/>
+      <c r="AH39" s="51"/>
+      <c r="AI39" s="51"/>
+      <c r="AJ39" s="51"/>
+      <c r="AK39" s="51"/>
+      <c r="AL39" s="51"/>
+      <c r="AM39" s="51"/>
+      <c r="AN39" s="51"/>
+      <c r="AO39" s="51"/>
+      <c r="AP39" s="51"/>
+      <c r="AQ39" s="51"/>
+      <c r="AR39" s="51"/>
+      <c r="AS39" s="51"/>
+      <c r="AT39" s="51"/>
+      <c r="AU39" s="51"/>
+      <c r="AV39" s="51"/>
+      <c r="AW39" s="51"/>
+      <c r="AX39" s="51"/>
+      <c r="AY39" s="51"/>
+      <c r="AZ39" s="51"/>
+      <c r="BA39" s="51"/>
+      <c r="BB39" s="51"/>
+      <c r="BC39" s="51"/>
     </row>
-    <row r="42" spans="1:204" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="60" t="s">
+    <row r="40" spans="1:204" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="B42" s="60"/>
-      <c r="C42" s="60"/>
-      <c r="D42" s="60"/>
-      <c r="E42" s="60"/>
-      <c r="F42" s="60"/>
-      <c r="G42" s="60"/>
-      <c r="H42" s="60"/>
-      <c r="I42" s="48" t="s">
+      <c r="B40" s="48"/>
+      <c r="C40" s="48"/>
+      <c r="D40" s="48"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="48"/>
+      <c r="H40" s="48"/>
+      <c r="I40" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="J42" s="48"/>
-      <c r="K42" s="48"/>
-      <c r="L42" s="48"/>
-      <c r="M42" s="48"/>
-      <c r="N42" s="48"/>
-      <c r="O42" s="48"/>
-      <c r="P42" s="48"/>
-      <c r="Q42" s="48" t="s">
+      <c r="J40" s="49"/>
+      <c r="K40" s="49"/>
+      <c r="L40" s="49"/>
+      <c r="M40" s="49"/>
+      <c r="N40" s="49"/>
+      <c r="O40" s="49"/>
+      <c r="P40" s="49"/>
+      <c r="Q40" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="R42" s="48"/>
-      <c r="S42" s="48"/>
-      <c r="T42" s="48"/>
-      <c r="U42" s="48"/>
-      <c r="V42" s="48"/>
-      <c r="W42" s="53" t="s">
+      <c r="R40" s="49"/>
+      <c r="S40" s="49"/>
+      <c r="T40" s="49"/>
+      <c r="U40" s="49"/>
+      <c r="V40" s="49"/>
+      <c r="W40" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="X42" s="53"/>
-      <c r="Y42" s="53"/>
-      <c r="Z42" s="53"/>
-      <c r="AA42" s="53"/>
-      <c r="AB42" s="53"/>
-      <c r="AC42" s="53"/>
-      <c r="AD42" s="53"/>
-      <c r="AE42" s="61" t="s">
+      <c r="X40" s="50"/>
+      <c r="Y40" s="50"/>
+      <c r="Z40" s="50"/>
+      <c r="AA40" s="50"/>
+      <c r="AB40" s="50"/>
+      <c r="AC40" s="50"/>
+      <c r="AD40" s="50"/>
+      <c r="AE40" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="AF42" s="61"/>
-      <c r="AG42" s="61"/>
-      <c r="AH42" s="61"/>
-      <c r="AI42" s="61"/>
-      <c r="AJ42" s="61"/>
-      <c r="AK42" s="61"/>
-      <c r="AL42" s="61"/>
-      <c r="AM42" s="61"/>
-      <c r="AN42" s="61"/>
-      <c r="AO42" s="61"/>
-      <c r="AP42" s="61"/>
-      <c r="AQ42" s="61"/>
-      <c r="AR42" s="61"/>
-      <c r="AS42" s="61"/>
-      <c r="AT42" s="61"/>
-      <c r="AU42" s="61"/>
-      <c r="AV42" s="61"/>
-      <c r="AW42" s="61"/>
-      <c r="AX42" s="61"/>
-      <c r="AY42" s="61"/>
-      <c r="AZ42" s="61"/>
-      <c r="BA42" s="61"/>
-      <c r="BB42" s="61"/>
-      <c r="BC42" s="61"/>
+      <c r="AF40" s="51"/>
+      <c r="AG40" s="51"/>
+      <c r="AH40" s="51"/>
+      <c r="AI40" s="51"/>
+      <c r="AJ40" s="51"/>
+      <c r="AK40" s="51"/>
+      <c r="AL40" s="51"/>
+      <c r="AM40" s="51"/>
+      <c r="AN40" s="51"/>
+      <c r="AO40" s="51"/>
+      <c r="AP40" s="51"/>
+      <c r="AQ40" s="51"/>
+      <c r="AR40" s="51"/>
+      <c r="AS40" s="51"/>
+      <c r="AT40" s="51"/>
+      <c r="AU40" s="51"/>
+      <c r="AV40" s="51"/>
+      <c r="AW40" s="51"/>
+      <c r="AX40" s="51"/>
+      <c r="AY40" s="51"/>
+      <c r="AZ40" s="51"/>
+      <c r="BA40" s="51"/>
+      <c r="BB40" s="51"/>
+      <c r="BC40" s="51"/>
     </row>
-    <row r="43" spans="1:204" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="60" t="s">
+    <row r="41" spans="1:204" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="B43" s="60"/>
-      <c r="C43" s="60"/>
-      <c r="D43" s="60"/>
-      <c r="E43" s="60"/>
-      <c r="F43" s="60"/>
-      <c r="G43" s="60"/>
-      <c r="H43" s="60"/>
-      <c r="I43" s="48" t="s">
+      <c r="B41" s="48"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="48"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="48"/>
+      <c r="H41" s="48"/>
+      <c r="I41" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="J43" s="48"/>
-      <c r="K43" s="48"/>
-      <c r="L43" s="48"/>
-      <c r="M43" s="48"/>
-      <c r="N43" s="48"/>
-      <c r="O43" s="48"/>
-      <c r="P43" s="48"/>
-      <c r="Q43" s="48" t="s">
+      <c r="J41" s="49"/>
+      <c r="K41" s="49"/>
+      <c r="L41" s="49"/>
+      <c r="M41" s="49"/>
+      <c r="N41" s="49"/>
+      <c r="O41" s="49"/>
+      <c r="P41" s="49"/>
+      <c r="Q41" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="R43" s="48"/>
-      <c r="S43" s="48"/>
-      <c r="T43" s="48"/>
-      <c r="U43" s="48"/>
-      <c r="V43" s="48"/>
-      <c r="W43" s="53" t="s">
+      <c r="R41" s="49"/>
+      <c r="S41" s="49"/>
+      <c r="T41" s="49"/>
+      <c r="U41" s="49"/>
+      <c r="V41" s="49"/>
+      <c r="W41" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="X43" s="53"/>
-      <c r="Y43" s="53"/>
-      <c r="Z43" s="53"/>
-      <c r="AA43" s="53"/>
-      <c r="AB43" s="53"/>
-      <c r="AC43" s="53"/>
-      <c r="AD43" s="53"/>
-      <c r="AE43" s="61" t="s">
+      <c r="X41" s="50"/>
+      <c r="Y41" s="50"/>
+      <c r="Z41" s="50"/>
+      <c r="AA41" s="50"/>
+      <c r="AB41" s="50"/>
+      <c r="AC41" s="50"/>
+      <c r="AD41" s="50"/>
+      <c r="AE41" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="AF43" s="61"/>
-      <c r="AG43" s="61"/>
-      <c r="AH43" s="61"/>
-      <c r="AI43" s="61"/>
-      <c r="AJ43" s="61"/>
-      <c r="AK43" s="61"/>
-      <c r="AL43" s="61"/>
-      <c r="AM43" s="61"/>
-      <c r="AN43" s="61"/>
-      <c r="AO43" s="61"/>
-      <c r="AP43" s="61"/>
-      <c r="AQ43" s="61"/>
-      <c r="AR43" s="61"/>
-      <c r="AS43" s="61"/>
-      <c r="AT43" s="61"/>
-      <c r="AU43" s="61"/>
-      <c r="AV43" s="61"/>
-      <c r="AW43" s="61"/>
-      <c r="AX43" s="61"/>
-      <c r="AY43" s="61"/>
-      <c r="AZ43" s="61"/>
-      <c r="BA43" s="61"/>
-      <c r="BB43" s="61"/>
-      <c r="BC43" s="61"/>
-      <c r="BD43" s="6"/>
-      <c r="BE43" s="6"/>
-      <c r="BF43" s="3"/>
-      <c r="BN43" s="3"/>
-      <c r="BO43" s="3"/>
-      <c r="BP43" s="3"/>
-      <c r="BQ43" s="3"/>
-      <c r="BR43" s="3"/>
-      <c r="BS43" s="3"/>
-      <c r="BT43" s="3"/>
-      <c r="BU43" s="3"/>
-      <c r="BV43" s="3"/>
-      <c r="BW43" s="3"/>
-      <c r="BX43" s="3"/>
-      <c r="BY43" s="3"/>
-      <c r="BZ43" s="3"/>
-      <c r="CA43" s="3"/>
-      <c r="CB43" s="3"/>
-      <c r="CC43" s="3"/>
-      <c r="CD43" s="3"/>
-      <c r="CE43" s="3"/>
-      <c r="CF43" s="3"/>
-      <c r="CG43" s="3"/>
-      <c r="CH43" s="3"/>
-      <c r="CI43" s="3"/>
-      <c r="CJ43" s="3"/>
-      <c r="CK43" s="3"/>
-      <c r="CL43" s="3"/>
-      <c r="CM43" s="3"/>
-      <c r="CN43" s="3"/>
-      <c r="CO43" s="3"/>
-      <c r="CP43" s="3"/>
-      <c r="CQ43" s="3"/>
-      <c r="CR43" s="3"/>
-      <c r="CS43" s="3"/>
-      <c r="CT43" s="3"/>
-      <c r="CU43" s="3"/>
-      <c r="CV43" s="3"/>
-      <c r="CW43" s="3"/>
-      <c r="CX43" s="3"/>
-      <c r="CY43" s="3"/>
-      <c r="CZ43" s="3"/>
-      <c r="DA43" s="3"/>
-      <c r="DB43" s="3"/>
-      <c r="DC43" s="3"/>
-      <c r="DD43" s="3"/>
-      <c r="DE43" s="3"/>
-      <c r="DF43" s="3"/>
-      <c r="DG43" s="3"/>
-      <c r="DH43" s="3"/>
-      <c r="DI43" s="3"/>
-      <c r="DJ43" s="3"/>
-      <c r="DK43" s="3"/>
-      <c r="DL43" s="3"/>
-      <c r="DM43" s="3"/>
-      <c r="DN43" s="3"/>
-      <c r="DO43" s="3"/>
-      <c r="DP43" s="3"/>
-      <c r="DQ43" s="3"/>
-      <c r="DR43" s="3"/>
-      <c r="DS43" s="3"/>
-      <c r="DT43" s="3"/>
-      <c r="DU43" s="3"/>
-      <c r="DV43" s="3"/>
-      <c r="DW43" s="3"/>
-      <c r="DX43" s="3"/>
-      <c r="DY43" s="3"/>
-      <c r="DZ43" s="3"/>
-      <c r="EA43" s="3"/>
-      <c r="EB43" s="3"/>
-      <c r="EC43" s="3"/>
-      <c r="ED43" s="3"/>
-      <c r="EE43" s="3"/>
-      <c r="EF43" s="3"/>
-      <c r="EG43" s="3"/>
-      <c r="EH43" s="3"/>
-      <c r="EI43" s="3"/>
-      <c r="EJ43" s="3"/>
-      <c r="EK43" s="3"/>
-      <c r="EL43" s="3"/>
-      <c r="EM43" s="3"/>
-      <c r="EN43" s="3"/>
-      <c r="EO43" s="3"/>
-      <c r="EP43" s="3"/>
-      <c r="EQ43" s="3"/>
-      <c r="ER43" s="3"/>
-      <c r="ES43" s="3"/>
-      <c r="ET43" s="3"/>
-      <c r="EU43" s="3"/>
-      <c r="EV43" s="3"/>
-      <c r="EW43" s="3"/>
-      <c r="EX43" s="3"/>
-      <c r="EY43" s="3"/>
-      <c r="EZ43" s="3"/>
-      <c r="FA43" s="3"/>
-      <c r="FB43" s="3"/>
-      <c r="FC43" s="3"/>
-      <c r="FD43" s="3"/>
-      <c r="FE43" s="3"/>
-      <c r="FF43" s="3"/>
-      <c r="FG43" s="3"/>
-      <c r="FH43" s="3"/>
-      <c r="FI43" s="3"/>
-      <c r="FJ43" s="3"/>
-      <c r="FK43" s="3"/>
-      <c r="FL43" s="3"/>
-      <c r="FM43" s="3"/>
-      <c r="FN43" s="3"/>
-      <c r="FO43" s="3"/>
-      <c r="FP43" s="3"/>
-      <c r="FQ43" s="3"/>
-      <c r="FR43" s="3"/>
-      <c r="FS43" s="3"/>
-      <c r="FT43" s="3"/>
-      <c r="FU43" s="3"/>
-      <c r="FV43" s="3"/>
-      <c r="FW43" s="3"/>
-      <c r="FX43" s="3"/>
-      <c r="FY43" s="3"/>
-      <c r="FZ43" s="3"/>
-      <c r="GA43" s="3"/>
-      <c r="GB43" s="3"/>
-      <c r="GC43" s="3"/>
-      <c r="GD43" s="3"/>
-      <c r="GE43" s="3"/>
-      <c r="GF43" s="3"/>
-      <c r="GG43" s="3"/>
-      <c r="GH43" s="3"/>
-      <c r="GI43" s="3"/>
-      <c r="GJ43" s="3"/>
-      <c r="GK43" s="3"/>
-      <c r="GL43" s="3"/>
-      <c r="GM43" s="3"/>
-      <c r="GN43" s="3"/>
-      <c r="GO43" s="3"/>
-      <c r="GP43" s="3"/>
-      <c r="GQ43" s="3"/>
-      <c r="GR43" s="3"/>
-      <c r="GS43" s="3"/>
-      <c r="GT43" s="3"/>
-      <c r="GU43" s="3"/>
-      <c r="GV43" s="3"/>
+      <c r="AF41" s="51"/>
+      <c r="AG41" s="51"/>
+      <c r="AH41" s="51"/>
+      <c r="AI41" s="51"/>
+      <c r="AJ41" s="51"/>
+      <c r="AK41" s="51"/>
+      <c r="AL41" s="51"/>
+      <c r="AM41" s="51"/>
+      <c r="AN41" s="51"/>
+      <c r="AO41" s="51"/>
+      <c r="AP41" s="51"/>
+      <c r="AQ41" s="51"/>
+      <c r="AR41" s="51"/>
+      <c r="AS41" s="51"/>
+      <c r="AT41" s="51"/>
+      <c r="AU41" s="51"/>
+      <c r="AV41" s="51"/>
+      <c r="AW41" s="51"/>
+      <c r="AX41" s="51"/>
+      <c r="AY41" s="51"/>
+      <c r="AZ41" s="51"/>
+      <c r="BA41" s="51"/>
+      <c r="BB41" s="51"/>
+      <c r="BC41" s="51"/>
+      <c r="BD41" s="6"/>
+      <c r="BE41" s="6"/>
+      <c r="BF41" s="3"/>
+      <c r="BN41" s="3"/>
+      <c r="BO41" s="3"/>
+      <c r="BP41" s="3"/>
+      <c r="BQ41" s="3"/>
+      <c r="BR41" s="3"/>
+      <c r="BS41" s="3"/>
+      <c r="BT41" s="3"/>
+      <c r="BU41" s="3"/>
+      <c r="BV41" s="3"/>
+      <c r="BW41" s="3"/>
+      <c r="BX41" s="3"/>
+      <c r="BY41" s="3"/>
+      <c r="BZ41" s="3"/>
+      <c r="CA41" s="3"/>
+      <c r="CB41" s="3"/>
+      <c r="CC41" s="3"/>
+      <c r="CD41" s="3"/>
+      <c r="CE41" s="3"/>
+      <c r="CF41" s="3"/>
+      <c r="CG41" s="3"/>
+      <c r="CH41" s="3"/>
+      <c r="CI41" s="3"/>
+      <c r="CJ41" s="3"/>
+      <c r="CK41" s="3"/>
+      <c r="CL41" s="3"/>
+      <c r="CM41" s="3"/>
+      <c r="CN41" s="3"/>
+      <c r="CO41" s="3"/>
+      <c r="CP41" s="3"/>
+      <c r="CQ41" s="3"/>
+      <c r="CR41" s="3"/>
+      <c r="CS41" s="3"/>
+      <c r="CT41" s="3"/>
+      <c r="CU41" s="3"/>
+      <c r="CV41" s="3"/>
+      <c r="CW41" s="3"/>
+      <c r="CX41" s="3"/>
+      <c r="CY41" s="3"/>
+      <c r="CZ41" s="3"/>
+      <c r="DA41" s="3"/>
+      <c r="DB41" s="3"/>
+      <c r="DC41" s="3"/>
+      <c r="DD41" s="3"/>
+      <c r="DE41" s="3"/>
+      <c r="DF41" s="3"/>
+      <c r="DG41" s="3"/>
+      <c r="DH41" s="3"/>
+      <c r="DI41" s="3"/>
+      <c r="DJ41" s="3"/>
+      <c r="DK41" s="3"/>
+      <c r="DL41" s="3"/>
+      <c r="DM41" s="3"/>
+      <c r="DN41" s="3"/>
+      <c r="DO41" s="3"/>
+      <c r="DP41" s="3"/>
+      <c r="DQ41" s="3"/>
+      <c r="DR41" s="3"/>
+      <c r="DS41" s="3"/>
+      <c r="DT41" s="3"/>
+      <c r="DU41" s="3"/>
+      <c r="DV41" s="3"/>
+      <c r="DW41" s="3"/>
+      <c r="DX41" s="3"/>
+      <c r="DY41" s="3"/>
+      <c r="DZ41" s="3"/>
+      <c r="EA41" s="3"/>
+      <c r="EB41" s="3"/>
+      <c r="EC41" s="3"/>
+      <c r="ED41" s="3"/>
+      <c r="EE41" s="3"/>
+      <c r="EF41" s="3"/>
+      <c r="EG41" s="3"/>
+      <c r="EH41" s="3"/>
+      <c r="EI41" s="3"/>
+      <c r="EJ41" s="3"/>
+      <c r="EK41" s="3"/>
+      <c r="EL41" s="3"/>
+      <c r="EM41" s="3"/>
+      <c r="EN41" s="3"/>
+      <c r="EO41" s="3"/>
+      <c r="EP41" s="3"/>
+      <c r="EQ41" s="3"/>
+      <c r="ER41" s="3"/>
+      <c r="ES41" s="3"/>
+      <c r="ET41" s="3"/>
+      <c r="EU41" s="3"/>
+      <c r="EV41" s="3"/>
+      <c r="EW41" s="3"/>
+      <c r="EX41" s="3"/>
+      <c r="EY41" s="3"/>
+      <c r="EZ41" s="3"/>
+      <c r="FA41" s="3"/>
+      <c r="FB41" s="3"/>
+      <c r="FC41" s="3"/>
+      <c r="FD41" s="3"/>
+      <c r="FE41" s="3"/>
+      <c r="FF41" s="3"/>
+      <c r="FG41" s="3"/>
+      <c r="FH41" s="3"/>
+      <c r="FI41" s="3"/>
+      <c r="FJ41" s="3"/>
+      <c r="FK41" s="3"/>
+      <c r="FL41" s="3"/>
+      <c r="FM41" s="3"/>
+      <c r="FN41" s="3"/>
+      <c r="FO41" s="3"/>
+      <c r="FP41" s="3"/>
+      <c r="FQ41" s="3"/>
+      <c r="FR41" s="3"/>
+      <c r="FS41" s="3"/>
+      <c r="FT41" s="3"/>
+      <c r="FU41" s="3"/>
+      <c r="FV41" s="3"/>
+      <c r="FW41" s="3"/>
+      <c r="FX41" s="3"/>
+      <c r="FY41" s="3"/>
+      <c r="FZ41" s="3"/>
+      <c r="GA41" s="3"/>
+      <c r="GB41" s="3"/>
+      <c r="GC41" s="3"/>
+      <c r="GD41" s="3"/>
+      <c r="GE41" s="3"/>
+      <c r="GF41" s="3"/>
+      <c r="GG41" s="3"/>
+      <c r="GH41" s="3"/>
+      <c r="GI41" s="3"/>
+      <c r="GJ41" s="3"/>
+      <c r="GK41" s="3"/>
+      <c r="GL41" s="3"/>
+      <c r="GM41" s="3"/>
+      <c r="GN41" s="3"/>
+      <c r="GO41" s="3"/>
+      <c r="GP41" s="3"/>
+      <c r="GQ41" s="3"/>
+      <c r="GR41" s="3"/>
+      <c r="GS41" s="3"/>
+      <c r="GT41" s="3"/>
+      <c r="GU41" s="3"/>
+      <c r="GV41" s="3"/>
     </row>
-    <row r="44" spans="1:204" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="60" t="s">
+    <row r="42" spans="1:204" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="B44" s="60"/>
-      <c r="C44" s="60"/>
-      <c r="D44" s="60"/>
-      <c r="E44" s="60"/>
-      <c r="F44" s="60"/>
-      <c r="G44" s="60"/>
-      <c r="H44" s="60"/>
-      <c r="I44" s="48" t="s">
-        <v>70</v>
+      <c r="B42" s="48"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="48"/>
+      <c r="H42" s="48"/>
+      <c r="I42" s="49" t="s">
+        <v>49</v>
       </c>
-      <c r="J44" s="48"/>
-      <c r="K44" s="48"/>
-      <c r="L44" s="48"/>
-      <c r="M44" s="48"/>
-      <c r="N44" s="48"/>
-      <c r="O44" s="48"/>
-      <c r="P44" s="48"/>
-      <c r="Q44" s="48" t="s">
+      <c r="J42" s="49"/>
+      <c r="K42" s="49"/>
+      <c r="L42" s="49"/>
+      <c r="M42" s="49"/>
+      <c r="N42" s="49"/>
+      <c r="O42" s="49"/>
+      <c r="P42" s="49"/>
+      <c r="Q42" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="R44" s="48"/>
-      <c r="S44" s="48"/>
-      <c r="T44" s="48"/>
-      <c r="U44" s="48"/>
-      <c r="V44" s="48"/>
-      <c r="W44" s="53" t="s">
+      <c r="R42" s="49"/>
+      <c r="S42" s="49"/>
+      <c r="T42" s="49"/>
+      <c r="U42" s="49"/>
+      <c r="V42" s="49"/>
+      <c r="W42" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="X44" s="53"/>
-      <c r="Y44" s="53"/>
-      <c r="Z44" s="53"/>
-      <c r="AA44" s="53"/>
-      <c r="AB44" s="53"/>
-      <c r="AC44" s="53"/>
-      <c r="AD44" s="53"/>
-      <c r="AE44" s="61" t="s">
+      <c r="X42" s="50"/>
+      <c r="Y42" s="50"/>
+      <c r="Z42" s="50"/>
+      <c r="AA42" s="50"/>
+      <c r="AB42" s="50"/>
+      <c r="AC42" s="50"/>
+      <c r="AD42" s="50"/>
+      <c r="AE42" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="AF44" s="61"/>
-      <c r="AG44" s="61"/>
-      <c r="AH44" s="61"/>
-      <c r="AI44" s="61"/>
-      <c r="AJ44" s="61"/>
-      <c r="AK44" s="61"/>
-      <c r="AL44" s="61"/>
-      <c r="AM44" s="61"/>
-      <c r="AN44" s="61"/>
-      <c r="AO44" s="61"/>
-      <c r="AP44" s="61"/>
-      <c r="AQ44" s="61"/>
-      <c r="AR44" s="61"/>
-      <c r="AS44" s="61"/>
-      <c r="AT44" s="61"/>
-      <c r="AU44" s="61"/>
-      <c r="AV44" s="61"/>
-      <c r="AW44" s="61"/>
-      <c r="AX44" s="61"/>
-      <c r="AY44" s="61"/>
-      <c r="AZ44" s="61"/>
-      <c r="BA44" s="61"/>
-      <c r="BB44" s="61"/>
-      <c r="BC44" s="61"/>
+      <c r="AF42" s="51"/>
+      <c r="AG42" s="51"/>
+      <c r="AH42" s="51"/>
+      <c r="AI42" s="51"/>
+      <c r="AJ42" s="51"/>
+      <c r="AK42" s="51"/>
+      <c r="AL42" s="51"/>
+      <c r="AM42" s="51"/>
+      <c r="AN42" s="51"/>
+      <c r="AO42" s="51"/>
+      <c r="AP42" s="51"/>
+      <c r="AQ42" s="51"/>
+      <c r="AR42" s="51"/>
+      <c r="AS42" s="51"/>
+      <c r="AT42" s="51"/>
+      <c r="AU42" s="51"/>
+      <c r="AV42" s="51"/>
+      <c r="AW42" s="51"/>
+      <c r="AX42" s="51"/>
+      <c r="AY42" s="51"/>
+      <c r="AZ42" s="51"/>
+      <c r="BA42" s="51"/>
+      <c r="BB42" s="51"/>
+      <c r="BC42" s="51"/>
+      <c r="BD42" s="7"/>
+      <c r="BE42" s="7"/>
+    </row>
+    <row r="43" spans="1:204" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43" s="48"/>
+      <c r="C43" s="48"/>
+      <c r="D43" s="48"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="48"/>
+      <c r="G43" s="48"/>
+      <c r="H43" s="48"/>
+      <c r="I43" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="J43" s="49"/>
+      <c r="K43" s="49"/>
+      <c r="L43" s="49"/>
+      <c r="M43" s="49"/>
+      <c r="N43" s="49"/>
+      <c r="O43" s="49"/>
+      <c r="P43" s="49"/>
+      <c r="Q43" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="R43" s="49"/>
+      <c r="S43" s="49"/>
+      <c r="T43" s="49"/>
+      <c r="U43" s="49"/>
+      <c r="V43" s="49"/>
+      <c r="W43" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="X43" s="50"/>
+      <c r="Y43" s="50"/>
+      <c r="Z43" s="50"/>
+      <c r="AA43" s="50"/>
+      <c r="AB43" s="50"/>
+      <c r="AC43" s="50"/>
+      <c r="AD43" s="50"/>
+      <c r="AE43" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF43" s="51"/>
+      <c r="AG43" s="51"/>
+      <c r="AH43" s="51"/>
+      <c r="AI43" s="51"/>
+      <c r="AJ43" s="51"/>
+      <c r="AK43" s="51"/>
+      <c r="AL43" s="51"/>
+      <c r="AM43" s="51"/>
+      <c r="AN43" s="51"/>
+      <c r="AO43" s="51"/>
+      <c r="AP43" s="51"/>
+      <c r="AQ43" s="51"/>
+      <c r="AR43" s="51"/>
+      <c r="AS43" s="51"/>
+      <c r="AT43" s="51"/>
+      <c r="AU43" s="51"/>
+      <c r="AV43" s="51"/>
+      <c r="AW43" s="51"/>
+      <c r="AX43" s="51"/>
+      <c r="AY43" s="51"/>
+      <c r="AZ43" s="51"/>
+      <c r="BA43" s="51"/>
+      <c r="BB43" s="51"/>
+      <c r="BC43" s="51"/>
+      <c r="BD43" s="7"/>
+      <c r="BE43" s="7"/>
+    </row>
+    <row r="44" spans="1:204" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="52"/>
+      <c r="B44" s="52"/>
+      <c r="C44" s="52"/>
+      <c r="D44" s="52"/>
+      <c r="E44" s="52"/>
+      <c r="F44" s="52"/>
+      <c r="G44" s="52"/>
+      <c r="H44" s="52"/>
+      <c r="I44" s="53"/>
+      <c r="J44" s="53"/>
+      <c r="K44" s="53"/>
+      <c r="L44" s="53"/>
+      <c r="M44" s="53"/>
+      <c r="N44" s="53"/>
+      <c r="O44" s="53"/>
+      <c r="P44" s="53"/>
+      <c r="Q44" s="49"/>
+      <c r="R44" s="49"/>
+      <c r="S44" s="49"/>
+      <c r="T44" s="49"/>
+      <c r="U44" s="49"/>
+      <c r="V44" s="49"/>
+      <c r="W44" s="50"/>
+      <c r="X44" s="50"/>
+      <c r="Y44" s="50"/>
+      <c r="Z44" s="50"/>
+      <c r="AA44" s="50"/>
+      <c r="AB44" s="50"/>
+      <c r="AC44" s="50"/>
+      <c r="AD44" s="50"/>
+      <c r="AE44" s="51"/>
+      <c r="AF44" s="51"/>
+      <c r="AG44" s="51"/>
+      <c r="AH44" s="51"/>
+      <c r="AI44" s="51"/>
+      <c r="AJ44" s="51"/>
+      <c r="AK44" s="51"/>
+      <c r="AL44" s="51"/>
+      <c r="AM44" s="51"/>
+      <c r="AN44" s="51"/>
+      <c r="AO44" s="51"/>
+      <c r="AP44" s="51"/>
+      <c r="AQ44" s="51"/>
+      <c r="AR44" s="51"/>
+      <c r="AS44" s="51"/>
+      <c r="AT44" s="51"/>
+      <c r="AU44" s="51"/>
+      <c r="AV44" s="51"/>
+      <c r="AW44" s="51"/>
+      <c r="AX44" s="51"/>
+      <c r="AY44" s="51"/>
+      <c r="AZ44" s="51"/>
+      <c r="BA44" s="51"/>
+      <c r="BB44" s="51"/>
+      <c r="BC44" s="51"/>
       <c r="BD44" s="7"/>
       <c r="BE44" s="7"/>
     </row>
-    <row r="45" spans="1:204" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="60" t="s">
-        <v>55</v>
-      </c>
-      <c r="B45" s="60"/>
-      <c r="C45" s="60"/>
-      <c r="D45" s="60"/>
-      <c r="E45" s="60"/>
-      <c r="F45" s="60"/>
-      <c r="G45" s="60"/>
-      <c r="H45" s="60"/>
-      <c r="I45" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="J45" s="48"/>
-      <c r="K45" s="48"/>
-      <c r="L45" s="48"/>
-      <c r="M45" s="48"/>
-      <c r="N45" s="48"/>
-      <c r="O45" s="48"/>
-      <c r="P45" s="48"/>
-      <c r="Q45" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="R45" s="48"/>
-      <c r="S45" s="48"/>
-      <c r="T45" s="48"/>
-      <c r="U45" s="48"/>
-      <c r="V45" s="48"/>
-      <c r="W45" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="X45" s="53"/>
-      <c r="Y45" s="53"/>
-      <c r="Z45" s="53"/>
-      <c r="AA45" s="53"/>
-      <c r="AB45" s="53"/>
-      <c r="AC45" s="53"/>
-      <c r="AD45" s="53"/>
-      <c r="AE45" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="AF45" s="61"/>
-      <c r="AG45" s="61"/>
-      <c r="AH45" s="61"/>
-      <c r="AI45" s="61"/>
-      <c r="AJ45" s="61"/>
-      <c r="AK45" s="61"/>
-      <c r="AL45" s="61"/>
-      <c r="AM45" s="61"/>
-      <c r="AN45" s="61"/>
-      <c r="AO45" s="61"/>
-      <c r="AP45" s="61"/>
-      <c r="AQ45" s="61"/>
-      <c r="AR45" s="61"/>
-      <c r="AS45" s="61"/>
-      <c r="AT45" s="61"/>
-      <c r="AU45" s="61"/>
-      <c r="AV45" s="61"/>
-      <c r="AW45" s="61"/>
-      <c r="AX45" s="61"/>
-      <c r="AY45" s="61"/>
-      <c r="AZ45" s="61"/>
-      <c r="BA45" s="61"/>
-      <c r="BB45" s="61"/>
-      <c r="BC45" s="61"/>
+    <row r="45" spans="1:204" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="33"/>
+      <c r="B45" s="33"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="33"/>
+      <c r="I45" s="34"/>
+      <c r="J45" s="34"/>
+      <c r="K45" s="34"/>
+      <c r="L45" s="34"/>
+      <c r="M45" s="34"/>
+      <c r="N45" s="34"/>
+      <c r="O45" s="34"/>
+      <c r="P45" s="34"/>
+      <c r="Q45" s="27"/>
+      <c r="R45" s="27"/>
+      <c r="S45" s="27"/>
+      <c r="T45" s="27"/>
+      <c r="U45" s="27"/>
+      <c r="V45" s="27"/>
+      <c r="W45" s="29"/>
+      <c r="X45" s="29"/>
+      <c r="Y45" s="29"/>
+      <c r="Z45" s="29"/>
+      <c r="AA45" s="29"/>
+      <c r="AB45" s="29"/>
+      <c r="AC45" s="29"/>
+      <c r="AD45" s="29"/>
+      <c r="AE45" s="32"/>
+      <c r="AF45" s="32"/>
+      <c r="AG45" s="32"/>
+      <c r="AH45" s="32"/>
+      <c r="AI45" s="32"/>
+      <c r="AJ45" s="32"/>
+      <c r="AK45" s="32"/>
+      <c r="AL45" s="32"/>
+      <c r="AM45" s="32"/>
+      <c r="AN45" s="32"/>
+      <c r="AO45" s="32"/>
+      <c r="AP45" s="32"/>
+      <c r="AQ45" s="32"/>
+      <c r="AR45" s="32"/>
+      <c r="AS45" s="32"/>
+      <c r="AT45" s="32"/>
+      <c r="AU45" s="32"/>
+      <c r="AV45" s="32"/>
+      <c r="AW45" s="32"/>
+      <c r="AX45" s="32"/>
+      <c r="AY45" s="32"/>
+      <c r="AZ45" s="32"/>
+      <c r="BA45" s="32"/>
+      <c r="BB45" s="32"/>
+      <c r="BC45" s="32"/>
       <c r="BD45" s="7"/>
       <c r="BE45" s="7"/>
     </row>
-    <row r="46" spans="1:204" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="62"/>
-      <c r="B46" s="62"/>
-      <c r="C46" s="62"/>
-      <c r="D46" s="62"/>
-      <c r="E46" s="62"/>
-      <c r="F46" s="62"/>
-      <c r="G46" s="62"/>
-      <c r="H46" s="62"/>
-      <c r="I46" s="63"/>
-      <c r="J46" s="63"/>
-      <c r="K46" s="63"/>
-      <c r="L46" s="63"/>
-      <c r="M46" s="63"/>
-      <c r="N46" s="63"/>
-      <c r="O46" s="63"/>
-      <c r="P46" s="63"/>
-      <c r="Q46" s="48"/>
-      <c r="R46" s="48"/>
-      <c r="S46" s="48"/>
-      <c r="T46" s="48"/>
-      <c r="U46" s="48"/>
-      <c r="V46" s="48"/>
-      <c r="W46" s="53"/>
-      <c r="X46" s="53"/>
-      <c r="Y46" s="53"/>
-      <c r="Z46" s="53"/>
-      <c r="AA46" s="53"/>
-      <c r="AB46" s="53"/>
-      <c r="AC46" s="53"/>
-      <c r="AD46" s="53"/>
-      <c r="AE46" s="61"/>
-      <c r="AF46" s="61"/>
-      <c r="AG46" s="61"/>
-      <c r="AH46" s="61"/>
-      <c r="AI46" s="61"/>
-      <c r="AJ46" s="61"/>
-      <c r="AK46" s="61"/>
-      <c r="AL46" s="61"/>
-      <c r="AM46" s="61"/>
-      <c r="AN46" s="61"/>
-      <c r="AO46" s="61"/>
-      <c r="AP46" s="61"/>
-      <c r="AQ46" s="61"/>
-      <c r="AR46" s="61"/>
-      <c r="AS46" s="61"/>
-      <c r="AT46" s="61"/>
-      <c r="AU46" s="61"/>
-      <c r="AV46" s="61"/>
-      <c r="AW46" s="61"/>
-      <c r="AX46" s="61"/>
-      <c r="AY46" s="61"/>
-      <c r="AZ46" s="61"/>
-      <c r="BA46" s="61"/>
-      <c r="BB46" s="61"/>
-      <c r="BC46" s="61"/>
+    <row r="46" spans="1:204" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
       <c r="BD46" s="7"/>
       <c r="BE46" s="7"/>
     </row>
-    <row r="47" spans="1:204" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="33"/>
-      <c r="B47" s="33"/>
-      <c r="C47" s="33"/>
-      <c r="D47" s="33"/>
-      <c r="E47" s="33"/>
-      <c r="F47" s="33"/>
-      <c r="G47" s="33"/>
-      <c r="H47" s="33"/>
-      <c r="I47" s="34"/>
-      <c r="J47" s="34"/>
-      <c r="K47" s="34"/>
-      <c r="L47" s="34"/>
-      <c r="M47" s="34"/>
-      <c r="N47" s="34"/>
-      <c r="O47" s="34"/>
-      <c r="P47" s="34"/>
-      <c r="Q47" s="27"/>
-      <c r="R47" s="27"/>
-      <c r="S47" s="27"/>
-      <c r="T47" s="27"/>
-      <c r="U47" s="27"/>
-      <c r="V47" s="27"/>
-      <c r="W47" s="29"/>
-      <c r="X47" s="29"/>
-      <c r="Y47" s="29"/>
-      <c r="Z47" s="29"/>
-      <c r="AA47" s="29"/>
-      <c r="AB47" s="29"/>
-      <c r="AC47" s="29"/>
-      <c r="AD47" s="29"/>
-      <c r="AE47" s="32"/>
-      <c r="AF47" s="32"/>
-      <c r="AG47" s="32"/>
-      <c r="AH47" s="32"/>
-      <c r="AI47" s="32"/>
-      <c r="AJ47" s="32"/>
-      <c r="AK47" s="32"/>
-      <c r="AL47" s="32"/>
-      <c r="AM47" s="32"/>
-      <c r="AN47" s="32"/>
-      <c r="AO47" s="32"/>
-      <c r="AP47" s="32"/>
-      <c r="AQ47" s="32"/>
-      <c r="AR47" s="32"/>
-      <c r="AS47" s="32"/>
-      <c r="AT47" s="32"/>
-      <c r="AU47" s="32"/>
-      <c r="AV47" s="32"/>
-      <c r="AW47" s="32"/>
-      <c r="AX47" s="32"/>
-      <c r="AY47" s="32"/>
-      <c r="AZ47" s="32"/>
-      <c r="BA47" s="32"/>
-      <c r="BB47" s="32"/>
-      <c r="BC47" s="32"/>
+    <row r="47" spans="1:204" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
       <c r="BD47" s="7"/>
       <c r="BE47" s="7"/>
     </row>
-    <row r="48" spans="1:204" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:204" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
-      <c r="BD48" s="7"/>
-      <c r="BE48" s="7"/>
     </row>
-    <row r="49" spans="1:57" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="7"/>
-      <c r="B49" s="7"/>
-      <c r="BD49" s="7"/>
-      <c r="BE49" s="7"/>
+    <row r="49" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" spans="1:149" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="6"/>
+      <c r="B65" s="6"/>
+      <c r="C65" s="3"/>
+      <c r="K65" s="3"/>
+      <c r="L65" s="3"/>
+      <c r="M65" s="3"/>
+      <c r="N65" s="3"/>
+      <c r="O65" s="3"/>
+      <c r="P65" s="3"/>
+      <c r="Q65" s="3"/>
+      <c r="R65" s="3"/>
+      <c r="S65" s="3"/>
+      <c r="T65" s="3"/>
+      <c r="U65" s="3"/>
+      <c r="V65" s="3"/>
+      <c r="W65" s="3"/>
+      <c r="X65" s="3"/>
+      <c r="Y65" s="3"/>
+      <c r="Z65" s="3"/>
+      <c r="AA65" s="3"/>
+      <c r="AB65" s="3"/>
+      <c r="AC65" s="3"/>
+      <c r="AD65" s="3"/>
+      <c r="AE65" s="3"/>
+      <c r="AF65" s="3"/>
+      <c r="AG65" s="3"/>
+      <c r="AH65" s="3"/>
+      <c r="AI65" s="3"/>
+      <c r="AJ65" s="3"/>
+      <c r="AK65" s="3"/>
+      <c r="AL65" s="3"/>
+      <c r="AM65" s="3"/>
+      <c r="AN65" s="3"/>
+      <c r="AO65" s="3"/>
+      <c r="AP65" s="3"/>
+      <c r="AQ65" s="3"/>
+      <c r="AR65" s="3"/>
+      <c r="AS65" s="3"/>
+      <c r="AT65" s="3"/>
+      <c r="AU65" s="3"/>
+      <c r="AV65" s="3"/>
+      <c r="AW65" s="3"/>
+      <c r="AX65" s="3"/>
+      <c r="AY65" s="3"/>
+      <c r="AZ65" s="3"/>
+      <c r="BA65" s="3"/>
+      <c r="BB65" s="3"/>
+      <c r="BC65" s="3"/>
     </row>
-    <row r="50" spans="1:57" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="7"/>
-      <c r="B50" s="7"/>
+    <row r="66" spans="1:149" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="7"/>
+      <c r="B66" s="7"/>
     </row>
-    <row r="51" spans="1:57" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" spans="1:57" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" spans="1:57" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="1:57" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="1:57" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="1:57" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="1:57" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="1:57" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="1:57" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="1:57" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="1:57" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="1:57" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="1:57" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="1:57" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" spans="1:149" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" spans="1:149" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" spans="1:149" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="6"/>
-      <c r="B67" s="6"/>
-      <c r="C67" s="3"/>
-      <c r="K67" s="3"/>
-      <c r="L67" s="3"/>
-      <c r="M67" s="3"/>
-      <c r="N67" s="3"/>
-      <c r="O67" s="3"/>
-      <c r="P67" s="3"/>
-      <c r="Q67" s="3"/>
-      <c r="R67" s="3"/>
-      <c r="S67" s="3"/>
-      <c r="T67" s="3"/>
-      <c r="U67" s="3"/>
-      <c r="V67" s="3"/>
-      <c r="W67" s="3"/>
-      <c r="X67" s="3"/>
-      <c r="Y67" s="3"/>
-      <c r="Z67" s="3"/>
-      <c r="AA67" s="3"/>
-      <c r="AB67" s="3"/>
-      <c r="AC67" s="3"/>
-      <c r="AD67" s="3"/>
-      <c r="AE67" s="3"/>
-      <c r="AF67" s="3"/>
-      <c r="AG67" s="3"/>
-      <c r="AH67" s="3"/>
-      <c r="AI67" s="3"/>
-      <c r="AJ67" s="3"/>
-      <c r="AK67" s="3"/>
-      <c r="AL67" s="3"/>
-      <c r="AM67" s="3"/>
-      <c r="AN67" s="3"/>
-      <c r="AO67" s="3"/>
-      <c r="AP67" s="3"/>
-      <c r="AQ67" s="3"/>
-      <c r="AR67" s="3"/>
-      <c r="AS67" s="3"/>
-      <c r="AT67" s="3"/>
-      <c r="AU67" s="3"/>
-      <c r="AV67" s="3"/>
-      <c r="AW67" s="3"/>
-      <c r="AX67" s="3"/>
-      <c r="AY67" s="3"/>
-      <c r="AZ67" s="3"/>
-      <c r="BA67" s="3"/>
-      <c r="BB67" s="3"/>
-      <c r="BC67" s="3"/>
+    <row r="67" spans="1:149" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="7"/>
+      <c r="B67" s="7"/>
+      <c r="BD67" s="3"/>
+      <c r="BE67" s="3"/>
+      <c r="BF67" s="3"/>
+      <c r="BG67" s="3"/>
+      <c r="BH67" s="3"/>
+      <c r="BI67" s="3"/>
+      <c r="BJ67" s="3"/>
+      <c r="BK67" s="3"/>
+      <c r="BL67" s="3"/>
+      <c r="BM67" s="3"/>
+      <c r="BN67" s="3"/>
+      <c r="BO67" s="3"/>
+      <c r="BP67" s="3"/>
+      <c r="BQ67" s="3"/>
+      <c r="BR67" s="3"/>
+      <c r="BS67" s="3"/>
+      <c r="BT67" s="3"/>
+      <c r="BU67" s="3"/>
+      <c r="BV67" s="3"/>
+      <c r="BW67" s="3"/>
+      <c r="BX67" s="3"/>
+      <c r="BY67" s="3"/>
+      <c r="BZ67" s="3"/>
+      <c r="CA67" s="3"/>
+      <c r="CB67" s="3"/>
+      <c r="CC67" s="3"/>
+      <c r="CD67" s="3"/>
+      <c r="CE67" s="3"/>
+      <c r="CF67" s="3"/>
+      <c r="CG67" s="3"/>
+      <c r="CH67" s="3"/>
+      <c r="CI67" s="3"/>
+      <c r="CJ67" s="3"/>
+      <c r="CK67" s="3"/>
+      <c r="CL67" s="3"/>
+      <c r="CM67" s="3"/>
+      <c r="CN67" s="3"/>
+      <c r="CO67" s="3"/>
+      <c r="CP67" s="3"/>
+      <c r="CQ67" s="3"/>
+      <c r="CR67" s="3"/>
+      <c r="CS67" s="3"/>
+      <c r="CT67" s="3"/>
+      <c r="CU67" s="3"/>
+      <c r="CV67" s="3"/>
+      <c r="CW67" s="3"/>
+      <c r="CX67" s="3"/>
+      <c r="CY67" s="3"/>
+      <c r="CZ67" s="3"/>
+      <c r="DA67" s="3"/>
+      <c r="DB67" s="3"/>
+      <c r="DC67" s="3"/>
+      <c r="DD67" s="3"/>
+      <c r="DE67" s="3"/>
+      <c r="DF67" s="3"/>
+      <c r="DG67" s="3"/>
+      <c r="DH67" s="3"/>
+      <c r="DI67" s="3"/>
+      <c r="DJ67" s="3"/>
+      <c r="DK67" s="3"/>
+      <c r="DL67" s="3"/>
+      <c r="DM67" s="3"/>
+      <c r="DN67" s="3"/>
+      <c r="DO67" s="3"/>
+      <c r="DP67" s="3"/>
+      <c r="DQ67" s="3"/>
+      <c r="DR67" s="3"/>
+      <c r="DS67" s="3"/>
+      <c r="DT67" s="3"/>
+      <c r="DU67" s="3"/>
+      <c r="DV67" s="3"/>
+      <c r="DW67" s="3"/>
+      <c r="DX67" s="3"/>
+      <c r="DY67" s="3"/>
+      <c r="DZ67" s="3"/>
+      <c r="EA67" s="3"/>
+      <c r="EB67" s="3"/>
+      <c r="EC67" s="3"/>
+      <c r="ED67" s="3"/>
+      <c r="EE67" s="3"/>
+      <c r="EF67" s="3"/>
+      <c r="EG67" s="3"/>
+      <c r="EH67" s="3"/>
+      <c r="EI67" s="3"/>
+      <c r="EJ67" s="3"/>
+      <c r="EK67" s="3"/>
+      <c r="EL67" s="3"/>
+      <c r="EM67" s="3"/>
+      <c r="EN67" s="3"/>
+      <c r="EO67" s="3"/>
+      <c r="EP67" s="3"/>
+      <c r="EQ67" s="3"/>
+      <c r="ER67" s="3"/>
+      <c r="ES67" s="3"/>
     </row>
-    <row r="68" spans="1:149" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:149" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="7"/>
       <c r="B68" s="7"/>
     </row>
-    <row r="69" spans="1:149" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:149" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
-      <c r="BD69" s="3"/>
-      <c r="BE69" s="3"/>
-      <c r="BF69" s="3"/>
-      <c r="BG69" s="3"/>
-      <c r="BH69" s="3"/>
-      <c r="BI69" s="3"/>
-      <c r="BJ69" s="3"/>
-      <c r="BK69" s="3"/>
-      <c r="BL69" s="3"/>
-      <c r="BM69" s="3"/>
-      <c r="BN69" s="3"/>
-      <c r="BO69" s="3"/>
-      <c r="BP69" s="3"/>
-      <c r="BQ69" s="3"/>
-      <c r="BR69" s="3"/>
-      <c r="BS69" s="3"/>
-      <c r="BT69" s="3"/>
-      <c r="BU69" s="3"/>
-      <c r="BV69" s="3"/>
-      <c r="BW69" s="3"/>
-      <c r="BX69" s="3"/>
-      <c r="BY69" s="3"/>
-      <c r="BZ69" s="3"/>
-      <c r="CA69" s="3"/>
-      <c r="CB69" s="3"/>
-      <c r="CC69" s="3"/>
-      <c r="CD69" s="3"/>
-      <c r="CE69" s="3"/>
-      <c r="CF69" s="3"/>
-      <c r="CG69" s="3"/>
-      <c r="CH69" s="3"/>
-      <c r="CI69" s="3"/>
-      <c r="CJ69" s="3"/>
-      <c r="CK69" s="3"/>
-      <c r="CL69" s="3"/>
-      <c r="CM69" s="3"/>
-      <c r="CN69" s="3"/>
-      <c r="CO69" s="3"/>
-      <c r="CP69" s="3"/>
-      <c r="CQ69" s="3"/>
-      <c r="CR69" s="3"/>
-      <c r="CS69" s="3"/>
-      <c r="CT69" s="3"/>
-      <c r="CU69" s="3"/>
-      <c r="CV69" s="3"/>
-      <c r="CW69" s="3"/>
-      <c r="CX69" s="3"/>
-      <c r="CY69" s="3"/>
-      <c r="CZ69" s="3"/>
-      <c r="DA69" s="3"/>
-      <c r="DB69" s="3"/>
-      <c r="DC69" s="3"/>
-      <c r="DD69" s="3"/>
-      <c r="DE69" s="3"/>
-      <c r="DF69" s="3"/>
-      <c r="DG69" s="3"/>
-      <c r="DH69" s="3"/>
-      <c r="DI69" s="3"/>
-      <c r="DJ69" s="3"/>
-      <c r="DK69" s="3"/>
-      <c r="DL69" s="3"/>
-      <c r="DM69" s="3"/>
-      <c r="DN69" s="3"/>
-      <c r="DO69" s="3"/>
-      <c r="DP69" s="3"/>
-      <c r="DQ69" s="3"/>
-      <c r="DR69" s="3"/>
-      <c r="DS69" s="3"/>
-      <c r="DT69" s="3"/>
-      <c r="DU69" s="3"/>
-      <c r="DV69" s="3"/>
-      <c r="DW69" s="3"/>
-      <c r="DX69" s="3"/>
-      <c r="DY69" s="3"/>
-      <c r="DZ69" s="3"/>
-      <c r="EA69" s="3"/>
-      <c r="EB69" s="3"/>
-      <c r="EC69" s="3"/>
-      <c r="ED69" s="3"/>
-      <c r="EE69" s="3"/>
-      <c r="EF69" s="3"/>
-      <c r="EG69" s="3"/>
-      <c r="EH69" s="3"/>
-      <c r="EI69" s="3"/>
-      <c r="EJ69" s="3"/>
-      <c r="EK69" s="3"/>
-      <c r="EL69" s="3"/>
-      <c r="EM69" s="3"/>
-      <c r="EN69" s="3"/>
-      <c r="EO69" s="3"/>
-      <c r="EP69" s="3"/>
-      <c r="EQ69" s="3"/>
-      <c r="ER69" s="3"/>
-      <c r="ES69" s="3"/>
     </row>
-    <row r="70" spans="1:149" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:149" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
     </row>
-    <row r="71" spans="1:149" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="7"/>
-      <c r="B71" s="7"/>
+    <row r="71" spans="1:149" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" spans="1:149" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" spans="1:149" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" spans="1:149" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" spans="1:149" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" spans="1:149" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" spans="1:149" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" spans="1:149" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+      <c r="O78" s="1"/>
+      <c r="P78" s="1"/>
+      <c r="Q78" s="1"/>
+      <c r="R78" s="1"/>
+      <c r="S78" s="1"/>
+      <c r="T78" s="1"/>
+      <c r="U78" s="1"/>
+      <c r="V78" s="1"/>
+      <c r="W78" s="1"/>
+      <c r="X78" s="1"/>
+      <c r="Y78" s="1"/>
+      <c r="Z78" s="1"/>
+      <c r="AA78" s="1"/>
+      <c r="AB78" s="1"/>
+      <c r="AC78" s="1"/>
+      <c r="AD78" s="1"/>
+      <c r="AE78" s="1"/>
+      <c r="AF78" s="1"/>
+      <c r="AG78" s="1"/>
+      <c r="AH78" s="1"/>
+      <c r="AI78" s="1"/>
+      <c r="AJ78" s="1"/>
+      <c r="AK78" s="1"/>
+      <c r="AL78" s="1"/>
+      <c r="AM78" s="1"/>
+      <c r="AN78" s="1"/>
+      <c r="AO78" s="1"/>
+      <c r="AP78" s="1"/>
+      <c r="AQ78" s="1"/>
+      <c r="AR78" s="1"/>
+      <c r="AS78" s="1"/>
+      <c r="AT78" s="1"/>
+      <c r="AU78" s="1"/>
+      <c r="AV78" s="1"/>
+      <c r="AW78" s="1"/>
+      <c r="AX78" s="1"/>
+      <c r="AY78" s="1"/>
+      <c r="AZ78" s="1"/>
+      <c r="BA78" s="1"/>
+      <c r="BB78" s="1"/>
+      <c r="BC78" s="1"/>
     </row>
-    <row r="72" spans="1:149" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="7"/>
-      <c r="B72" s="7"/>
-    </row>
-    <row r="73" spans="1:149" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" spans="1:149" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="1:149" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" spans="1:149" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="1:149" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="1:149" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="1:149" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="1:149" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
-      <c r="J80" s="1"/>
-      <c r="K80" s="1"/>
-      <c r="L80" s="1"/>
-      <c r="M80" s="1"/>
-      <c r="N80" s="1"/>
-      <c r="O80" s="1"/>
-      <c r="P80" s="1"/>
-      <c r="Q80" s="1"/>
-      <c r="R80" s="1"/>
-      <c r="S80" s="1"/>
-      <c r="T80" s="1"/>
-      <c r="U80" s="1"/>
-      <c r="V80" s="1"/>
-      <c r="W80" s="1"/>
-      <c r="X80" s="1"/>
-      <c r="Y80" s="1"/>
-      <c r="Z80" s="1"/>
-      <c r="AA80" s="1"/>
-      <c r="AB80" s="1"/>
-      <c r="AC80" s="1"/>
-      <c r="AD80" s="1"/>
-      <c r="AE80" s="1"/>
-      <c r="AF80" s="1"/>
-      <c r="AG80" s="1"/>
-      <c r="AH80" s="1"/>
-      <c r="AI80" s="1"/>
-      <c r="AJ80" s="1"/>
-      <c r="AK80" s="1"/>
-      <c r="AL80" s="1"/>
-      <c r="AM80" s="1"/>
-      <c r="AN80" s="1"/>
-      <c r="AO80" s="1"/>
-      <c r="AP80" s="1"/>
-      <c r="AQ80" s="1"/>
-      <c r="AR80" s="1"/>
-      <c r="AS80" s="1"/>
-      <c r="AT80" s="1"/>
-      <c r="AU80" s="1"/>
-      <c r="AV80" s="1"/>
-      <c r="AW80" s="1"/>
-      <c r="AX80" s="1"/>
-      <c r="AY80" s="1"/>
-      <c r="AZ80" s="1"/>
-      <c r="BA80" s="1"/>
-      <c r="BB80" s="1"/>
-      <c r="BC80" s="1"/>
-    </row>
-    <row r="81" spans="1:55" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
-      <c r="H81" s="1"/>
-      <c r="I81" s="1"/>
-      <c r="J81" s="1"/>
-      <c r="K81" s="1"/>
-      <c r="L81" s="1"/>
-      <c r="M81" s="1"/>
-      <c r="N81" s="1"/>
-      <c r="O81" s="1"/>
-      <c r="P81" s="1"/>
-      <c r="Q81" s="1"/>
-      <c r="R81" s="1"/>
-      <c r="S81" s="1"/>
-      <c r="T81" s="1"/>
-      <c r="U81" s="1"/>
-      <c r="V81" s="1"/>
-      <c r="W81" s="1"/>
-      <c r="X81" s="1"/>
-      <c r="Y81" s="1"/>
-      <c r="Z81" s="1"/>
-      <c r="AA81" s="1"/>
-      <c r="AB81" s="1"/>
-      <c r="AC81" s="1"/>
-      <c r="AD81" s="1"/>
-      <c r="AE81" s="1"/>
-      <c r="AF81" s="1"/>
-      <c r="AG81" s="1"/>
-      <c r="AH81" s="1"/>
-      <c r="AI81" s="1"/>
-      <c r="AJ81" s="1"/>
-      <c r="AK81" s="1"/>
-      <c r="AL81" s="1"/>
-      <c r="AM81" s="1"/>
-      <c r="AN81" s="1"/>
-      <c r="AO81" s="1"/>
-      <c r="AP81" s="1"/>
-      <c r="AQ81" s="1"/>
-      <c r="AR81" s="1"/>
-      <c r="AS81" s="1"/>
-      <c r="AT81" s="1"/>
-      <c r="AU81" s="1"/>
-      <c r="AV81" s="1"/>
-      <c r="AW81" s="1"/>
-      <c r="AX81" s="1"/>
-      <c r="AY81" s="1"/>
-      <c r="AZ81" s="1"/>
-      <c r="BA81" s="1"/>
-      <c r="BB81" s="1"/>
-      <c r="BC81" s="1"/>
+    <row r="79" spans="1:149" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+      <c r="O79" s="1"/>
+      <c r="P79" s="1"/>
+      <c r="Q79" s="1"/>
+      <c r="R79" s="1"/>
+      <c r="S79" s="1"/>
+      <c r="T79" s="1"/>
+      <c r="U79" s="1"/>
+      <c r="V79" s="1"/>
+      <c r="W79" s="1"/>
+      <c r="X79" s="1"/>
+      <c r="Y79" s="1"/>
+      <c r="Z79" s="1"/>
+      <c r="AA79" s="1"/>
+      <c r="AB79" s="1"/>
+      <c r="AC79" s="1"/>
+      <c r="AD79" s="1"/>
+      <c r="AE79" s="1"/>
+      <c r="AF79" s="1"/>
+      <c r="AG79" s="1"/>
+      <c r="AH79" s="1"/>
+      <c r="AI79" s="1"/>
+      <c r="AJ79" s="1"/>
+      <c r="AK79" s="1"/>
+      <c r="AL79" s="1"/>
+      <c r="AM79" s="1"/>
+      <c r="AN79" s="1"/>
+      <c r="AO79" s="1"/>
+      <c r="AP79" s="1"/>
+      <c r="AQ79" s="1"/>
+      <c r="AR79" s="1"/>
+      <c r="AS79" s="1"/>
+      <c r="AT79" s="1"/>
+      <c r="AU79" s="1"/>
+      <c r="AV79" s="1"/>
+      <c r="AW79" s="1"/>
+      <c r="AX79" s="1"/>
+      <c r="AY79" s="1"/>
+      <c r="AZ79" s="1"/>
+      <c r="BA79" s="1"/>
+      <c r="BB79" s="1"/>
+      <c r="BC79" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="176">
-    <mergeCell ref="A43:H43"/>
-    <mergeCell ref="I43:P43"/>
-    <mergeCell ref="Q43:V43"/>
-    <mergeCell ref="W43:AD43"/>
-    <mergeCell ref="AE43:BC43"/>
-    <mergeCell ref="A46:H46"/>
-    <mergeCell ref="I46:P46"/>
-    <mergeCell ref="Q46:V46"/>
-    <mergeCell ref="W46:AD46"/>
-    <mergeCell ref="AE46:BC46"/>
-    <mergeCell ref="A44:H44"/>
-    <mergeCell ref="I44:P44"/>
-    <mergeCell ref="Q44:V44"/>
-    <mergeCell ref="W44:AD44"/>
-    <mergeCell ref="AE44:BC44"/>
-    <mergeCell ref="A45:H45"/>
-    <mergeCell ref="I45:P45"/>
-    <mergeCell ref="Q45:V45"/>
-    <mergeCell ref="W45:AD45"/>
-    <mergeCell ref="AE45:BC45"/>
-    <mergeCell ref="A41:H41"/>
-    <mergeCell ref="I41:P41"/>
-    <mergeCell ref="Q41:V41"/>
-    <mergeCell ref="W41:AD41"/>
-    <mergeCell ref="AE41:BC41"/>
-    <mergeCell ref="A42:H42"/>
-    <mergeCell ref="I42:P42"/>
-    <mergeCell ref="Q42:V42"/>
-    <mergeCell ref="W42:AD42"/>
-    <mergeCell ref="AE42:BC42"/>
-    <mergeCell ref="A39:H39"/>
-    <mergeCell ref="I39:P39"/>
-    <mergeCell ref="Q39:V39"/>
-    <mergeCell ref="W39:AD39"/>
-    <mergeCell ref="AE39:BC39"/>
-    <mergeCell ref="A40:H40"/>
-    <mergeCell ref="I40:P40"/>
-    <mergeCell ref="Q40:V40"/>
-    <mergeCell ref="W40:AD40"/>
-    <mergeCell ref="AE40:BC40"/>
-    <mergeCell ref="A36:H37"/>
-    <mergeCell ref="I36:P37"/>
-    <mergeCell ref="Q36:V37"/>
-    <mergeCell ref="W36:AD37"/>
-    <mergeCell ref="AE36:BC37"/>
-    <mergeCell ref="A38:H38"/>
-    <mergeCell ref="I38:P38"/>
-    <mergeCell ref="Q38:V38"/>
-    <mergeCell ref="W38:AD38"/>
-    <mergeCell ref="AE38:BC38"/>
-    <mergeCell ref="A28:H28"/>
-    <mergeCell ref="I28:P28"/>
-    <mergeCell ref="Q28:V28"/>
-    <mergeCell ref="W28:AD28"/>
-    <mergeCell ref="AE28:BC28"/>
-    <mergeCell ref="A33:E34"/>
-    <mergeCell ref="F33:W34"/>
-    <mergeCell ref="X33:AB34"/>
-    <mergeCell ref="AC33:BC34"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="I26:P26"/>
-    <mergeCell ref="Q26:V26"/>
-    <mergeCell ref="W26:AD26"/>
-    <mergeCell ref="AE26:BC26"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="I27:P27"/>
-    <mergeCell ref="Q27:V27"/>
-    <mergeCell ref="W27:AD27"/>
-    <mergeCell ref="AE27:BC27"/>
-    <mergeCell ref="A24:H24"/>
-    <mergeCell ref="I24:P24"/>
-    <mergeCell ref="Q24:V24"/>
-    <mergeCell ref="W24:AD24"/>
-    <mergeCell ref="AE24:BC24"/>
-    <mergeCell ref="A25:H25"/>
-    <mergeCell ref="I25:P25"/>
-    <mergeCell ref="Q25:V25"/>
-    <mergeCell ref="W25:AD25"/>
-    <mergeCell ref="AE25:BC25"/>
-    <mergeCell ref="A22:H22"/>
-    <mergeCell ref="I22:P22"/>
-    <mergeCell ref="Q22:V22"/>
-    <mergeCell ref="W22:AD22"/>
-    <mergeCell ref="AE22:BC22"/>
-    <mergeCell ref="A23:H23"/>
-    <mergeCell ref="I23:P23"/>
-    <mergeCell ref="Q23:V23"/>
-    <mergeCell ref="W23:AD23"/>
-    <mergeCell ref="AE23:BC23"/>
-    <mergeCell ref="A17:E18"/>
-    <mergeCell ref="F17:W18"/>
-    <mergeCell ref="X17:AB18"/>
-    <mergeCell ref="AC17:BC18"/>
-    <mergeCell ref="A20:H21"/>
-    <mergeCell ref="I20:P21"/>
-    <mergeCell ref="Q20:V21"/>
-    <mergeCell ref="W20:AD21"/>
-    <mergeCell ref="AE20:BC21"/>
-    <mergeCell ref="A4:E5"/>
-    <mergeCell ref="AC4:BC5"/>
-    <mergeCell ref="AE10:BC10"/>
-    <mergeCell ref="AE11:BC11"/>
-    <mergeCell ref="AE12:BC12"/>
-    <mergeCell ref="AE13:BC13"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="I14:P14"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="I10:P10"/>
-    <mergeCell ref="Q10:V10"/>
-    <mergeCell ref="W10:AD10"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="I11:P11"/>
-    <mergeCell ref="Q11:V11"/>
-    <mergeCell ref="W11:AD11"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="I12:P12"/>
-    <mergeCell ref="Q12:V12"/>
+  <mergeCells count="164">
+    <mergeCell ref="W16:AD16"/>
+    <mergeCell ref="Q16:V16"/>
+    <mergeCell ref="I16:P16"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="AE16:BC16"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="I15:P15"/>
+    <mergeCell ref="Q15:V15"/>
+    <mergeCell ref="W15:AD15"/>
+    <mergeCell ref="AE15:BC15"/>
+    <mergeCell ref="AE14:BC14"/>
+    <mergeCell ref="Q14:V14"/>
+    <mergeCell ref="W14:AD14"/>
+    <mergeCell ref="W12:AD12"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="I13:P13"/>
+    <mergeCell ref="Q13:V13"/>
+    <mergeCell ref="W13:AD13"/>
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="O1:W1"/>
     <mergeCell ref="X1:AA1"/>
@@ -25101,45 +25043,132 @@
     <mergeCell ref="AU2:AW2"/>
     <mergeCell ref="AX2:BC2"/>
     <mergeCell ref="A1:J2"/>
+    <mergeCell ref="A4:E5"/>
+    <mergeCell ref="AC4:BC5"/>
+    <mergeCell ref="AE10:BC10"/>
+    <mergeCell ref="AE11:BC11"/>
+    <mergeCell ref="AE12:BC12"/>
+    <mergeCell ref="AE13:BC13"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="I14:P14"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="I10:P10"/>
+    <mergeCell ref="Q10:V10"/>
+    <mergeCell ref="W10:AD10"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="I11:P11"/>
+    <mergeCell ref="Q11:V11"/>
+    <mergeCell ref="W11:AD11"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="I12:P12"/>
+    <mergeCell ref="Q12:V12"/>
     <mergeCell ref="A9:H9"/>
     <mergeCell ref="I9:P9"/>
     <mergeCell ref="Q9:V9"/>
     <mergeCell ref="W9:AD9"/>
     <mergeCell ref="AE9:BC9"/>
-    <mergeCell ref="AE14:BC14"/>
-    <mergeCell ref="AE15:BC15"/>
-    <mergeCell ref="Q14:V14"/>
-    <mergeCell ref="W14:AD14"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="I15:P15"/>
-    <mergeCell ref="Q15:V15"/>
-    <mergeCell ref="W15:AD15"/>
-    <mergeCell ref="W12:AD12"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="I13:P13"/>
-    <mergeCell ref="Q13:V13"/>
-    <mergeCell ref="W13:AD13"/>
-    <mergeCell ref="A30:J31"/>
-    <mergeCell ref="K30:N30"/>
-    <mergeCell ref="O30:W30"/>
-    <mergeCell ref="X30:AA30"/>
-    <mergeCell ref="AB30:AJ30"/>
-    <mergeCell ref="AK30:AM30"/>
-    <mergeCell ref="AN30:AT30"/>
-    <mergeCell ref="AU30:AW30"/>
-    <mergeCell ref="AX30:BC30"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="O31:W31"/>
-    <mergeCell ref="X31:AA31"/>
-    <mergeCell ref="AB31:AJ31"/>
-    <mergeCell ref="AK31:AM31"/>
-    <mergeCell ref="AN31:AT31"/>
-    <mergeCell ref="AU31:AW31"/>
-    <mergeCell ref="AX31:BC31"/>
+    <mergeCell ref="A18:E19"/>
+    <mergeCell ref="F18:W19"/>
+    <mergeCell ref="X18:AB19"/>
+    <mergeCell ref="AC18:BC19"/>
+    <mergeCell ref="A21:H22"/>
+    <mergeCell ref="I21:P22"/>
+    <mergeCell ref="Q21:V22"/>
+    <mergeCell ref="W21:AD22"/>
+    <mergeCell ref="AE21:BC22"/>
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="I23:P23"/>
+    <mergeCell ref="Q23:V23"/>
+    <mergeCell ref="W23:AD23"/>
+    <mergeCell ref="AE23:BC23"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="I24:P24"/>
+    <mergeCell ref="Q24:V24"/>
+    <mergeCell ref="W24:AD24"/>
+    <mergeCell ref="AE24:BC24"/>
+    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="I25:P25"/>
+    <mergeCell ref="Q25:V25"/>
+    <mergeCell ref="W25:AD25"/>
+    <mergeCell ref="AE25:BC25"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="I26:P26"/>
+    <mergeCell ref="Q26:V26"/>
+    <mergeCell ref="W26:AD26"/>
+    <mergeCell ref="AE26:BC26"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="I27:P27"/>
+    <mergeCell ref="Q27:V27"/>
+    <mergeCell ref="W27:AD27"/>
+    <mergeCell ref="AE27:BC27"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="I28:P28"/>
+    <mergeCell ref="Q28:V28"/>
+    <mergeCell ref="W28:AD28"/>
+    <mergeCell ref="AE28:BC28"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="I29:P29"/>
+    <mergeCell ref="Q29:V29"/>
+    <mergeCell ref="W29:AD29"/>
+    <mergeCell ref="AE29:BC29"/>
+    <mergeCell ref="A31:E32"/>
+    <mergeCell ref="F31:W32"/>
+    <mergeCell ref="X31:AB32"/>
+    <mergeCell ref="AC31:BC32"/>
+    <mergeCell ref="A34:H35"/>
+    <mergeCell ref="I34:P35"/>
+    <mergeCell ref="Q34:V35"/>
+    <mergeCell ref="W34:AD35"/>
+    <mergeCell ref="AE34:BC35"/>
+    <mergeCell ref="A36:H36"/>
+    <mergeCell ref="I36:P36"/>
+    <mergeCell ref="Q36:V36"/>
+    <mergeCell ref="W36:AD36"/>
+    <mergeCell ref="AE36:BC36"/>
+    <mergeCell ref="A37:H37"/>
+    <mergeCell ref="I37:P37"/>
+    <mergeCell ref="Q37:V37"/>
+    <mergeCell ref="W37:AD37"/>
+    <mergeCell ref="AE37:BC37"/>
+    <mergeCell ref="A38:H38"/>
+    <mergeCell ref="I38:P38"/>
+    <mergeCell ref="Q38:V38"/>
+    <mergeCell ref="W38:AD38"/>
+    <mergeCell ref="AE38:BC38"/>
+    <mergeCell ref="A39:H39"/>
+    <mergeCell ref="I39:P39"/>
+    <mergeCell ref="Q39:V39"/>
+    <mergeCell ref="W39:AD39"/>
+    <mergeCell ref="AE39:BC39"/>
+    <mergeCell ref="A40:H40"/>
+    <mergeCell ref="I40:P40"/>
+    <mergeCell ref="Q40:V40"/>
+    <mergeCell ref="W40:AD40"/>
+    <mergeCell ref="AE40:BC40"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="I41:P41"/>
+    <mergeCell ref="Q41:V41"/>
+    <mergeCell ref="W41:AD41"/>
+    <mergeCell ref="AE41:BC41"/>
+    <mergeCell ref="A44:H44"/>
+    <mergeCell ref="I44:P44"/>
+    <mergeCell ref="Q44:V44"/>
+    <mergeCell ref="W44:AD44"/>
+    <mergeCell ref="AE44:BC44"/>
+    <mergeCell ref="A42:H42"/>
+    <mergeCell ref="I42:P42"/>
+    <mergeCell ref="Q42:V42"/>
+    <mergeCell ref="W42:AD42"/>
+    <mergeCell ref="AE42:BC42"/>
+    <mergeCell ref="A43:H43"/>
+    <mergeCell ref="I43:P43"/>
+    <mergeCell ref="Q43:V43"/>
+    <mergeCell ref="W43:AD43"/>
+    <mergeCell ref="AE43:BC43"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q9:Q16 Q38:Q47 Q22:Q29">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q9:Q17 Q36:Q45 Q23:Q30" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>部品種別</formula1>
     </dataValidation>
   </dataValidations>
@@ -25148,67 +25177,67 @@
   <pageSetup paperSize="9" scale="57" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="68" max="16383" man="1"/>
+    <brk id="66" max="16383" man="1"/>
   </rowBreaks>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" style="2" customWidth="1"/>
     <col min="2" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
@@ -25220,21 +25249,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100F5656D937027614D93C88AB71AE3D10C" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="b60c200d0ae5f270a77b0ce61d313f15">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="75fae816-41bf-471e-909f-5205fc9f8b57" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="893732230ae29545b6addaf499a489b1" ns2:_="">
     <xsd:import namespace="75fae816-41bf-471e-909f-5205fc9f8b57"/>
@@ -25366,24 +25380,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1772C4F8-7E90-48A5-BA69-025DEF3B94A6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB350337-5F8D-43AC-A85C-B7B1DB45F08B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{779E7F19-D7BB-4605-A5DA-30EE80C7B0F0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -25399,4 +25411,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB350337-5F8D-43AC-A85C-B7B1DB45F08B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1772C4F8-7E90-48A5-BA69-025DEF3B94A6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>